--- a/scrapy_learning/carpro/carpro/spiders/id4_comment.xlsx
+++ b/scrapy_learning/carpro/carpro/spiders/id4_comment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,11 +504,39 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
+              2022款ID.4 X 智享长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>坐标深圳，智享长续航，选配抬显，5月1号订车，19号通知提车，优惠完开票卡20万价格拿补贴，落地全款22万左右，省补8000已拿到手，在等区补11000审批，综合下来21万不到拿下
+24000的id豆换了终身保养，轮胎险，保险补贴，三电终身，整车质保6年/18万公里，剩400豆换了v豆
+4s送了行车记录仪，原厂挡泥板脚垫行…李垫，全车kdx防晒膜
+自己本身开r56 mini jcw，家里有其他车，自己是银行业上班，买车原因不想jcw浪费公里数在跑业务上，家里有固定车位，就决定买一台电车城市代步，看了不少电车，中心主旨，空间大，价格不想超25万，拒绝油改电，因为两个娃，后期想买台7座mpv。本来想买aion y，涨价就觉得性价比不高。model 3后排太小，y超一点点预算，重点是要等车太久，放弃。理想one太大台，6座鸡肋。小鹏p5车身比例太丑，p7原因跟tsl 3一样。byd实在喜欢不起来，一言难尽。其他新势力就不太放心。id系列也是无意中发现，后面了解了下好歹全球销量也不错，考虑过id6，但是也是太大台，6座7座第三排都很鸡肋，而且我中间要放安全座椅，更加不好用第三排，放弃。id3也喜欢，车内空间其实跟id4差不多，毕竟轴距一样，就是车顶矮一点，车尾箱小了点，家里有小车了就不考虑了。从知道id4到下订48小时不到，问了crozz跟x，喜欢crozz前脸，但是其他折算送电卡1万多对于我可以装充电桩来说作用不大，22款配置两家都基本一致，对比下来x综合价格权益比较符合我。自己对车内智能不太感冒，觉得够用就好，自己开mini车机也只是听听歌广播，看看车子信息。id4的车机对于我已经十分够用了。国内新势力车内配置太内卷，好像少个两三个大屏就不是行内标准。我觉得车重点还是放在安全性跟驾驶感上比较好。开过不少电车，对比下来，说实在，id4的行驶质感很好，底盘很扎实。车内空间也达到个人预期需求。
+目前开了1200多一点公里，家里充电花了50块不到，尝试了玩下快充花了20块。一般30%冲到80%，没什么里程焦虑，就没有特别省电开，经常躲车里开着空调玩手机。
+车子车机一次转向灯声音消失故障，一次断网，均重启车机后恢复。有几次低速倒车时紧急制动，估计防碰撞太灵敏。自动跟车挺好用，自动降速加速不突兀。
+总的下来，id4还是不错的。如果家里能装充电桩的直接冲电车就好，没啥好焦虑的。我也不怎么考虑保值率问题，未来的事谁知道呢。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
               2022款ID.4 X 纯净长续航版
             </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>外观，内饰都是我能接受的比较中庸，但也是比较排上风格。不激进，不寒碜。
 电动车，首先他是一个车，是一个好车。所以我选择传统品牌，而不是新势力。首先看中大众，是因为我老婆一直跟我说要高尔夫。高尔夫就是典型的大众风格，中庸不突出，底盘没的说，喜欢大众也是从他们主管的帕萨特开始的，我开过好几次，动力你踩下去就有，加速很平顺，开着很稳，给人很扎实的感觉。
@@ -519,24 +547,24 @@
 我老婆问我几次了，买这车后悔吗？我觉得我不后悔，总体是很好的一个车。如果再让我选一次，钱够的话我想我会要ET5，除了这个我还是稳选ID4x。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2022款ID.4 X 极智长续航版
             </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>外观：颜值符合我的审美，家人也都说好看，耐看。原来已经订了宋plus ev的，看到id4x的颜值，改换门庭了。
 内饰：还是比较大众的感觉，总体有点迎合年轻人，硬塑料较多，软质包裹还偏少，钢琴烤漆易留下指纹。5.3寸的小屏实在有点寒酸，改为10寸，我觉得这车能大卖！
@@ -547,24 +575,105 @@
 驾驶感受：很德系。方向盘低速很轻，高速又很稳，悬架干脆，减震支撑度够，过弯很有信心。255+235、21寸大轮毂，抓地力强，胎噪控制到位，虽然没有双层玻璃，但隔音效果很好。加装的抬头显示一定程度上弥补了5.3寸小屏的寒酸，导航效果确实比一般抬显好不少；加装的哈曼卡顿音响符合预期。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2022款ID.4 X 纯净长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>从考虑添置一台新能源到买车历时3个月时间，从最开始考虑的荣威科莱威到model y，我发现国内新能源的车型真的太少了，没得选。
+        因为油价屡创新高家里2台油车已经限制了我的出行，再也没有5块钱一升的大油门了，最开始只想考虑个买菜车，平时上一班代步，价格便宜回本容易，想想都会笑，然后两门2座科莱威自然进去了我的视线，但是因为本地4S没有2座现车，多花4000块买2个座位又觉得不划算，再加上没快充，最终还是舍弃了，接着入眼的就是长安奔奔e-ster,刚开始看就迎来了一波改款，我喜欢的内饰直接涨价1万，但是还有些许后悔没有早点看奔奔，接着就迷茫了，本想买个买菜车所以没想贵的，迷茫期一个月，当时都准备放弃买电车了，每天在网上看比亚迪元pro，价格略高有快充底盘高，看着看着又来一波涨价7000，新上的元plus但是没涨价，看了下外形内饰，不是我的菜，又一次放弃了，后来看了电马和特斯拉，看了看价格超预算太多了，果断放弃。
+       直到有一天推了个id广告，我才发现大众还有这么好看的电车啊，紧接着网上看测评和车主评论，公认的电池不虚，这不就是我需要的吗，51抽时间进店看实车，果断下定，经历了一个半月的等车，销售通知提车了，自此我就成了id车主。
+       经过半个月的使用，满电到20跑了400多公里，半程空调，我觉得续航真心不焦虑，现在气温高开空调能耗高，但是这样的能耗我觉得春秋季能到650到700，以后夏天可以不焦虑实现空调自由了</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2022款ID.4 X 智享长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>首先说一下，下定ID4之前也对比了很多车型，但是最终还是选择上汽大众ID4，3.25下定  5.16上牌 5.19提车，提车时间也是够长了。
+  提车第一时间体验了一把，加速够用，但是刹车有点偏软，可能是我之前车改过刹车，习惯了重力刹车，后期会把刹车改一下，提速不能和某拉某来比。
+  内饰做工还是不错的，座椅挺舒服，，按摩力度稍微小了点，车机系统升级，已经没有了之前车友说的黑屏卡机现象了，车机可玩性不高，但是可以看电影，不算卡，无限流量
+提车到现在充了第一次电，满电显示530公里，打开空调 显示480公里，提车时候店里给充了百分之90电，一直都是一脚电门到底，来回超车，实际只跑了280公里，还有70公里续航
+改装音响的时候拆开门板，里面加固很实在，后面图片可以看到，至于为什么没有选择哈曼，而是去改装，第一豆子不够了，如果够我不会选，因为之前车改过音响，拆下来了，第二，4000的哈曼它的音质确实有点尴尬，所以最后还是选择在外面改装。
+   车子到现在为止  装潢分别是  量子钻石V70  五福金牛360软包脚垫和后备箱垫，两块屏幕钢化膜和一些内饰垫。
+最后说下，车子开起来很顺手，上手没有任何问题。</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2022款ID.4 X 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>这次就简单说下ID4原车音响，原车确实有7个扬声器，中控台一个中置中音，前门各有一个中低音，A柱上有个高音，后门是同轴喇叭，本着喜欢听歌的原理，试了一下原厂音响，因为每个人需求不同，我个人感觉只能听听，听人声不透彻，如果听DJ低音也是一带而过，拆开门板，原车喇叭材质很普通，原车四门也没有隔音。
+ 改装方案 前门德国彩虹GL~C6.2 两分频 中置中音SL-M3    
+德国彩虹DREAM4100功放
+德国彩虹汽车音响SL-P0855A 10路6通道DSP功放
+德国ETON伊顿原装进口Force12-600G10寸12寸车载低音炮
+德国ETON伊顿汽车音响改装pow200.2两分频8寸高中低音套装喇叭
+四门和后备箱隔音  俄罗斯STP小炸弹</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2022款ID.4 X 劲能四驱版
             </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>外观方面：
 车身线条营造出饱满的样子显车子很大，前脸和尾部的贯穿式车灯效果很棒，特别是晚上识别率很高。
@@ -580,106 +689,24 @@
 底盘相对来说偏硬，滤震做的一般，每天出小区的减速条，必须要慢慢压过去，有次速度快了点冲过去，颠的人有点晕疼，在D档模式下和汽油车驾驶感受一摸一样，这个必须点赞? 因为我不太喜欢电动车死拽着减速的回能系统，容易让坐着的人晕车，而id4x的这D档完全和汽油车的驾驶感受一摸一样，感觉在开一部科技感很强的途观L一样。</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 智享长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>首先说一下，下定ID4之前也对比了很多车型，但是最终还是选择上汽大众ID4，3.25下定  5.16上牌 5.19提车，提车时间也是够长了。
-  提车第一时间体验了一把，加速够用，但是刹车有点偏软，可能是我之前车改过刹车，习惯了重力刹车，后期会把刹车改一下，提速不能和某拉某来比。
-  内饰做工还是不错的，座椅挺舒服，，按摩力度稍微小了点，车机系统升级，已经没有了之前车友说的黑屏卡机现象了，车机可玩性不高，但是可以看电影，不算卡，无限流量
-提车到现在充了第一次电，满电显示530公里，打开空调 显示480公里，提车时候店里给充了百分之90电，一直都是一脚电门到底，来回超车，实际只跑了280公里，还有70公里续航
-改装音响的时候拆开门板，里面加固很实在，后面图片可以看到，至于为什么没有选择哈曼，而是去改装，第一豆子不够了，如果够我不会选，因为之前车改过音响，拆下来了，第二，4000的哈曼它的音质确实有点尴尬，所以最后还是选择在外面改装。
-   车子到现在为止  装潢分别是  量子钻石V70  五福金牛360软包脚垫和后备箱垫，两块屏幕钢化膜和一些内饰垫。
-最后说下，车子开起来很顺手，上手没有任何问题。</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>这次就简单说下ID4原车音响，原车确实有7个扬声器，中控台一个中置中音，前门各有一个中低音，A柱上有个高音，后门是同轴喇叭，本着喜欢听歌的原理，试了一下原厂音响，因为每个人需求不同，我个人感觉只能听听，听人声不透彻，如果听DJ低音也是一带而过，拆开门板，原车喇叭材质很普通，原车四门也没有隔音。
- 改装方案 前门德国彩虹GL~C6.2 两分频 中置中音SL-M3    
-德国彩虹DREAM4100功放
-德国彩虹汽车音响SL-P0855A 10路6通道DSP功放
-德国ETON伊顿原装进口Force12-600G10寸12寸车载低音炮
-德国ETON伊顿汽车音响改装pow200.2两分频8寸高中低音套装喇叭
-四门和后备箱隔音  俄罗斯STP小炸弹</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 智享长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恰逢上海疫情，等待了45天才提车。因为深度试驾过这款车，驾驶感受极好，符合大众一如既往的质感，车非常好开，尤其是从油车到电车的司机，完全不会不适应。虽然没有极致的零百加速，但定位于家用的这款车，不会让家人有眩晕感，路上还是照秒油车。试了所谓的L2级辅助驾驶，只需手扶方向盘，即可完全解放双脚，可以实现跟停和启动。
-        续航方面，我开了两天，基本城市道路，电耗在13-15，目前天气情况下开600以上可以实现。很扎实，看着续航让人很有信心，完全符合家用需求。
-       空间方面，后排空间很大，满座情况下一点不拥挤，尤其是后备箱空间。唯一一点不如意的地方是后排放倒和后备箱有高度差，打算买个车载魔盒实现纯平，还能储物，一举两得。
-        智能化方面，这点感觉不是大众所擅长的，语音控制极其低端，举个例子，在车机导航已设置好家位置的情况下，“你好大众，导航回家”，竟然不能实现……还有22款的自动泊车辅助，我地库车位试了好几次，都识别不到车位，还在研究中。
-        总结来说，车是好车，如果你就把它当车开，那它会给你惊喜；如果还想要它实现这样那样的功能，那还是选择新势力更好一些。对于我们这些人来说，大众的优势在于服务网络完善，当然有人会说服务态度问题，我只能说，有这么多4S店不会换一家服务好的？人无完人，车无完车，选择自己喜欢的就好，何必在乎别人的看法呢？再说网上说三道四的，哪个不是喷子？</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2022款ID.4 X 纯净长续航版
             </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>【空间表现】
 空间比较不错，我身高一米八，前排调好后排有两拳，后排头顶四指左右，后备箱空间表现优秀。
@@ -695,24 +722,50 @@
 整体驾驶感受不错，底盘扎实，转向灵敏可控性强。减震整体来说偏软，坑洼路段晃动较明显。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2022款ID.4 X 智享长续航版
             </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恰逢上海疫情，等待了45天才提车。因为深度试驾过这款车，驾驶感受极好，符合大众一如既往的质感，车非常好开，尤其是从油车到电车的司机，完全不会不适应。虽然没有极致的零百加速，但定位于家用的这款车，不会让家人有眩晕感，路上还是照秒油车。试了所谓的L2级辅助驾驶，只需手扶方向盘，即可完全解放双脚，可以实现跟停和启动。
+        续航方面，我开了两天，基本城市道路，电耗在13-15，目前天气情况下开600以上可以实现。很扎实，看着续航让人很有信心，完全符合家用需求。
+       空间方面，后排空间很大，满座情况下一点不拥挤，尤其是后备箱空间。唯一一点不如意的地方是后排放倒和后备箱有高度差，打算买个车载魔盒实现纯平，还能储物，一举两得。
+        智能化方面，这点感觉不是大众所擅长的，语音控制极其低端，举个例子，在车机导航已设置好家位置的情况下，“你好大众，导航回家”，竟然不能实现……还有22款的自动泊车辅助，我地库车位试了好几次，都识别不到车位，还在研究中。
+        总结来说，车是好车，如果你就把它当车开，那它会给你惊喜；如果还想要它实现这样那样的功能，那还是选择新势力更好一些。对于我们这些人来说，大众的优势在于服务网络完善，当然有人会说服务态度问题，我只能说，有这么多4S店不会换一家服务好的？人无完人，车无完车，选择自己喜欢的就好，何必在乎别人的看法呢？再说网上说三道四的，哪个不是喷子？</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2022款ID.4 X 智享长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>操控：驾驶操控很棒，机械素质很优秀，超小的转弯半径，让窄路掉头更方便。
 做工：大众的做工一贯很好，这点不用多说。
@@ -722,67 +775,9 @@
 用车成本：用过电动车的人都知道电车的有点之一就是用车成本低，我目前用的是家用充电桩，供电局默认选择峰谷电价，每次充电都用谷电充，一度0.31元，每个月电费基本上就是50-100元之间，因为费用很少，所以也没有具体计算每公里折合多少钱，待后续我在帖子里和大家分享。目前行驶八千多公里，基本上都是家用充电桩在充，电费约500元，做了一次免费的首保，除了保险就这点成本。后续我会把各方面的支出全部算在一起，在满一年的时候和大家分享用车成本。</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>4.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>像大众这样的传统老牌车企，在新能源时代能不能打造出一台让人满意的电动车？这是一个很有趣的话题。从上汽大众ID.电动车家族的领航者ID.4X身上，或许我们可以找到答案。
-得益于MEB平台，ID.4 X可以采用平板式电池模组布置方式，使车辆具有更长的轴距和更短的前后悬，内部空间更大。ID.4 X车身长4,612mm，宽1,852mm，高1,640mm，轴距达2,765mm，达到中型SUV尺寸。
-与其他电动车一样，ID.4 X采用了封闭式车头设计，通过几条横向线条划将整个前脸分为上中下三个区域，中间的品牌LOGO通过细长的LED灯带进行连接，并与左右两侧前大灯组形成一体式造型。这已经与大众过去的设计语言大相径庭。侧面最有特点的是从A柱一直延伸到车尾的镀铬条，让整车车身显得更加修长。尾部贯穿式尾灯，与车头设计呼应。
-在内饰方面，ID.4X采用的同样也是电动车中常见的简约风格设计，整个中控台只有一块12英寸的液晶显示屏。值得一提的是，ID.4 X加入了很多以触碰为主的设计，比如多功能方向盘采用了触觉开关的设计，摁下去会有震动反馈，左侧的车灯控制也是触碰式的操作设计，只需轻轻按压便能切换灯光模式。5.3英寸的液晶仪表被直接安装在了转向柱外壳上面，有点类似特斯拉和比亚迪的设计。
-作为次顶配版本的2022款极智长续航版，在配置上也是恰到好处。除了没有哈曼卡顿音响、HUD、电动四驱、双电机外，其余配置完全向顶配车型看齐。像L2级辅助驾驶、主被动安全系统、360全景影像等等一应俱全，同时还确保了607公里的长续航里程。从个人角度而言，与顶配的那几项锦上添花的配置比起来，我觉得长续航和更低的价格反而更吸引人。
-动力方面，ID.4X搭载了更为传统的永磁同步后驱电机，总功率150千瓦，峰值扭矩310牛•米。在驾驶过程中，动力表现基本与燃油车相似，刹车和加速都具有良好的线性。操控也表现出大众一贯的特点。在这些方面还是能显示出传统汽车大厂的功力的。
-前麦弗逊后五连杆式悬挂系统，整体调校更偏向于舒适，对于高速行驶时所遇到的一些细碎颠簸和振动，过滤得也很干净，而车内的静谧更增加了这种驾驶舒适感。</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 智享长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>合资品牌最值得买的一款纯电SUV，德味质感+高性价比
-优点：质感强、性价比高、品牌售后有优势
-缺点：触摸式按键难用、车机容易死机
-我在一年前试驾过一汽大众ID.4 CROZZ车型，两款车型基本上差不多，感兴趣可以去翻翻ID.4 CROZZ的评测。
-我觉得ID.4是整个ID家族甚至整个合资品牌纯电SUV里最值得买的一款车，既拥有合资品牌的优势，比如品牌、售后（4S店多服务好）、设计和做工，又有一定的性价比，在续航、配置、质感等方面都算中上等，所以还是不错的。
-底盘质感是ID.4X最大的优点，我第一次开ID.4 CROZZ的时候真的惊呆了，久违的“德味儿”又回来了，整车底盘非常紧凑，过坑洼时路感清晰但又不失舒适性，转向力度也没有太轻，手感也很舒服，相比大众油车的体验强太多了。大众现在的燃油车开起来的感觉就像在开一个纸壳子，轻飘，单薄，但ID.4的感觉很像老大众，有那种的德系车厚重感。
-动力方面，204马力零百7.9秒这样的数据表现，对于电动车来说绝对是够用的，不管是超车还是巡航体验都非常好，并且动能回收几乎感觉不到，对乘客更友好。并且值得肯定的是，一年前ID.4 CROZZ上出现的小毛病，比如电机低速啸叫，在这辆ID.4X上都消失了，整体体验更加完美。
-最后，ID.4X的内饰也很不错，除了质感和用料都很优秀以外，大众ID系列的设计语言我也很喜欢，不是无脑学特斯拉做大屏幕，而是把中控屏缩小，并与整个内饰融合起来，我个人觉得目前的“智能化汽车”是伪命题，驾驶员日常驾驶需要的功能和以前没什么区别，小屏幕也能实现，与其在中控台上放一块安卓平板，我还是更喜欢小屏幕，操作方便效率高。不过ID系列的车机经常容易死机，并且重启解决不了问题，只能去4S店维修，另外触摸式的按键非常难用，灵敏度差质感差，尤其是天窗，夏天用手指滑动解锁非常烫。
-22款ID.4X相比21款提升不少，虽然贵了1W块，但低配和次低配车型加入了L2级自动驾驶辅助和真皮方向盘（有加热功能），续航里程也有所提升。车型方面强烈建议选择23W的次低配「纯净长续航版」，600km的续航，L2级自动驾驶辅助，百公里加速7.9s（绝对够用），日常实用配置也没有缺席，再加上品牌好、做工好、质感强，基本上挑不出毛病，性价比还是很高的。</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -793,11 +788,33 @@
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
+              2022款ID.4 X 纯净长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>🙋🏻♂️ 情况介绍 城市固定上班族，去年看着油价猛涨，决定换一台电车，对比了好几款产品，最终被它的赛博黄吸引，动力 续航 颜值在试驾了解后都比较满意  ✏️新车初体验 选了长续航的低配，新车等了个把月，每天刷新订单动态，物流动态，联系销售。。。终于在十月提车，在4s店看到实车的时候可开心了，还是那么靓丽 刚开始用D挡，和汽油车差不多的动力反馈，加速特别猛，老婆经常坐着被惯性后仰，随着电流声嗯嗯.的一下飚出去了，起步从来没怕过 但是刚用B挡不习惯，能量回收模式一下就像刹车一样，自己都会向前倒，不过现在开了几个月完全习惯了，感觉很好了，而且能量回收可以多跑很久，很省电，算了一下电耗和交的电费，差不多一公里一毛钱左右，再想想之前油车，一个月二箱油，大几百块钱没了  最佳续航，还有谁？不过这个比较极限，车友的图片，我的开不到这个里程 🗒 真实感受 内饰质量，外观都不错，提车几个月开下来，加速也特别爽，开高速大概会续航短点，在300-400左右 市区不开空调能到五百左右，非常满意，没有网上说的那些虚标续航里程数。  回老家路上开了三四百公里要充电，找了一个国家电网，充电很快，充电大概五十分钟左右，我充了半个小时，正好拍个照，媳妇衣服配色很搭，大黄配小黄，媳妇还发了朋友圈</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
               2021款ID.4 X 1st Edition ID.初见版
             </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>【空间表现】
 前部空间足够大。因为前部座椅可以调节的范围比较大。后部空间只是一般紧凑级SUV的正常表现，像我这样身高的坐到后排，感觉头距离顶棚还是有点近。而且后排如果乘坐三个成年人的话，还是有一点挤的。毕竟只是一个紧凑型SUV车型。
@@ -817,24 +834,24 @@
 因为购买这个车的时候，店里头有一个专职的新能源车销售员。推介起来也是比较热情，然后讲解的也还比较仔细。只是在购买的时候没有讲清楚这个车的情况。因为这个车是一个展车，相当于是在展厅里放了一段时间的。期间他的这个12伏小电瓶是亏过电的。但是销售没有如实告知。另一方面就是购车的时候有一些购车权益并没有给讲清楚。而且虽然是个展车，但是购买的时候都是按照官方的价格，一分钱的优惠都没有。对这一点感觉有一种不太诚信的感觉。当然了，主观原因还是在于自己，当时看到了现车着急购车，所以对一些细节没有太多的关注。</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2021款ID.4 X Pure 纯净版
             </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>1、续航上，没开过远途，家里经常充电，从来没有过历程焦虑。不过听老司机建议说，上来做一次电量学习，让里程更加准确，我也试了一试，总结一下就是最后剩余40km的时候我安排了一次38KM的任务，结果回来还剩下13KM，越往下面里程跑起来越实。冬天续航就不提了，电动车都打折，它也不例外，打折促销也挺狠。实测300左右，75折。跑高速的话就只有260左右了，65折。
 2、充电上，基本在家里充电，但还是听老师建议，为了防止有需要跑长途，先体验测试了一下直流充电，20分钟充了20度电，耗费20元。感觉用车成本上来了。试一下就好，充满估计在40分钟左右，因为冬天0°天气测试，刚上来功率不高，主要在加热电池包，后面达到120KW。整体体验还行。
@@ -845,24 +862,58 @@
 总归用下来的感受就是扎实、稳重、可靠，一如既往的大众品质，还是值得选择和推荐。很靠谱。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2月底订车，不到一个月车就到了，但是因为疫情耽误一直没去提车，6月一解封便联系提车事宜了。
+决定买车到买定离手，花了不到一周的时间，之前在幻想，我的第一辆车会是什么呢？在充斥着互联网的时代，自然被WXL这些新势力的车子吸引着，但家人对PPT“造车”实在是没有信心，而且在试驾后更是觉得传统车企经久不衰是有一定道理的，而且上汽大众就在上海，各方面因素一统一，家里除了我全票通过了ID4x。
+初识大白胖，觉得他憨憨萌萌哒，朴实无华却让人踏实。对比过4s店和好几个门店，价格优惠都大同小异，最终选择了离家近的一个ID STORE下单的（结果没想到4S店特远，失策失策）。除了离家近方便外，“颜狗”还是被ID STORE的外观吸引了。
+2月22日下定（咱就是也觉得算是个黄道吉日），3月中旬车已经发运了，可惜由于被封控在家，无法去提车，直到6月一解封，便联系了销售进行提车事宜。当时下定的时候，没有提太多别的要求，唯一想要的就是能不能提车有点仪式感，所以最终决定在4S店提车，（其实蛮建议交付中心也搞搞这种“有的没的”的仪式感，非常吸引人还能起到宣传的作用）。
+【外观】大白胖超级萌好吧，本来想要贴个改色膜，发现并不需要，也不舍的盖住这个漆面。
+【智能化】
+车机相对拉胯，没有那么灵敏，语音交互基本操作可以，但很多功能没有覆盖到。提车第二天导航没有反应，死机过一次，自动重启了，还算没有太让人费心，后期使用了再说。
+【续航】
+数据比较实，最近天气40°，空调上车必开，上下班往返90多公里，耗电20%，还是很能打的，原则上。但是据说这个数据不太准，两天开了不到200km吧，现在还有58%，320多公里，不知道是因为电量比较虚还是怎么回事，后期体验了再说吧。
+【驾驶感受】
+新手司机来说非常好开了，刹车也比较好控制，不会有一顿一顿的感觉，转弯特别灵活，也不用怕一把调不了头了。
+【提车价格】
+似乎22款更香，我是跨21退坡的时候买的，价格也算可以，但没提到车22款就来了，功能更多价格也差不了太多，但是当时已经配车了，就没有更换，只能说和大白胖的缘分如此吧。</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>外观 id4x蓝色实车好看，前脸霸气，绿牌养眼，发光LOGO很有科技感，回头率高
 内饰 id4x蓝色内饰年轻明亮通透，座椅舒服，翻毛皮质感OK，前排座椅按摩给你几十万豪车的享受，腰部支撑调节好评
@@ -882,24 +933,24 @@
 真实情感，直戳重点，码字不易，路过的点个赞呗。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>开了两个多月了来好好总结一下自己的id4x
 图片是去贴车衣的时候店家拍的，还不错就拿来当照片啦
@@ -924,46 +975,46 @@
 总结就是这个车作为车来开很好，但仅限作为车来开，娱乐属性为0，但这个是我需求的所以很满意喽</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>4.14</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>车机卡顿，各种报故障码，系统不稳定，死机，杂音。北方（山东烟台）冬天续航差100%-5%，空调22度，一档风，座椅加热1档，方向盘加热一档续航180km，多次测试最多200km，购车一个月进店维修11次，从交车后第二天开始，每次，每天开车都会报故障灯如下列:半自动驾驶辅助故障，警告和信息不可用，车前测距监控不可用，预约空调不可用，交通标志识别不可用，车道保持辅助不可用，驱动系统故障，电驱动系统失效，此按键在您的车辆内不起作用，购车1个月往返4s店11次.一直无法消除故障。10月中旬下高速突然死机，#全车断电，只有方向盘，刹车有用，加速电门失效。停车15分钟后故障消失，9月24日购车10月3日正式使用，10月3日-10月31日2，共去4s11次，4s态度极好，但表示无能为力，他们只能消除故障码，十几次的车机无网络，每次出现无网络都必须去4s重载通讯模块，车机无网络造成车辆无法充电，最多只能充5%.跑了7800km，有800+km是往返4s店（单程15km往返30km）500+km4s技师试车。入冬后烟台地区温度0℃--6℃，多次满电100%-5%只能跑170-190km，续航缩水严重不足厂家标定的1/3。又来新的了，2022年2月5日刹车失灵，多次投诉厂家给的答复是踩刹车太急，系统没反应过来，这是学会了特斯拉的套路，找了一下现在刹车失灵的不是个例了，要买的看好了吧，各种推卸责任给车主，7点建的群9.20就8个了，还有更多车主看到请联系我</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>先说结论：整体OK，续航实在，颜值在线，但是特定场景的安全性有待提高，一个是车前测距监控系统容易判断失误导致紧急制动（目前仅出现在地下停车场），一个是车机频繁死机。
 1. 系统误判触发紧急制动：
@@ -973,52 +1024,24 @@
 车机频繁死机，中途错过多少的路口就不说了，问了车行，都是目前只能等OTA升级，没有其他办法，这个才是最糟心的。</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 纯净长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1、之前开的车：之前开的是手动赛欧3，已经跑了13万公里，由于主要是上下班开，成色还很新，舍不得抛弃，这次为增够。
-2、关于续航：习惯用B挡模式开，一个是很省电，一个是不用反复踩刹车，油门控制舒服，开一天就习惯了。目前最高充到98%的电，显示续航608。跑了两次长途，消耗续航和里程基本一致
-3、关于车机：网上留言车机卡顿，目前为止并没有，目前车机主要用于导航听歌，没啥大的需求能满足日常所需。
-4、关于车窗升降：没有4键方便，按切换键的时候有声音反馈，熟悉了可实现盲操。
-5、关于开/关天窗：天窗为触控感觉还是没有实体按键方便。
-6、关于后排座椅：20多万的车后排中央居然没扶手，不地道
-7、关于空间：时间过帕萨特，感觉不相上下。</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>我购买的是2021款Pro 极智长续航版 加L2级半自动驾驶选装包，
 【购车经历】
@@ -1040,37 +1063,9 @@
 我的购买价格当时基本没有优惠237088，不用上购置税，保险5000元，牌照免费</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>4.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X 1st Edition ID.初见版
-            </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>第一次写用车感受，不好之处还望各位多多包涵。大众ID.4 X是我换的第二台车，家里已经有辆福特福睿斯了，开了将近8万公里，没出过什么大问题，还算省心。其实换车这个念头在去年就萌生了，家里添了二娃，平时我要上班的话媳妇就没车可开了，出门买菜有点不方便。再者就是我们这边开始限号了，如果换车肯定会首先新能源车。
-再来说下为什么要选大众ID.4 X，说实话在此之前压根没打算要换这台车，也从来没了解过大众ID系列的车型。有一次和朋友聚会，看见朋友新提了台ID.4 X，第一眼被它的颜值吸引住了，坐进车内体验了一会，感觉座椅的舒适度还算不错，而且内饰要挺精美的。上个月带着媳妇去我们当地的大众4S店，当时在门口展厅就摆放着ID.4 X的实车，体验了一下午我和媳妇都挺满意，其他备选项全部排除掉。
-对比过各个车型的配置，再加上销售人员的推荐，最后决定选2021款 1st Edition ID.初见版。这款车在我们当地是没有优惠的，这点倒是让我感觉心头不爽，但是想到这台车刚上市不久，没有购车优惠也在情理之中。裸车的报价是23.59万元，新能源车没有购置税和车船使用税，省掉一笔不小的开支。加上商业保险费用7669元、上牌费500元、交强险950元，最终的落地价是245019元。4S店送的有脚垫、车膜、底盘装甲，其实这些小物件都不值什么钱。
-大众ID.4 X这台车开起来很轻快，因为我开燃油车开习惯了，第一次上手感觉有点不适应。动力响应的很快，不能说随叫随到，但起步动作真的一点不拖沓。电机的总功率是150kW，总扭矩310N·m，超车的时候比较有信心，动力蹭蹭的往上蹿。它的方向盘手感很轻盈，对于女司机很友好，我媳妇说这台车开起来很轻松。
-说实话大众ID.4 X的空间表现确实让我有点意外，后排正常坐三个成年人没啥问题，而且坐垫的长度比较理想，对双腿能起到很好的承托性。我选的这款车型带有前排座椅加热和按摩功能，主要是冲着座椅加热去的，像我们这些北方的车主在冬天用车的时候少不了这项配置。
-最后再和大家简单介绍下这台车的续航，最远一次是回老家，开了300多公里还有25%左右的电量。平时在市区里跑跑不用担心它的续航能力，我媳妇日常就出门接下孩子，3-5天充一次电就够用。有一说一，新能源车确实节省掉很多油费。
-目前这台车开了将近3000公里，总体表现还算理想。不过这台车的减震有点硬，不是我个人喜欢的类型，乘坐舒适性不是很高。大致的用车感受就是这样，欢迎大家指正。</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.79</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1076,26 @@
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
+              2022款ID.4 X 智享长续航版
             </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>受邀参加了厂家的试驾活动，大约跑了500公里，小小的评价一下id.4的表现
-首先南、北两款车驾驶、坐感、减震、静音等方便感受几乎一样，或者我这短时间没发现明显差异。选哪个都行，看个人对外观、内饰的喜爱，还有就是看当地的经销商服务质量。
-下面说说优缺点，每一款一定都会有优缺点，在比较时也应该和我们选车时考虑的一样，价格是第一位，一切都在25要左右这个价格等级上比较。
-这个车优点其实很多，驾驶感受很大众和传统大众很像很像，像车机、导航、辅助驾驶启动、避震等等都符合传统大众的特点。这车特别优化了转弯半斤，方向盘也很轻，驾驶感很不错。对了对了需要表扬的是续航550挺真实，因为驾驶风格不同续航会不同，我就说高速定速巡航100，坐4个人成人开空调，电耗16.5上下，大家自己算吧。
-下面主要说说缺点，以下缺点你能接受这车就你的首选。
-1、外观样式不够大气，略显小巧秀气，当然座仓空间很优秀，但因为流线型的设计后尾箱空闲有所侵占。
-2、没考虑行车记录仪接电，先不说车载摄像头不能兼做行车记录仪了，连再接行车记录仪电源接口都没有，车内飞线无法隐藏。
-3、车机还需要加强，包括ota功能，比起新势力传统车企在这方面确实还在追赶，车机流畅度虽然没问题而已CPU算力等硬件配置比较高，但可玩性智能化还不如新势力，这可能是传统车企的理念问题，认为车最终驾驶乘坐工具也许不算是缺点。随便提一下ota功能还在加紧调试中。
-4、辅助驾驶没有亮点，这点我必须吐槽一下，作为当下最热门的电动车，虽然具备了l2+级辅助驾驶，都别说比新势力了，就连大众自己的车都不如，虽然这个不实用但比较2021年买了一款这么新潮的车没点自动功能说不过去了。这个l2+辅助功能上偏保守，不像新势力激进，当然这可能也不说缺点，作为经得起时间和用户考研的传统车子，创新必然是谨慎，就像厂家自己说的在传统车企大众已经算是走在前列了。
-5、动力够用，确实也就只是够用，没有电动车的百公里刺激感，但不代表它加速弱，只是id.4的定位就是家用，当然它的驾驶平缓就是估计乘客感受，说到乘客感受这里随便说下动能回收非常棒，再高回收状态下感受也是非常好。</t>
+          <t>坐标深圳，6月份开始打算把家里一台油车置换为纯电，21年9月其实已经关注大众Id系列，对其影响深刻。正好深圳目前政府补贴挺多的，经过家里领导同意最后选择ID4X智享长续航版本，本来以为要等车，很巧的是6月25日找到一台现车，颜色内饰都满意，还有我喜欢的哈曼音响。
+1、颜值超高：前脸设计大气科技感十足、尾部简单大方！晚上点亮前后灯走在路上回头率超高哦！原来大众也有这么漂亮的车，惊艳四座！
+2、安全可靠：关注欧洲碰撞成绩和中保研碰撞测试，发现ID4X居然是中保研碰撞历史最好成绩！震惊到我
+3、底盘调教：之前开过日系雅阁、大众斯柯达速派、途观L、奥迪Q5等，首先调教味道还是大众的味道，就是高级感，可以说ID4底盘舒适感受比上述的都要好，跟Q5基本相当，毫不夸张！整车2120公斤的重量，配合后驱驾驶感受非常灵活，操控精准，而且转弯半径超小，得益于其车身配重做的好！
+4、电池续航：可以说相当满意了，标称605KM续航一点也不虚，我平时充电80%，显示续航在460KM左右，每周五天通行约300KM，所以冲一次足够应付！跑个高速也不会拉胯，充满100电量正常跑100码可以续航400公里左右！服务区休息充个电其实挺快的。
+5、日常通行电耗：本人驾驶习惯很好，加上使用B档，所以百公里电耗维持在13-15附近，说明一点没有关空调哦，全程23度小风冷的一批！
+6、车机系统：使用一段时间来看，不能说完美，但是对我来说绝对够用了，语音控制功能挺方便的。关于导航和听歌，一般我上车就连接苹果手机carplay，哈曼卡顿音响听着手机里无损音乐，那效果真的很满意！
+最后总结：顺利买到一台自己各方面都很满意的纯电车，感谢各级政府的补贴支持！
+PS：求版主加精华哦！</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1106,18 @@
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
+              2022款ID.4 X 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>今年年初，上汽大众首款MEB纯电动SUV——ID.4 X正式投放到市场，其实这台车在亮相初期就吸引了我的注意，主要它的外观设计很独特，能给人眼前一亮的感觉。这个月我总算借到了大众ID.4 X的试驾车，经过为期两天的详细体验，对它也算是有了更深层次的了解。作为大众MEB模块化电驱动平台的产品，ID.4 X的产品力表现不俗，话不多说，下面我就把此次的试驾感受分享给大家。
-融入全新的家族化设计语言
-上汽大众ID.4 X使用了首次亮相的“光语律动”设计语言，从某种意义上讲，它代表着大众ID家族未来的设计方向。与以往我们见到的大众车形象有些不同，ID.4 X的整体设计跳脱出了大众传统的设计思路，所带来的新鲜感还是很足的。前脸采用上中下三条贯穿式的线条，来刻画出较为丰富的层次感，而中间钢琴漆的饰板则是由“X”造型演变而来。头灯组使用全LED光源，并且搭载了流水式转向灯，整体造型十分修长，向车身两侧延伸。尾部设计与车头相呼应，轮廓饱满圆润，没有过多的线条切割。贯穿式的尾灯是一大亮点，灯腔内部的光源结构颇为复杂，点亮后的科技感非常强烈。
-乘坐舒适性体验很不错
-真正让我对大众ID.4 X这台车产生好感的是它的乘坐感受，座椅使用多种材质拼接设计，中间区域为超细纤维绒面，拥有相对出色的质感。头枕设计的很宽大，侧翼对身体的包裹性也很足，整体的乘坐感受很舒适。另外，这款车型的配置也丝毫不含糊，主副驾驶座均提供电动调节，前排座椅还能享受到加热和按摩功能。大众ID.4 X的空间表现有些超出我的预期，参照本人179cm的身高，后排能获得一拳四指的腿部空间，并且下方地板的平整度很高，不会对中间乘客造成太大的影响。后备箱的容积很可观，由于有一层隔板的存在，日常状态下可以放倒后排座椅，座椅靠背与后备箱地板能保持较为平整的状态，载物能力得到大幅度的提升。
-驾驶感受很接近燃油车
-其实刚接手大众ID.4 X这台车的时候，让我觉得它的驾驶感受与传统的燃油车区别不大，主要表现为动力输出的很线性，并没有过于强烈的爆发感。处于经济模式下的动力也不匮乏，只是在高速巡航时的加速能力要比其他驾驶模式弱一些，需要踩更多的油门踏板才能换来顺畅的提速。运动模式下，动力响应的更加直接，中后段加速时没有出现明显的衰退迹象，而且发力持续且顺畅，并不是那种突兀的推背感。此次试驾的这款车型为后置后驱，电动机总功率为150kW，总扭矩为310N·m，如果只是应付日常的通勤，ID.4 X的动力储备很充足，平时在路上要提速超车还是挺轻松的。
-车内静谧性保持良好
-缺少发动机的噪音是电动车自带的优势，但是车辆在行进过程中难免会产生风噪和胎噪。从实际的体验来看，大众ID.4 X的车内隔音能力相对不错，高速巡航时对胎噪和风噪的抑制都很理想。同时电机在运转的过程中，也没有出现让人不适的那种电流声，车内的静谧性始终能保持的比较好。此次试驾我专门准备了测试噪音的工具，根据实测数据显示，大众ID.4 X在怠速状态下，车内的噪音值为37.4分贝；以120km/h车速行驶时，车内的噪音值为65.3分贝，它的隔音表现属于同级别车型里中等偏上的水平。
-总结：面对日趋严格的汽车尾气排放标准，很多主流车企开始将产品重心向新能源领域过渡，而ID.4 X也成为大众家族向纯电动SUV细分市场进军的“拳头”级车型。从试驾感受来看，ID.4 X在外观造型、乘坐空间、驾驶感受等方面均有可圈可点之处，同时出色的车内隔音能力也给用车体验加分不少。</t>
+          <t>车开起来没有毛病，就是刚开始的时候车机导航都激活不了，尴尬的是售后也不懂，就叫开到店里给师傅看，上车就连carplay影响不大。</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -1143,23 +1128,19 @@
       <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
+              2022款ID.4 X 智享长续航版
             </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>【最满意】我对于大众ID.4X最满意的地方在于它的外观以及驾驶感受，外观方面ID.4X采用贯穿式车灯搭配上可以点亮的LOGO设计，看起来非常有未来感，低趴的车身以及大量使用的运动化装饰看起来真的非常年轻化与时尚化。
-【最不满意】最不满意的地方在于它的内饰以及配置，内饰依旧没有摆脱大众品牌传统的特点，看起来简约而且廉价。全液晶仪表盘的尺寸很小，能够显示的功能也不算多，现实的信息也不够全面。
-【驾驶感受】ID.4X开起来真的非常像是一台燃油车，油门以及刹车基本上没有多少旷量，轻轻踩下去动力就能够获得很好的反馈。而刹车方面也是如此，刹车能够给你带来非常优异的信心，感觉怎么都能刹得住。最后开起来最舒服的在于ID.4X的转向手感，它应该是比普通的车转向多一圈，因此在掉头、转弯等的时候就能够感受到它的转弯半径很小，开起来非常舒服。
-【乘坐体验】坐起来ID.4X的空间表现还是不错的，至少前排调整到舒服的坐姿后排也能够有一个比较舒服的坐姿，它的后备箱容积真的非常大，我第一次打开的时候被惊到了。但是在配置上他就没有那么出色了，全速自适应巡航需要选配，座椅按摩仅有一种模式。
-【续航】续航方面ID.4X的表现也是不错的，官方555km的续航实际体验下来折扣并不算大，至少在我们所驾驶过的电动车中属于中上水准。
-综合来说这台车真的非常适合对绿牌有需求但是有追求驾驶感受的消费者，毕竟他开起来真的非常舒服。</t>
+          <t>智能化系统还是堪忧，除此之外，真的是一部好车，适合实干的人，胡里花哨的不适合。
+新车有一些难闻气味，不知道要散多久。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
@@ -1176,22 +1157,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>作为大众引进国内的首款MEB平台纯电动车，ID.4 X发布以来就收获了巨大的曝光量，其实我也和大家一样，对大众出品的ID.4 X非常感兴趣。幸运的是，今天我终于有机会为大家实际体验一把上汽大众的ID.4 X。相信大家对这款车，一定有很多问题想问，别急，下面我将一一为您解答。
-我试驾的这台车是ID.4 X 2021款 Pro 极智长续航版，其指导价格为23.5888万元，我们当地4S店暂时没有优惠，而且其售价为23.59万。我以全款计算，其购置税0元，车船费300元，交强险950元，商业保险7403元，总计244541元。
-这款车的外观是绝对的全新设计，除了车标浑身上下几乎没有传统大众车型的影子。而就是这车标ID.4 X也非常亮眼，贯穿式的灯带连同车标一起都能够发光，和两侧的大灯组合成一个整体，这在以往大众家族是绝无仅有的。另外，ID.4X车长已经超过了4.6米，轴距也超过了2.76米——这组数据，甚至已经超过官方定位中型SUV的探岳，探岳车长4589mm，轴距2731mm。
-该车搭载后置永磁同步电动机，最大功率150千瓦，峰值扭矩为310牛·米，搭载容量为83.4kWh的三元锂电池组，NEDC续航里程为555公里。实话实说，大众对ID.4X的调校，是真正显示出老牌车企功底的。按理说，150千瓦的功率和310牛米的扭矩，跟2.0T发动机低功率版本只是互有胜负（功率高9.5%，但扭矩略低3%），但是由于电动车属性，它所带来的动力感受更加轻快、平稳。另外，整个驾驶期间，不仅仅是加减速给人的感觉线性度非常好，方向盘偏沉的力度、清晰的路感，也跟印象中的大众车如出一辙。所以说，开惯了大众燃油车的人，就算是第一次摸ID.4X，也不会有丝毫的陌生，上手很快。
-刹车脚感是我比较疑惑的一点，ID.4 X采用了电子制动器，它的刹车踏板行程过长，初段三分之一基本没有刹车，再往下踩又不容易掌握力度，所以需要驾驶员好好适应一番。底盘调校上颇见功力，整体底盘紧实富有韧性，小颠簸处理的非常到位，弯道支撑性也足够好，再加上超过2.1吨的自重，ID.4 X表现出一款高级电动车的行驶品质，在底盘调校这点上，特斯拉显然更加看重的是驾驶乐趣，所以比较硬。
-ID.4 X空间表现不错毕竟轴距有2765mm，后排腿部空间很宽敞，尽管车顶不高头部却没受什么影响，座椅是真的舒服填充很充足，腰部的支撑到位，再有平整的地板和全景大玻璃车顶，后排视野非常敞亮。
-最后我说说个人认为不够理想的地方：
-1、ID4.X刹车采用前通风盘式、后鼓式的制动模式，也就是我们所谓的前盘后鼓。刹车装置对于汽车来说非常重要，甚至可以说是最基本的行车安全保障。众所周知，鼓刹的缺点显而易见。相对于碟刹，鼓刹反应较迟钝，需要控制踩踏刹车的力度，不适合做出高频率刹车动作；在高强度刹车操作下，有可能会造成刹车衰退、刹车失灵等问题。所以我个人觉得作为一台20多万的汽车，不应该出现这种问题。
-据悉，ID4.X刹车采用前通风盘式、后鼓式的制动模式，也就是我们所谓的前盘后鼓；而Model3则采用前后同为通风盘式的制动模式。
-2、OTA能不能升级目前是个谜。
-3、在主驾驶位，ID.4 X选择了取消后排车窗控制按键，取而代之的是通过触控操作的REAR（后部）按键，在开启这一开关后才能够通过这两个按键控制后排车窗，整体逻辑让人有些摸不着头脑。</t>
+          <t>我每天高速通勤70多公里，满电续航显示就400，不知道是怎么计算的咱也不懂～省钱是真省钱，偶尔黑屏也能忍～辅助驾驶好用，高速上跟车很方便，B档已习惯，很少踩刹车，说它鼓刹不行的别信，自动刹车能给你吓一跳。每次都得手动关闭车道保持不爽。新款电池已经终身质保了我的8年16万公里去4s店还要让店员怀疑看我合同我特么真栓球了！一汽的有隐私玻璃，我车连个膜都没有我说啥了，空调提前打开在冬夏两季简直神器，座椅没有通风，也不能选配，也栓球了！空间很够用尤其后排，很舒适！前排没个点烟器是怕我把车烧了吗？一根线也挺贵的！无线充电功率好像有点低，反正充不了多少电！后背箱却给了个点烟器取电口，你说这用起来方便吗？轮胎不错，扎胎了钉一拔打足气就开～保险杠被别的车蹭了一下，怎么感觉没有底漆？面漆掉了直接露塑料子了？？以上吐槽仅代表个人使用感受，天下没有完美的车！</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1202,28 +1173,24 @@
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
+              2022款ID.4 X 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>一个月飞三次三亚是什么感受？没错，上个月，我就去三亚参加了3个汽车品牌活动，其中一个活动就是试驾大众ID.4 X，受上汽大众官方邀请，来到美丽的海南三亚试驾大众ID.4 X，车型是2021款 Pro 极智长续航版，官方NEDC续航是555公里，新车补贴后售价23.5888万元。下面为大家讲解这款车型。
-外观介绍：ID.4 X是上汽大众首款MEB平台纯电动车，它基于大众全球首款纯电动SUV——ID.4国产而来，同时，它在国内还有位“兄弟”，一汽大众的ID.4 CROZZ。外观方面，假如ID.4 X的车标被遮住，在路上你第一次见到这款车，可能很难辨别出它是大众旗下的，因为其标志性的进气格栅，在大众迈入电动时代后被取缔了；大灯的造型也不再熟悉。外观部分唯一还有点大众燃油车元素的，仅剩和途铠稍微有些相似的贯穿式尾灯了。
-内饰介绍：如果你是一位大众燃油车的车主，一定会觉得ID.4 X这块中控屏进步明显，无论UI、操作流畅度、响应速度、功能丰富程度，它都有了质的提升。简单地说，如果你将成为ID.4 X的车主，手机支架这种东西可以淘汰了，它完全可以满足你精准导航、在线欣赏音乐的需求。但话说回来，这只是相比以前的大众，和很多同价位的纯电动车型相比，ID.4 X并没有优势甚至处于劣势。
-动力介绍：我试驾的2021款 Pro 极智长续航版是单电机版本，它的动力来自后轴的一个电机，其最大功率150千瓦（约合204马力）、最大扭矩310牛米。动力日常驾驶是完全够用的，尤其是在海南的环岛高速上驾驶，动力随踩随到。
-驾驶辅助功能：在一段高速上行驶时，我准备试试它的辅助驾驶，结果显示自适应巡航功能不可用。我问同行的试驾教练，他说这是试装车，还没调好，试驾完后我查阅配置，其实这款极智长续航版的ACC自适应巡航是需要选配的，反倒是偏性能一点的两款四驱版标配。由于车辆问题，此次未能体验到它的驾驶辅助功能如何，不过我觉得和特斯拉FSD、小鹏NGP比，可能会有差距。
-驾驶感受：它的性格，在电动车中无疑算非常“温柔”的，无论起步、低速还是高速状态下，深踩油门都不会产生明显的推背感，它的动力是以一种如涓涓细流、循序渐进的形式涌现出来，速度的提升带点润物细无声的意思。它有三个驾驶模式，但是动力表现区别并不大，也就是说，它没有狂暴的一面，至少我此次试驾并未感受到。
-悬架调校：作为一款纯电动SUV车型，ID.4 X的底盘调校并非偏舒适，其悬架行程短且偏硬，路面细小的颠簸能较为清晰地传进车内，加上座椅不算软，走路况差点的路可能会有些难受。当然，路感清晰有其两面性，对于乘客而言不够舒适，对于驾驶员而言，能更好地感受车身动态，从这个角度也算优点吧。
-此外，我想额外提一下它的刹车和autohold功能。我个人不太喜欢它的刹车脚感，踏板踩下去的前段有明显的间隙，初步感觉有个一厘米左右，这段是完全没有刹车效果的；继续踩个一两厘米，刹车力度也比较薄弱，初次上手，很难摸清踏板深度和制动力度的联系，有时候可能会估算错误导致被迫踩个急刹。开过车的都知道，突然来个急刹是什么感受，不是容易导致晕车就是可能会想吐。总的来说，它的刹车不够线性，且脚感并不高级，这一点需要吐槽的。
-在试驾过程中，我也就开了100公里左右，其中大部分高速、少部分城市道路，我的驾驶风格不算温柔，百公里平均电耗17.6千瓦时，日常使用肯定比这个低的，大家可以作个参考。
-大众ID.4 X 2021款 Pro 极智长续航版全款落地要多少钱？
-在广州本地我去大众4S店问了一下，新车目前没有优惠，全款包含裸车价23.5888元、车船使用税300元，交强险950元、商业险6800元，上牌费600元，全款落地共需要24.45万元。</t>
+          <t>1、之前开的车：之前开的是手动赛欧3，已经跑了13万公里，由于主要是上下班开，成色还很新，舍不得抛弃，这次为增够。
+2、关于续航：习惯用B挡模式开，一个是很省电，一个是不用反复踩刹车，油门控制舒服，开一天就习惯了。目前最高充到98%的电，显示续航608。跑了两次长途，消耗续航和里程基本一致
+3、关于车机：网上留言车机卡顿，目前为止并没有，目前车机主要用于导航听歌，没啥大的需求能满足日常所需。
+4、关于车窗升降：没有4键方便，按切换键的时候有声音反馈，熟悉了可实现盲操。
+5、关于开/关天窗：天窗为触控感觉还是没有实体按键方便。
+6、关于后排座椅：20多万的车后排中央居然没扶手，不地道
+7、关于空间：时间过帕萨特，感觉不相上下。</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -1234,23 +1201,18 @@
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
+              2022款ID.4 X 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>最近迪士尼压力是很大的，因为北京环球影城准备开业了。开业后，中国的顶级度假乐园市场或将形成“南迪士尼、北环球影城”的双雄争霸格局。对比一下两家的家底：环球影业手握《速度与激情》、《谍影重重》、《驯龙高手》等众多IP，而迪士尼这边则是拥有漫威旗下的超级英雄系列等。关于迪士尼最近的电影，在我的记忆中印象比较深的是去年刘亦菲主演的《花木兰》，这是一部在豆瓣口碑“扑街”的电影。出于好奇心找了找刘亦菲代言的作品，上汽大众的新能源车ID.4 X赫然在列，就这样上海迪士尼和上汽大众之间碰撞在了一起，那这台ID.4 X会像《花木兰》一样吗？
-在外观方面：ID.4 X是大众基于MEB平台下的在国内投放的第一款车型，因为是纯电平台的产品，意味着它的外观会更加去追求科技感的提升和风阻系数的下降，所以它在外观上和燃油版的大众是天差地别。首先就是一个贯穿式的前灯和尾灯，在前后灯的中间还有个会发光的VW标，IQ.LIGHT智能灯光加持下组成多种灯语，向大哥“灯厂”奥迪学习。同时封闭的前进气格栅加上蜂窝，强调了一些运动感，但如果你看过它的百公里加速成绩，多少会有点不搭。
-在内饰部分：全新的ID系列带来了一个极简但又不完全极简的内饰，相对于恨不得连方向盘都给你省了的特斯拉，这台ID.4 X还是给你保留了一定的实体按键，包括灯光区、方向盘上的功能区，还有天窗的开启与关闭都是触摸控制的。而且为了和传统燃油车形成一定的差别，它去掉了手刹，你想停车只需要挂P挡就可以走了。剩下的就是一些智能化的灯语设置和远程空调设置，还有手势控制。看得出，这台ID.4 X还在传统车企的造车思维下强调一些科技感的。
-在动态体验方面：一台纯电的车做到一个8秒多的百公里加速成绩是什么水平？低情商：比丐版比亚迪汉EV的7.9秒还慢。高情商：这是驾驶感受最接近燃油车的一台电动车。这台ID.4 X是后驱单电机版本，输出150kW、310N·M的最大功率和峰值扭矩，虽然在此基础上它的百公里加速成绩只能去到8秒出头，但我们也留意到它的0-50公里加速成绩是可以做到3.2秒的成绩，这是一种更强调低扭的调校，这也许是大众觉得它更加应该呆在上下班高峰期的马路上吧。但关于动能回收的体验，则比新势力要来得舒服得多了，这确实是说它是驾驶感受最像燃油车的原因。
-在使用体验方面：这台ID.4 X配置是一台83.4度电池，慢充12.5小时、快充半小时就能充80%的电，满电状态下它的续航是555公里。同时得益于它的纯电平台，ID.4 X在空间上是比较能取悦你的，从前到后的地台都是纯平的，给了你一个舒适的后排和一个超大的后尾箱容积。
-最后是选买建议，ID.4 X有一个姐妹车型叫ID.4 CROZZ，两者相比起来，ID.4 X的悬架调校更软，外观上也增加了很多镀铬的饰条，在内饰上也用了更多的皮质材料覆盖，而且最特别的是相对于原版车型，它放了个无线充电在扶手箱内部，这一切相比于CROZZ都更贴近中国消费者的一个需求。但ID.4 X的售价定在了199888到272888元，也就意味着它要对抗的对手还包括有着“价格杀手”之称的特斯拉Model 3和Model Y。同时我们也注意到，特斯拉在这个价位下用的是磷酸铁锂电池，ID.4 X的三元锂电池可能在冬季续航有着一定的优势，但它能否用更多的克制对抗对手的冲动呢？还要交给市场去检验了。</t>
+          <t>刚提车，驾驶感受符合预期，整体满意，目前还不能联网，carplay 使用中，很不错，希望车机再给力些</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -1261,32 +1223,18 @@
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
+              2022款ID.4 X 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>随着电动化和智能化出行的普及，个人出行迎来了全新时代。我想没人会否认前面这句话，当然作为汽车界巨头之一的大众集团，推出纯电动车型也是意料之中的事情。
-近日《说一车》实拍到了上汽大众ID.4 X，实拍版本是售价23.5888万元的2021款ID.4 X Pro极智长续航版，该车基于MEB平台打造，算是上汽大众家族首款真正意义上的纯电动车型，而像之前推出的朗逸纯电只能算是“油改电”车型。
-所以由于ID.4 X是MEB平台的专属产物，其相比那些通过油改电而来纯电车型空间利用率的确更高。这车三围车长超4米6，轴距2765毫米，其中轴距比一般地传统SUV明显更长，实际体验坐到后排可以轻松取得超过两拳的腿部空间，加上后排中央地台近乎全平，此举足以看出真·纯电动车平台对改善乘坐体验的作用。
-当然后备箱空间表现也可以给到高分，座椅支持4/6分割放倒，放倒后的行李箱容积可以达到1546升，同时该车后备箱底部还配备了隐藏式地板，根据官方信息显示该区域有41升基础容积。此外该车尾门支持电动开启，高配车型还带感应开启功能。
-外观方面，ID.4X并没有沿用之前大众一贯的设计理念，修长的大灯配合细窄的中网加上相对夸张的前唇，无形中流露出一种英气，另外ID.4 X在尾部强调扁平化设计之余，其所配备的贯穿式LED律动尾灯也是首次使用，甚至这一次连品牌LOGO都可以一起点亮了，说句开玩笑的话，大众尾标会发光你怕不怕？
-在此基础上，ID.4 X全系标配了IQ. Light光眸矩阵式大灯，灯光配置表现在这个时代来说算高的，可智能应对不同环境下多种路况，此外当你接近它解锁车辆时，该大灯也会摆动起来向你致意，整个交互体验很有意思。
-ID.4 X的内饰被设计的很规整，对没错儿，只能用规整来形容，可以明显感受到大众对纯电动车型的设计依旧持较为谨慎的态度，其中全系标配的12英寸悬浮式中控屏向驾驶座偏置的设计来到当下并不新鲜，而且平直的仪表台也一如既往很大众，只是这一切的代价都是它失去了好用的物理按键换来的。
-不过让人欣慰的是，大众汽车的内饰设计向来都不会出错，就比如首次出现的5.3英寸i-ID信息组合仪表在图片里其实并不会给人惊艳的观感，但相信我这液晶仪表你即便近距离观看也不会出现毛边，结合可以将导航等情况投射至前挡风玻璃的AR-HUD以后，这般配置表现算是够用了。
-本次我们试驾的车型搭载的是后置永磁同步电机，最大功率204马力（150kW），最大扭矩310牛·米，NEDC续航里程555公里。这超过500公里的续航表现在同级算是个中规中矩的成绩，如果你平时只是20公里以内用它来上班代步买菜，用一周大概没问题，但如果每天上下班单程就要超过30~40公里，那这车基本就得经常出没在你单位的附近的充电桩附近了。
-再来说说性能，204马力（150kW）和310牛·米的动力其实已经接近了传统燃油车型380TSI的性能。实际开起来其与大多数纯电动车型一样，ID.4 X在初段的加速很强，提速起步相当轻快，而中后段的再加速能力似乎被电脑进行了抑制，虽然液晶仪表显示的速度很快，但加速体感比较绵柔，简而言之这种调校适合所有人去驾驭，很均衡！
-ID.4 X提供了三种驾驶模式和一种个性化模式，其中舒适下是我最推荐的模式，即便收起加速踏板以后动能回收也很流畅，同时动力响应什么的都是电脑被标的后的最佳状态。
-由于MEB平台的特性，这车与以往大众的纯电车型在驾驶感官体验方面都不一样。即便ID.4 X是紧凑型SUV，但实际座舱内部的座椅可以调的很低，整车开起来更像是一台传统轿车，而且方向盘也是偏沉稳设定，转向力矩相对细腻、指向性也比较精准，手感和驾驶感官体验在同级里都能排上前列。当然如果你觉得我说的不对，或觉得我所说的会有点“偏激”，欢迎前去体验一下这款车型，来验证下我所说的观点！
-ID.4X配备了后轮鼓刹也是这车被关注的重点，这车刹车脚感你肯定是没体验过，很硬、甚至有点弹脚，说白了就是不够线性，轻踩就有明显的制动力分配，尤其中、后段制动力强的有点吓人了，而且刹车踏板行程跟刹车力度不够同步，换句话来说可能没有做到良好的匹配衔接，这会导致初次接触的用户需要一段时间去适应这套刹车系统了。
-除了入门版（搭载57.3kWh电池组）以外，ID.4 X在其余版本上均提供了83.4kWh的三元锂电池组，在采用直流充电时，充电10分钟可行驶100公里，如果想从30%充到80%则需要半个小时；另外使用交流充电时，新车最短充电时长则需要8个小时左右。
-总结：全新ID. 4 X的到来，预示MEB平台正式进入中国市场，这无论对所处细分市场还是大众本身都有着重要意义。再来说下产品本身，我们认为这车的确有不错的驾乘品质，以及相对优良的机械素质，几乎在各个方面的表现都能做到很均衡，说白了就是一如既往很大众....</t>
+          <t>总体硬件不错，产品软件跟上汽服务太拉垮！比如车机软件掉线黑屏退账号，打400电话反映问题就没有任何回复了。大众操控性还是不错的。</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -1297,26 +1245,20 @@
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
+              2022款ID.4 X 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>车辆来源是大众深度试驾从店里拿的，里程5000公里，ID.4 X PRO极致长续航版本，没有选装。最满意的是续航，最不满意的是车机。
-【外观】：ID.4这个外观不会有人说丑，但是也不惊艳，中规中矩，能够满足多数人需求，不让外观成为劝退的理由。同时，造型上的设计让这个车很显大。
-【续航】：首先要表扬的是续航显示的标定逻辑，三天时间在各种路况混合的情况下，能够比较清楚的反馈真实的续航里程，尤其是到了200kmkm以下的时候能够几乎一比一的反馈续航。取车的时候是满电显示剩余大概470，到第一次充电行驶了363km，表显剩余91km。从深圳大梅沙到顺德服务区充电的174km，全程高速电耗也开到了16.3。对于这个size的车算是一个不错的电耗了。总的来说，满电跑个四百多再找充电站是完全ok的。
-【舒适性】：首先是NVH，整车的噪音，噪音水平一般。底盘平顺性方面。正常起伏路面的一阶平顺性（初级舒适性、主级舒适性）不错。主要是车体的动作，包括垂向跳动、俯仰、侧向晃动、侧倾、收敛同级别里都算控制的都不错，但是高速情况下的大输入，会有比较明显头部的晃动、漂浮感。二阶平顺性（次级舒适性）也一般：来自中控的振动会带来异响。单项的冲击，悬架的动作收比较快，但过滤的不是很干净，底盘跟道路的隔离感表现非常一般。
-【车机】语音识别率低，地图弱智，大部分的目的地甚至搜不出来。但仪表的导航显示逻辑非常清晰好用。图标简单，意思明确，提出表扬。
-【驾驶】因为ID.4这个车的前轮可转角度非常大，所以转向半径很小，最小的转弯直径是10.2米，途观L是11.8米，当然方向盘圈数也多了一些。转向手感还不错比较润，线性但也不过轻过重。
-【内饰】：后车窗开启逻辑差评，各处触控的按键并不好用。门上用料还不错，中控扶手下面的用料比较掉价。
-【空间】：前后排坐姿正常，座椅的承托到位，纵向的腿部空间也很大，横向空间也不错。
-【动力】：动力表现低于目前同级别的平均表现，但是输出比较平顺不冲。</t>
+          <t>质ID4X高超的颜值和出色的性能，还影响了身边不少朋友，他们有的和我之前一样，根本不知道大众还有纯电车，而且还做的这么好看！有的是对电车不感兴趣，或者是担心续航能力。还有的呢，一直关注的是造车新势力，如特斯拉，蔚来，小鹏，理想之类，根本就没去了解过大众。在我这台ID4X提回来后，他们有了近距离了解的机会，不看不知道一看吓一跳：原来大众也有这么棒的纯电车！
+然后几个朋友纷纷跑去试驾，一个朋友在我提车之后两天买了一台ID.6X，一个朋友在今天下午喜提ID.4X----尤其要强调的一点是：这两个朋友原本就是冲着特斯拉去的，像今天提车的这位，家里已经有一台魔豆Y了！本来是想买个魔豆3的，看了ID4X后，最终选择了大众。还有一个已经预约明天试驾……妈呀，上汽大众你家是不是该给我点推销费啊？
+总体来说相当不错，续航相当满意，充电速度不错，内饰环保，基本没有味道。</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -1327,28 +1269,18 @@
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure 纯净版
+              2022款ID.4 X 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>我从事汽车媒体工作已经有5年了，一路见证中国汽车产业的发展与转型。两年前，笔者试驾的车型98%均是燃油车，但是近两年，笔者出席新车试驾活动，越来越多是新能源汽车，如特斯拉、小鹏P7、蔚来ES6、比亚迪汉EV和DM，广汽埃安系列车型等，我均试驾过。这一次，我受上汽大众官方邀请，来到三亚参加大众ID.4X的试驾活动。试驾车型是2021款 Pure 纯净版，新车指导价19.9888万元。
-内饰：讲真一句，大众ID.4X外观设计非常激进，但是整个内饰的设计、配色并无外观激进，我摸了一下内饰，上面是软性的材质，底下是硬质的材质，装配工艺也不会像特斯拉等智能汽车品牌品质方面那么差。不过我试驾的Pure 纯净版用料，设计有高级感，但触摸质感不强，也不精致。
-上汽大众ID.4X的座椅配置也不差，但是不够完美，试驾车使用皮质搭配翻毛皮的座椅材质，触感不错，内部填充稍有些硬；前排座椅电动调节、加热、按摩以及主驾驶座椅记忆功能都有，其中前两者为全系标配，这里要了解的是，全系均不提供座椅通风功能。
-配置：大众ID.4X搭载了12英寸悬浮式中控屏幕，且内置MOS系统，显示风格与大众燃油车上的MOS系统区别不大，基本一致。该系统支持多种交互操作，手势控制部分，支持多点触控和悬浮操作。然而，我还是比较习惯用语音，不知道大家是什么习惯。另外，汽车还配了一个无线充电面板，可以放下6.5英寸的手机，实用性也不错。
-动力：我试驾的2021款 Pure 纯净版车型，是一款后驱车型，后轴上搭配了永磁同步机，电机最大功率125kW（170马力），峰值扭矩达到310N·m，NEDC续航能达到402km，电池能量是57.3kWh。我试驾发现，125kW功率虽然不弱，但是也不强，日常代步出行没什么问题，但是如果你想要激烈驾驶，或者想中高时速超车，信心还是显得略有不足。
-驾驶模式介绍：上汽大众ID.4X有经济、舒适、运动和个性化四个驾驶模式，经济模式下，感觉电门踏板很“懒惰”，反应不够积极。当然，在此次三亚试驾，其实我一直使用运动模式驾驶，动力响应积极，反应非常快，感觉非常跟脚。
-动能回收：当然了，大众ID.4X也有动能回收机制，当在D挡下松开加速踏板后，车辆不会因动能回收而产生拖拽感；当你深踩刹车踏板，其实能量回收的拖拽感也不强烈。给我感觉还是相当不错。这一点设计，说明大众ID.4X和其他纯电动车型略有所不同。切入B挡可以提高动能回收，不过在B档下松开加速踏板，动能回收是工作的，会产生一些拖拽感，但不算很明显，动能回收反而做得非常自然，这是大众ID.4X高级的地方。
-底盘悬架：大众ID.4X的底盘表现很沉稳，不像一台电车，前麦弗逊式独立悬架，后五连杆独立悬架，或者说，它可以把它当成一台燃油版的大众车更合适。其悬架调教虽然偏向硬朗，但是对颠簸路面的多余振动过滤做得不错，传递到车内，不会有多余的振动发生，大众燃油车的驾驶感受，还是相当熟悉的。
-噪音：电动车的NVH是比较好做的，电动车的车内噪音控制，主要看风噪与胎噪。噪音控制方面上汽大众ID.4X做的也不错，各个车速下的噪音都能控制的很好，加上车内没有扰人的那种电流声，高速状态下的风噪和胎噪抑制的也不错，能保证我们车内前后排乘客之间的正常交流。
-2021款 Pure 纯净版全款落地要多少钱？
-我在广州本地的上汽大众4S店问了一下价格，目前新车暂时没有优惠，其指导价是19.9888万元，车船使用税300元，交强险950元，商业险6500元，上牌费600元，全款落地要20.83万元，希望给大家一个参考。</t>
+          <t>外观不错比较适合我的审美，动力随叫随到够用，内饰一般般，配置基本都能满足，空间比我以前的马3大了不止一点，驾驶感受的话地盘稳前悬比较硬，车子虽然重但是开起来还是很轻快的，刹车前段比较软跟油车完全不一样需要适应一段时间，我一般都是B档开这样刹车的感受会好很多，续航冬天开暖气400公里不到，春天10度以上不开空调500公里没问题，气温20度开空调450公里，可能是之前开手动马3油门踩的比较猛的缘故，听别人说都能开600公里不知是真是假，反正我是开不到有什么说什么</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -1359,41 +1291,20 @@
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X 1st Edition ID.初见版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大众的车子服务了不少家庭，车主反应车子用来代步真的不错，近年电动车流行了起来，大众品牌依然紧跟风口，作为一个职业测评人，今天要跟大家聊的车型是大众2021款 ID.4 X 1st Edition ID.初见版车型。
-价格：
-价格不便宜。这款车定位5门5座紧凑型SUV，车子的补贴价格23.59万，福州这边的经销商报价为23.59万，车子是2021年1月上市的，目前市面上没有很大的优惠力度，以23.59万作为裸车价，上牌费500元，商业保险7100元左右，全款购车预计花费总额24.5万元左右。
-内饰：
-总体内饰表现良好，车内的方向盘使用了平底设计，方向盘上的多功能按键为触控操作，前方也有个液晶仪表显示行车相关信息，对视线也不会有遮挡。多媒体系统菜单层级比较多，也支持手机互联映射和手机无线充电功能，但是妖姐个人认为操作的反应速度略慢了一些。值得一提的是氛围灯，可选颜色较多，还有不同主题模式，同时多媒体系统的主题也会相对应的改变。
-外观：
-车子使用了流行的贯穿式头灯，中间的大众LOGO也可以点亮，夜晚效果挺不错，下方的前包围样式也不是很夸张，整体比较协调。同时配备了矩阵式LED大灯，灯组内部结构也进行了精心设计，并具备大灯随动转向功能。车尾依旧延续了车头的设计风格，以营造横向视觉感受为主，并且尾灯设计的很有科技感，内部结构比较复杂，也有贯穿尾灯的设计元素。整体来看，妖姐个人认为车子外观比较饱满。
-空间：
-空间表现良好。妖姐找了个身高174cm的小伙伴一起来测试车子的空间，他坐在前排，头部空间剩余1拳4指，来到后排，头部空间剩余4指，
-后排腿部空间剩余1拳4指，这样的乘坐空间表现，妖姐个人认为车没有特别出色的地方，也没有什么可以挑剔的地方。后备厢容积为484L,比较规整,放倒后排座椅后,座椅靠背与后备厢地板之间形成一个平面，用起来也比较方便。在部分情况下,亦可将后备厢底部隔板向下放一挡,可以再增加
-100mm左右的纵向空间，拓展性比较灵活，值得称赞。
-加速测试：
-在进行提速测试的时候关闭空调，全力踩下油门踏板，车身姿态比较平稳，得益于电动机的输出特性，推背感强,且能持续到中高速阶段。直到车速接近70km/h，加速度才开始有所减弱，测得6.35秒就能完成0-100km/h的加速过程，在纯电动紧凑型SUV车型里也是相当有竞争力了。
-刹车测试：
-全力制动时，车身姿态保持的也不错，悬架能够给予车身足够的支撑，连续测试中，刹车热衰减现象不明显，制动力输出持续且直接，最后测得100-0km/h的刹车距离为40.27米，这个成绩在同级别车型中没什么竞争力。
-续航测试：
-搭载的是纯电动 204马力发动机，纯电续航里程555KM，配备了83.4kWh的三元锂电池,首先是城市续航测试，在D挡下松开加速踏板，车辆没有明显拖拽感，切入B挡后,动能回收所带来的拖拽感明显。妖姐测得车子的城市道路能耗约为16.1kWh/100km左右，高速续航测试时，电耗为18.1kWh/100km，整体续航能力比较靠谱，当然数据也会存在误差，仅供参考。
-操纵：
-车子的前悬挂形式为麦弗逊式独立悬挂，后悬挂形式为多连杆式独立悬挂，悬架调校稍偏硬朗一些,对路面颠簸的过滤干脆到位，经过颠簸时车身不会有多余的振动，在过减速带时也不会带来明显生硬的弹跳。方向盘的转向力度不重，手感反馈比较扎实，转向精准，车头的响应速度和指向性也都比较清晰。加速踏板和输出动力的比例感也不错。
-缺点：
-1、车机软件系统在导航时，偶尔会出现黑屏重启的情况，使用车联网功能,当网络信号不强，就会掉线。
-2、这个价位的车子，外后视镜没有电动折叠的功能，确实比较遗憾。
-总结：
-这款车子空间表现良好，动力比较充沛，有着不错的行驶质感，续航能力也比较靠谱，整体产品力在同级车中表现属于中上水平，性价比不错，但是外后视镜不支持电动折叠，车机系统稳定性不太友好，也是不得不面对的问题，因此妖姐个人认为，这款车比较适合务实的消费者。</t>
+          <t>机械素质确实是同级别最好的，但是智能化配置确实还是差不少，总体还是比较满意~最喜欢的就是前脸和侧面的线条，侧面很有瓦罐的气质，据说24年电动瓦罐就会上市了。内饰id4x比id4c更容易讨年轻人的欢心，空间方面电动车都不差~
+提车5个月现在差不多2万公里了，70%都是跑的高速，这夏天高速120开启巡航情况下差不多百公里20度电的样子~折算下来慢点400公里的样子，基本上单程150公里以内都不会有里程焦虑。但是冬天确实能耗升高的还是比较多，不开空调，高速120巡航只开方向盘加热或者座椅加热的情况下，大概23~24度电/百公里的样子。在满载负荷和极速160的情况下，感觉电机有一些抖动~所以，对电动车还是得友好一些~
+如果只是城市代步的话，还是更建议id3，整车质量更轻，操控感更好~id4虽然操控也不错，但是毕竟车重在哪儿摆着，激烈驾驶情况下，侧倾不算大，但是仍然能够感受到2吨多的车重，坚持的很艰难。</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -1404,241 +1315,11 @@
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2022款ID.4 X 纯净长续航版
+              2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
-        <is>
-          <t>刚提车，驾驶感受符合预期，整体满意，目前还不能联网，carplay 使用中，很不错，希望车机再给力些</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 智享长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>智能化系统还是堪忧，除此之外，真的是一部好车，适合实干的人，胡里花哨的不适合。
-新车有一些难闻气味，不知道要散多久。</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X 1st Edition ID.初见版
-            </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>外观：ID.4 X是一台看起来很不大众的大众，线条由流畅代替了以往的凌厉，造型由动感代替了昔日的硬朗，甚至，镀光代替了镀铬，全新的平台、全新的设计，比例协调、稳重大气，又充满了时尚与动感气息。
-空间：座椅柔软舒适，2765mm的轴距令其驾乘空间宽裕，而且空间布局灵活，载物空间最大可拓展至1546升，作为一台紧凑级SUV，而且是新能源车型，它的驾乘空间及实用性算是不错了。
-舒适性：底盘的整体感、紧凑感出色，悬挂韧性十足，在保证了足够的支撑性的同时，也能很好的过滤掉路面的颠簸，再配合精准的转向指向性，好开、舒服是驾驶它的第一感受。
-内饰：极简风的内饰造型，迎合了当下的潮流，双色拼接设计提升了其视觉上的层次感。但是在用料上还有提升和空间，一些该软包的、该皮质包裹的地方都用了硬塑料。
-操控：底盘的整体感、紧凑感出色，转向指向性精准，关键是油门跟脚且线性十足，像极了燃油车的脚感，非常能读懂你的驾驶意图，完全没有一踩油门就傻快的往前冲的那种感觉。
-配置：该有的基本上都有了，液晶仪表与中控大屏，承担了大部分信息的显示与功能的操作需求，配合全车的触控按键，是当下对科技感最好的诠释。
-动力：ID.4 X高配车型拥有前后双电机、最大312匹马力的强劲动力，可媲美小钢炮，即便是单电机板车型也足够满足家用需求，而且单电机版车型的续航里程更长、实用性也更出色。</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 智享长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>很像油车的电动车，很扎实，智能化程度一般，基本功能都是好的。用车2个月，续航很准。电车真的能改变生活尤其当下油价这么贵。续航里程很标准吧！我春天买的，最近温度15度样子，最高温度21，不开空调，续航500多随便开。平时看着建议充电到百分之八十的建议，因为家里有桩比较方便来着。每天上下班50公里，基本一周充一次吧！现在夏天开空调了，续航在17度电百公里样子，充电方便，没有啥压力。车子老婆开的，基本智能化还是够用的，比起新势力差点，但是自己用也够了，周末没事周边100公里范围内的景点随便转转，没有啥压力，希望后续能赶快OTA，升级到最新款。车用到现在没有别人说的黑屏，卡死，异响等状况，后期会继续去分享使用情况。</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 纯净长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>总体硬件不错，产品软件跟上汽服务太拉垮！比如车机软件掉线黑屏退账号，打400电话反映问题就没有任何回复了。大众操控性还是不错的。</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ID.4 X这辆车，真是以实践证明了什么叫“雷声大雨点小”，原本比竞品便宜10W的价格、高科技噱头以及全新的外观，已经在几次预热时赚足了眼球，结果还没上市，就深陷“鼓刹门”。
-先看这辆ID.4 X Pro的外观：
-第一感受自是：大众终于换脸了。纯平头灯、前贯穿灯饰条，充满攻击性的前杠网格装饰，没想到大众也开始俏皮了！最有趣的还数它的眼球大灯，它有个卖萌模式，一解锁就滴溜溜地转，童趣十足。
-来到车侧， 20寸大轮毂很有气势，不仔细看还看不出来，它还是个半封闭轮毂，黑色的部分并不完全是镂空的，我们废了好大劲才看到后轮的鼓刹。车侧的Pro徽标饰条、平齐的车门把手、B柱上的Volkswagen浮雕、贯穿整个车顶的灰色饰条，都是大众的全新设计，换句话说，是对整个年轻市场的妥协。
-来到车尾，比较有新意的设计则是点亮后变红的尾标、像素画风的尾灯以及回旋镀铬装饰件。最画龙点睛的还属白色铭牌，说句清新脱俗不为过。
-车身整体采用的是雾霾蓝+黑色的撞色设计，乍一看非常独特，但ES6早就使用过这个颜色，也不算什么独特之处了。
-来到车内，俏皮的蓝色装饰、明黄色缝线、“三叉戟”压纹纤维绒面座椅、带播放和暂停键的踏板，以及带ID.打孔花纹的中央扶手，都在彰显着这款车的年轻化路线。此外，前风挡下面的动态灯带，给整个驾驶舱赋予了未来科技感，这个细节做得很有意思。
-它的门边材质虽然采用了一半左右的硬料材质，但与软包部分衔接流畅，质感上并不塑料，比较抢眼的是钢琴烤漆扶手，视觉上很出挑但确实不太耐脏。
-一个比较聪明的设计是：它把灯光按键和车窗除雾按键都放在了方向盘左侧的面板上，增加了易用性。
-再看这不少人的槽点——超小仪表盘，刚上车的时候我门也觉得小，但它清晰度一流，实测不会影响驾驶。它的中控屏确实比竞品小了不少，但单独的空调虚拟键这个设计很不错，规避了某些电动车型空调很难控制的问题。整体触感、滑动反馈和反应速度都不错。这个滑动操作不仅出现在中控下方，还出现在天窗按键上，有苹果产品那种“滑动以解锁”的感觉了。
-这套车机系统使用的是大众最新的MOS 4.0系统，不仅传输速度较快，还带智联控车和智能家居功能。
-来到后排，这辆轴距2765mm的车空间表现还可以，但功能比较简约，除了空调出风口和充电接口就没有其他的功能了。
-当然了，软装和车机只是一方面，开起来好不好、续航准不准才是问题的关键。
-提车的时候销售问了我一句“你空调会开伐”，我本来对这句话略有微辞，结果一上车我才发现，我空调会开是会开，但不知道这车怎么挂档……
-找了半天才发现挡把在仪表盘旁边，这算是一个创新之处。
-开起来之后，这车的驾驶感非常像大众的油车，除了声音小一点儿、稍微窜一点儿之外几乎没有任何区别，即便日常有油、电车切换驾驶的需求，也不会有某些电车带来的PTSD。
-我们开的这款是后永磁同步电机、后驱的版本，NEDC续航里程是555km，最大功率150kW，峰值扭矩310N·m，日常驾驶足够了。如果追求更风驰电掣的感受可以选择双电机的四驱版，峰值扭矩可以达到460N·m，续航也有520km。另外它全系都是前麦弗逊后五连杆的悬挂，不颠不软，整体驾驶感受都是纯血德系的感觉。
-到了晚上我才突然发现，它的车道偏离等安全提醒会显示在HUD上，这功能真挺实用的，只可惜在PRO版上需要选装。
-那么ID.4 X的实际续航表现到底怎么样呢？我们在上海车展期间开了四天，基本模拟了一下日常近途上下班代步的工况，期间还外出见了朋友、把朋友送到机场、往返不同的酒店取行李，再加上空调全开的几小时静态拍摄。接车的时候是97%、剩余469km，还车的时候竟然还有81%、剩余377km，表现非常准确，可以说是我开过的所有电动车型里最准确的一款车了。
-优点说了这么多，缺点也还是要提一提的：
-首先，它作为一个20W起步的强调科技感的车型，虽然安全配置全系齐备，但HUD和360全景影像只在27W左右的两个四驱版上标配，这个确实差点儿意思；
-其次，就是主驾驶位这个车窗控制按键只有两个，想要控制后排车窗，需要点亮Rear键，这个使用起来便捷性差了一些，需要适应。</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 纯净长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>质ID4X高超的颜值和出色的性能，还影响了身边不少朋友，他们有的和我之前一样，根本不知道大众还有纯电车，而且还做的这么好看！有的是对电车不感兴趣，或者是担心续航能力。还有的呢，一直关注的是造车新势力，如特斯拉，蔚来，小鹏，理想之类，根本就没去了解过大众。在我这台ID4X提回来后，他们有了近距离了解的机会，不看不知道一看吓一跳：原来大众也有这么棒的纯电车！
-然后几个朋友纷纷跑去试驾，一个朋友在我提车之后两天买了一台ID.6X，一个朋友在今天下午喜提ID.4X----尤其要强调的一点是：这两个朋友原本就是冲着特斯拉去的，像今天提车的这位，家里已经有一台魔豆Y了！本来是想买个魔豆3的，看了ID4X后，最终选择了大众。还有一个已经预约明天试驾……妈呀，上汽大众你家是不是该给我点推销费啊？
-总体来说相当不错，续航相当满意，充电速度不错，内饰环保，基本没有味道。</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 纯净长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>外观不错比较适合我的审美，动力随叫随到够用，内饰一般般，配置基本都能满足，空间比我以前的马3大了不止一点，驾驶感受的话地盘稳前悬比较硬，车子虽然重但是开起来还是很轻快的，刹车前段比较软跟油车完全不一样需要适应一段时间，我一般都是B档开这样刹车的感受会好很多，续航冬天开暖气400公里不到，春天10度以上不开空调500公里没问题，气温20度开空调450公里，可能是之前开手动马3油门踩的比较猛的缘故，听别人说都能开600公里不知是真是假，反正我是开不到有什么说什么</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>机械素质确实是同级别最好的，但是智能化配置确实还是差不少，总体还是比较满意~最喜欢的就是前脸和侧面的线条，侧面很有瓦罐的气质，据说24年电动瓦罐就会上市了。内饰id4x比id4c更容易讨年轻人的欢心，空间方面电动车都不差~
-提车5个月现在差不多2万公里了，70%都是跑的高速，这夏天高速120开启巡航情况下差不多百公里20度电的样子~折算下来慢点400公里的样子，基本上单程150公里以内都不会有里程焦虑。但是冬天确实能耗升高的还是比较多，不开空调，高速120巡航只开方向盘加热或者座椅加热的情况下，大概23~24度电/百公里的样子。在满载负荷和极速160的情况下，感觉电机有一些抖动~所以，对电动车还是得友好一些~
-如果只是城市代步的话，还是更建议id3，整车质量更轻，操控感更好~id4虽然操控也不错，但是毕竟车重在哪儿摆着，激烈驾驶情况下，侧倾不算大，但是仍然能够感受到2吨多的车重，坚持的很艰难。</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pure+ 纯净长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>【空间表现】
 表现优秀，本人身高180前排调整好，后排还有两拳距离，头部空间前排很富余，后排坐直大概三指左右中规中矩。
@@ -1652,24 +1333,24 @@
 智能化表现一般，手机app对于车辆的控制功能太少，目前使用一个月出现过不显示时间问题，第二天自己好了。底盘悬架偏软，低速晃动比较大，高速很稳。</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>4.14</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>空间足够，驾控很舒服，耗电优秀级别，主要是安全啊。
 充电采用7kw是，充满电需要12个小时。快充半个小时从20%到80%。夏季空调一直开百公里耗电大概15，春秋两季百公里13度电。速度大概在60左右城市快速路。总起来说还是比较满意的。没有头晕的感觉。绿色节能环保。
@@ -1678,182 +1359,90 @@
 车机确实一般，导航我一般不用大众的，太落伍了，我直接用carplay 还是比较好用的。提的现车，照片便是。</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2022款ID.4 X 智享长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>很像油车的电动车，很扎实，智能化程度一般，基本功能都是好的。用车2个月，续航很准。电车真的能改变生活尤其当下油价这么贵。续航里程很标准吧！我春天买的，最近温度15度样子，最高温度21，不开空调，续航500多随便开。平时看着建议充电到百分之八十的建议，因为家里有桩比较方便来着。每天上下班50公里，基本一周充一次吧！现在夏天开空调了，续航在17度电百公里样子，充电方便，没有啥压力。车子老婆开的，基本智能化还是够用的，比起新势力差点，但是自己用也够了，周末没事周边100公里范围内的景点随便转转，没有啥压力，希望后续能赶快OTA，升级到最新款。车用到现在没有别人说的黑屏，卡死，异响等状况，后期会继续去分享使用情况。</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2022款ID.4 X 劲能四驱版
             </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>对于不想改变燃油车驾驶习惯的人来说，大众ID是最好的选择。坐上去，各种习惯，包括油门，内饰，按钮，甚至续航里程都是传统燃油车根据最近能耗统计，绝对没有续航焦虑。绝大部分配置有齐了，抬显，360，加热方向盘，正副驾驶按摩座椅，矩阵LED大灯，踢脚后备箱，变道辅助，氛围灯等等，略显遗憾的是没有通风座椅和电吸门，轮毂居然都是21寸的。自动驾驶这一块没关注过也不打算用，包括自动泊车。10天用下来感觉不错，空调来的很快，车机反应也很满意，底盘滤震比A7舒服，毕竟轿跑没有舒服的，哈哈。车内储存空间也够大，特别是前门可以塞下一把很大的折叠伞，自己又在某宝上买了些储物盒，空间就更大了。前后灯的仪式感也很足，靠近车辆的效果也很赞。不足的就是智慧互联里没有上锁解锁，开关车窗的功能，这个有点遗憾</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2022款ID.4 X 智享长续航版
             </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>底盘滤震好，过坎干脆，有高级感。路感反馈也不错。刹车脚感线性，感觉不出动能回收带来的闯动。方向手感及格，低速应该再轻盈点。动力满足一般需要是够了。转弯半径突出的小，非常灵活。续航比期望稍不足，室外30°，开25度空调，市区道路平均速度27km。D档，驾驶稍激进。百公里电耗是18度。</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 智享长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>官方公布续航里程为555km的长续航版本，车主实际体验日常续航可以达到500km，冬季续航也有440km。
-而我们实际用车的续航在480km左右，虽然没有上述车主那么高，但这个数字还是令人满意的。
-这比起其他品牌为了销量虚标续航要好很多。
-全系标配交通道路识别、主动刹车、倒车影像和定速巡航，中配以上并线辅助、车道偏离、车道保持还有车侧预警等驾驶辅助就齐了。
-谈谈缺点：
-大部分车主对于这款车的吐槽，最多的就是车机了。
-这并不是德国人所擅长的领域，从当年欧洲ID.3开始，车机的问题就没有得到妥善解决。
-黑屏、卡死、运行不流畅这都已经习以为常了，用户甚至吐槽还不如用手机，而且语音控制的准确性和执行力也饱受质疑。这也只能寄希望后续能够通过OTA升级进行解决。</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>【最满意】
-我对这台车满意度还是很高的，外观很戳我，造型很新颖时尚，而且上汽大众的品牌背书还是很不错的
-【最不满意】
-做工确实差，质感不好，这块还是有待提高
-【空间】
-空间我用下来觉得没啥问题，偶尔满载的情况下也不会显得拥挤，而且车内储物空间也是很实用的，一家四口足够了
-【动力】
-毕竟是电车，动力还是没的说，起步不会费力，而且动力的爆发性还是挺强的
-【操控】
-开起来挺轻快的，可以选择油车或者电车的驾驶感，我自己还是比较喜欢电车那种一踩就动的感觉
-【电耗】
-续航非常不错，标的是607km，不开暖风不开空调大概能行驶560km左右，一般我上下班通勤，偶尔出去吃吃饭，一个月充3次电就够了
-【外观】
-外观我还是很喜欢的，辨识度非常高，而且还有点运动感，底盘也挺高的</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 劲能四驱版
-            </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>上汽大众向新能源转型后，推出了ID.家族系列。背靠着造车经验丰富的大众，其品质和实力都有所保障。今天玩车弟就来聊聊其旗下的一款紧凑型纯电SUV——ID.4 X。
-       外观设计上，ID.4 X看起来有一种未来感。封闭式的前格栅设计，这是它作为新能源车身份的标志之一。前脸被一条贯穿式的LED灯带所连接，中间是全新优化后的大众LOGO，很有辨识度。另外，它虽然取消了中网格栅，不过还是保留了下格栅的造型，采用的是梯形进气口设计，两侧配备了尺寸较大的导流槽，内里使用了蜂窝状的镀铬饰条进行装饰，整体感看起来比较有层次感。
-       侧面是双色车身，悬浮式的车顶+贯穿式的腰线，也增加了侧面的层次感，而且它的轮眉和侧裙设计的比较壮，看起来比较有力量感。尾部是现在流行的贯穿式尾灯，没有特别之处。
-       内饰上最吸睛的当属12英寸的悬浮式中控屏和全液晶仪表了，至少保证了视觉上的科技感，且内置了大众最新的智能交互系统，除了常规的远程控制、在线导航、网联音乐等功能以外，它还支持智能家居控制，智能化程度还可以。
-       值得一提的是，ID.4X配备了比较高级的智能驾辅系统，比如前方碰撞预警、自动紧急制动、变道辅助、后部交通穿行提醒、疲劳监测、交通标志识别等多种配置都有，在一定程度上能提升驾乘的安全性。
-       ID.4 X四驱版在动力方面搭载前交流/异步后永磁/同步电机，最大功率为313Ps，峰值扭矩为472N·m，这个版本的续航里程为555km，基本足够满足一周的城市通勤。那么大家觉得它的市场竞争力如何呢？</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2022款ID.4 X 智享长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>大众ID4x 2022新款已上市，但是在没有改变电池容量的情况下，续航增加了几十公里，这是大众的电控升级了，还是来个续航测试标准真的就有这么大的差距吗？但说实话试驾后总体驾驶感受还是很好的，底盘方面国产还有很大的进步空间。内饰大众跟国产的差距越来越大了。ID4虽然价位上有一点点高，但是有优惠，而且还赠送2万的的ID豆这可是一比一能顶人民币的，可以用来买保险，国产一众新能源，不管那个品牌，进店咨询后，都是价格没有优惠而且分期方面，很多的品牌都收金融服务费，尤其比亚迪收的叫一个很，元plus 收4000 额度60000带两年。
-ID空间表现还是，比自家同级别的途观，内部空间宽敞多了。最让人感到惊讶的是转弯半径，那叫一个小，两车道一把就能掉头过来。这个完全没有对手。</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2021款ID.4 X 1st Edition ID.初见版
             </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>【充电时间】
 还不知道，本小区有安装充电桩的，估计不会有大的波折，现在电车多了，很多物业对此也是开发态度，老小区的话可能有点困难！
@@ -1872,24 +1461,24 @@
   总的来说，要科技要动力别选它，但是这个价格看得出大众很有诚意了！车友们去谈价格的话，建议胆子大一点?12月厂家希望多搞点积分抵消负分，4s希望多卖点车拿返点，他们不想放过你的。多对比几家，你会发现总有那么一个4s是比较急切的，你也可以在这个过程中试探他们的底线，当然一人一个情况，也别生搬别人的价格。</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>1.整体外观有别于大众传统油车的套娃脸，加上亮丽的颜色，在外观上还是挺吸引人的。
 2.驾驶感受上不愧是大厂的调教与做工，驾驶舒适，尤其是转弯半径，相当小，单车路段一把转。
@@ -1898,62 +1487,24 @@
 5.该车空间足够普通家庭的日常需求，后备箱空间宽敞，第二排坐的也不显得局促。</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>【驾驶感受】
-提车两周，行车500公里左右，最真实的感受给大家参考。外观内饰美感不错，行车很稳，动力够用，加速平顺，功能保守，辅助驾驶辅助性大于自动性，电耗不稳定非常不满意，下文细说。
-【动力表现】
-动力平顺稳定，加速线性，市内超车稳定，高速120以内也足够稳定。非常适合小孩家庭使用，足够平稳。
-【空间表现】
-空间足够，类似中型车，稍微有点矮，但是足够用。
-【提车价格】
-没有议价空间，可以适当谈下礼物赠送服务。
-价格
-【销售态度】
-销售态度非常不错，这是我宁愿不买高配置一汽买低配置上汽的原因，上门试驾，上门检查。服务不错。
-【续航】
-这是我这辆车最大问题，我声明仅仅表述我自己这辆车所展现数据的问题。两次测试里程数都在400以下。第一次因为测试功能所以不准确，仅仅300多公，第二次充电96%，一直到73%电量都很准确预测能500以上，从70%开始猛掉电量，目前状态充电后行驶245公里，表显能耗17.5千瓦时百公里，剩余24%电量，剩余续航140，预计能开380公里。我的驾驶全部市内，，b档驾驶，经济模式24.5空调低速，副驾驶没人开单边。两个疑问，一是续航实在太低，二是按照能耗，计算出实际里程完全不止245公里？电池是否有83.4电是个疑问！
-【最满意】
-除了续航基本满意。
-【最不满意】
-续航有严重问题，同时两周已经两次故障灯亮了，一次说是被干扰车道保持失灵，一次贴膜装记录仪，安装师傅问题，车灯故障，不过都是维修师傅上门解决，还算满意。</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>【外观】
 外观耐看，大气；与大众油车外观差异化大；前后灯带很漂亮
@@ -1980,24 +1531,62 @@
 用车省钱，用车省钱，还是他喵的，用车省钱！</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>3.43</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>【驾驶感受】
+提车两周，行车500公里左右，最真实的感受给大家参考。外观内饰美感不错，行车很稳，动力够用，加速平顺，功能保守，辅助驾驶辅助性大于自动性，电耗不稳定非常不满意，下文细说。
+【动力表现】
+动力平顺稳定，加速线性，市内超车稳定，高速120以内也足够稳定。非常适合小孩家庭使用，足够平稳。
+【空间表现】
+空间足够，类似中型车，稍微有点矮，但是足够用。
+【提车价格】
+没有议价空间，可以适当谈下礼物赠送服务。
+价格
+【销售态度】
+销售态度非常不错，这是我宁愿不买高配置一汽买低配置上汽的原因，上门试驾，上门检查。服务不错。
+【续航】
+这是我这辆车最大问题，我声明仅仅表述我自己这辆车所展现数据的问题。两次测试里程数都在400以下。第一次因为测试功能所以不准确，仅仅300多公，第二次充电96%，一直到73%电量都很准确预测能500以上，从70%开始猛掉电量，目前状态充电后行驶245公里，表显能耗17.5千瓦时百公里，剩余24%电量，剩余续航140，预计能开380公里。我的驾驶全部市内，，b档驾驶，经济模式24.5空调低速，副驾驶没人开单边。两个疑问，一是续航实在太低，二是按照能耗，计算出实际里程完全不止245公里？电池是否有83.4电是个疑问！
+【最满意】
+除了续航基本满意。
+【最不满意】
+续航有严重问题，同时两周已经两次故障灯亮了，一次说是被干扰车道保持失灵，一次贴膜装记录仪，安装师傅问题，车灯故障，不过都是维修师傅上门解决，还算满意。</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>外观：
 作为大众ID.4的改型车，正脸看略显不够大方，但正侧、斜侧和后方看是优雅大气，特别是双色搭配，在车流中很显眼（晚上的灯光就更赞了），我爱人选的超导红，是因为三亚滴滴大部分是白色，不想泯然众人矣。
@@ -2017,24 +1606,24 @@
 上汽大众还得按照智能手机的思路去做新能源汽车，不要像火腿肠一样挂掉，要像华为似的走出路来。</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>3.93</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>自己买的车，肯定对外观内饰还是比较肯定的，挺好看，灯光酷炫，而且自动大灯相当实用和智能；配置也比较不错，尤其安全配置，空间也比较宽敞，手机App功能也稍显单一，希望后期也能丰富。
 当然，首先买的是一台车，所以驾驶质感，安全指数应该是排在首位的，这一点ID4x做的很好，作为电动车，续航也是比较实在的，冬季电池缩水是是电池技术瓶颈，ID4x做的算不错的，正因为上述的前提，车机反倒不是决定性的，但是可以有提升空间。
@@ -2060,24 +1649,24 @@
 基本上没听说坐着不舒服，家人没晕车什么的。</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>4.71</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>感受：车辆外型OK，内饰比ID4 CROZZ好看，外观CROZZ又更喜欢。驾驶感受非常出众，很扎实的感觉。
 续航：提车的时候室外15℃左右，平常上下班开的急刹急停的也能到540续航，挺满意。
@@ -2086,24 +1675,24 @@
 车机：平常U盘里有电视剧电影，在车里坐着吃吃零食看看剧挺好的，电车随便开空调睡觉😴不耽误。貌似有人已经升级到最新版有爱奇艺等视频软件了，我还没收到，等着吧。偶尔车机有点小毛病抽风，比如最近车内空气净化pM2.5读数错误飙升到499，时钟偶发性的不显示，双闪那一排触摸快捷键经常没反应。总体还是很好的，没遇到网上传的卡顿启动半天打不开空调等情况，估计是尬黑吧。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>4.36</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>【空间表现】相当不错，后排中间拢起2厘米，可以忽略
 【充电时间】第一次快充电20分钟左右，34%起80%止
@@ -2115,47 +1704,47 @@
 刚开始用D档，只要猛踩那提速有飞一般的感觉，现在用B档脚一松及时降速明显和踩刹车一个感觉，动能回收非常明显，这车开起来很轻松</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>总体来说：还是相当的不错的！外观科技感十足，棱角分明！内饰简约而不简单！！最主要的是全景天幕简直不要太哇塞！！                      驾驶两个月，总体驾驶体验还是很不错的。总看到有很多人在网上各种评价，个人感觉车机还算稳定，没有出现黑屏的问题；可能是冬天气温低，夏天的时候看看什么表现吧；还有车载CARplay也还可以，只不过每次上车后打开手机都会自动连上，想听收音机的时候就会比较尬~~续航问题也在接受范围内，我一般充电都是到90%，一般跑到20%左右就会充电，充到90%表现续航是360KM左右,实际能跑400KM个人觉得小case！续航还是比较满意的~~
 总之，提了这辆大众.ID4X，各方面还是比较中意的！！</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>4.14</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>外观 超爱iq light每次靠近点亮真的超帅，内饰大众新的风格还不错双拼氛围灯两种材料的座椅等等但是一些细节方面后排没有氛围灯和音响车门玻璃内侧没有塑料包覆还是看得出省成本。
 【空间表现】
@@ -2171,50 +1760,24 @@
 留学回来入职大众一个月出了活动就买了我的价格肯定是普通消费者想象不到的就不说了。走的员工渠道4s态度不错但服务不是很好什么都没送临牌车牌都只能自己办，期间有些什么问题销售答复基本都说：没办法钱都给大众了我们赚不到什么/你是大众员工你应该比我清楚（内心os我是大众员工我又不是搞销售的）。但是我经历应该是个别现象非常推荐大家去id store买服务态度会好很多。</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X 1st Edition ID.初见版
-            </t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>作为大众MEB纯电架构下的首款产品，ID.4 X有些姗姗来迟。虽然是电车，但上手的第一感觉仍然和开过的油车相似，起步和加速并不突兀，底盘也是力道适中，可圈可点，可以说大众功力依旧，无愧于一个老牌车企的作品，而电车应该具备的一些专属标定如刹车、动能回收等也都相对完善。当然，它作为电车在车重上的劣势，也仍然存在。作为一个紧凑级SUV，ID.4 X的整车质量超过了2吨。
-如果说驾驶感受算是意料之中，那么大众对于ID.4 X在设计上的心思还是让人比较意外的。前脸的发光LOGO、车内的灯带光语、尾灯给人的仪式感，都已经不是那个德国老顽固的样子。车内的设计也不是以往大家对大众的固有认知，整体布局和配色都有了新鲜感，起码比同期测试的特斯拉Model Y要好很多。不过，如果车内软性材料能更多一些就更好了。
-在电车最为重要的续航部分，经过我们在20摄氏度的武汉实测，从满电状态开始，在城市、高速等路面上连续行驶至续航里程归0，官标的续航里程为555公里，实际行驶503公里；官标百公里耗电量16.2度，实际为16.1度，相差不大。
-至于ID.4 X的缺点，作为一台20多万的大众纯电SUV，后轮采用鼓刹很大胆，从消费者角度来说也很有争议。
-整体来说ID.4 X是一部值得推荐的纯电SUV，大众品牌也有深厚的认知基础。</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>ID.4 X交了定金之后没等多久就通知提车了，因为问了一下那个车型交车快，虽然知道白色保值会好一些，但是耐不住真的中意蓝色～
 跑了5000公里了，长途短途都跑过，来说说体会～
@@ -2231,143 +1794,68 @@
 供大家参考哦～希望以后能做车友～</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>车辆的外观设计我还是比较喜欢的。SUV的空间大，但是线条还是比较柔和。男女都适合。颜色我选的是蓝色。这个颜色我非常喜欢。应该是油漆的特色关线下蓝色的感觉还不一样。给我感觉应该是带点珠光的蓝。内饰感觉也比传统油车好看很多，30色的气氛灯带增添很多现代感。多功能的组合空间绝对满足家庭需要，后备箱的扩展非常适合搬运较多物品。最好看的还是灯光设计。炫酷的发光标志和智能化的灯光系统都是非常棒的，迎宾式唤醒功能绝对是一个大亮点。每当我走近车辆时就看到灵动的大灯亮起并左右转一圈，前后标志和灯带都会流动感的亮起。非常有仪式感。也经常会被路过的行人说“你看这个车标志会亮的”。ID.4X操控性更是出色，看得出底盘非常扎实。提速迅猛但是方向绝对不飘。可以说我的50公里内起步绝对和跑车有得一拼。变道也非常准确。但是方向盘的转动比一般的油车会重一点，估计是怕起步太快是方向太猛有危险。配备83KW的电池模组和150KW的驱动电机。有很不错的动力也保证了经济电耗。一般不开空调的季节城市综合路况（70%高架道路）实际续航在500公里左右，续航历程还是比较准确，只要你掌握了车辆各种情况下的电耗。自己完全可以准确预判和使用。增强式抬头显示虽然有点贵但是绝对是增加驾驶体验感的。非常有科技感。也让你驾驶过程不再需要去看仪表盘。速度，导航都能显示在前窗上。在使用一段时间后最让我感到惊讶的是非常出色的L2辅助驾驶功能。特别是在高架高速道路行驶。完全可以放心的操作，车辆车道保持非常稳定。但是辅助驾驶还是需要驾驶员主动干预的。你手离开方向盘3-5秒就会提醒驾驶员掌控方向盘。对于车辆的定速巡航跟车也非常好用。还有要提一下的就是ID.4X的转弯半径。真是同级别里面最优秀的，特别是在小路或拥堵的停车场我们都能轻而易举的掉头转弯。这种设计也是考虑到现在很多实际开车的问题。还有就是驾驶辅助系统的主动安全系统非常给力。一次是驾驶时开一点走神，差点追尾被车辆主动刹车了。一次倒车时有一辆外卖车突然出现在我后面。也被车辆主动刹停了。这种安全性的系统还是非常让我满意的。唯一略有遗憾的是软件开发上还有待提升。希望以后的升级后能有更多的应用。</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>车辆外形精致可爱，SUV的车身视野开阔，尺寸五口之家足够，比那些小尺寸的电动轿车体验感好很多，21寸大轮毂视觉效果及通过性都非常好，四周的灯带，熏黑大天窗车顶，都给车辆加分很多。内饰布局比较清新，双屏控制大气又不失智能，旋钮式换挡拨杆集成在方向盘边的行驶屏上，操控方便，又节约了中间扶手处的空间。前后排空间都很宽，后排地板平整，没有凸起，让后排乘坐者非常自由。翻毛皮座椅，30色氛围灯，无钥匙进入，双驱自动空调，电动尾门带感应开启功能，都非常实用。车辆开启后无噪音和电流音，非常安静，驾驶操控精准，加速非常快，澎湃的动力5秒就可以到70码以上，制动操控稳，转弯扎实不飘忽，车辆行驶到100码时的静音效果也比较满意，门四周没什么风噪，只有一些胎噪，比一些SUV好很多。高速体验感很好，即便丢掉电门滑行，也没有强烈的拖拽感，这个比其他品牌电动车好，很像燃油车的体验。车辆续航真实，春秋季节，城市路面可以跑500公里，高速行驶时续航会降低但也足够使用，冬季温度很低时续航会降低，大约400左右，这一点和其他电动车几乎相同。充电桩是免费送的，免费安装，即便车主姓名不是本人也可以安装，家用充电安全方便，正常8个多小时可以充满，我常选择晚上波谷充电，只要3毛多一度，充满80度电也就30元不到，可以开大约500公里，公共快充大约40分钟可以充满80%，价格大概1元一度，也非常的方便快捷！可以通过车辆语音互联直接问询最近的充电桩布局，便于自己找到最近的充电桩。开车过程中可以对车机说一句“你好大众，打开收音机”就能轻松与车辆互联，也可以通过无线CarPlay连接娱乐系统，播放音乐和调节导航。电动车不需要购置税，保养也非常省心节约。从去年10月提车至今，累计行驶了6000公里，经历过秋季和冬季，也跑过春节假期的小长途，对它的性能，续航，操控都有了非常切身体会，感觉车辆非常好，我家人也非常喜欢，小孩子喜欢上车后听贝乐虎音乐和故事，现在春天到了，天气暖和多了，车辆的续航比冬季提升了很多，到了周末就会开出去走走逛逛，玩一玩。总体感觉ID4X是一款操控好，省心，省钱又非常酷炫的家用纯电SUV，值得推荐给身边的亲朋好友们。</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>【驾驶感受】简单来聊一下ID.4 X的驾驶感受。ID.4 X的驾驶模式在大屏幕上可以切换，包括运动/经济/舒适/个性。其实还有第五种驾驶模式，就是旋转换挡杆切换到B挡模式，相当于“强动能回收”模式，开启之后收油门就会有很强的拖拽感。 整体来说，上汽大众ID.4 X的电门踏板比较重，和一般的大众车有明显的区别。同时刹车前段比较软，可能和动能回收有关，要到中段后介入才明显。但是需要指出的一点是，ID.4 X的电门踏板和刹车踏板离得特别近，如果鞋子宽一点可能在踩电门时都会挂到刹车。不少人都说，ID.4 X开起来很像燃油车，确实如此，它完全没有电动车开起来那种突兀的动力输出，营造那种特别性能的感觉。在经济模式下驾驶，一方面电门保持了线性感，不会觉得匮乏，没有燃油车那种在节能模式下给油不加速的情况；另一方面前段也做出了对电机动力释放的限制，加上踏板比较重，加速超车时你需要将电门踩得深一些。在大家使用最多的舒适模式下，踏板响应其实跟节能模式并没有太大差别，主要还是动力输出响应和输出力度上不同，相当于加速斜线更陡峭一些。但是那种随叫随到的动力释放，在城市道路驾驶确实很爽。运动模式就更灵敏了，几乎一给就来，比较适合年轻人。然后我们再简单聊聊ID.4 X的底盘和转向。ID.4 X这款车的底盘还是很高级的，前麦弗逊后五连杆，大众风格的调校，碾过路面接缝和减速带干脆利落，车身沉一下就会稳住，不会上下晃荡。再加上底部的电池组，整个车开起来就特别的扎实。大众ID.4 X的转向十分有意思，没有之前汽油车那种特别明显的虚位，转向响应很快，开起来更接近特斯拉。或许这也是大众对标特斯拉的一种表现？而且ID.4X这车的转弯半径特别小，才5.1米，几乎双车道一把就能调头。</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
-            </t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>对于上汽大众的ID.4 X，可以说是一切尽在意料之中。
-第一个意料之中是它的设计，虽然有发光的车标、贯穿式前位灯、贯穿式尾灯这些看起来有点未来感的设计，但依然没有摆脱大众燃油车的影子。若不是跟别人特意强调它是纯电动车，相信大多数人都认不出来它的身份。
-第二个意料之中是它的动力，依然是中规中矩，要知道，如今的纯电动车的竞争早就进入白热化的状态，各大品牌在动力方面都相当舍得堆料，动不动就是上千匹的马力，但ID.4 X却非常保守，主销的后驱版车型仅204匹，高配的四驱版也才313匹，推动这辆车倒不至于觉得动力很肉，但跟同价位的对手相比，ID.4 X这个动力确实拿不出手。不过，令人意外的是，ID.4 X对动力，包括整体驾驶的调校还是传统燃油车的味道，动力的输出不激进，非常像是燃油车那种随着发动机转速提升，同步输出动力的感觉。在大众的传统强势项目，底盘调校和转向调校方面，ID.4 X也是大众燃油车的感觉，跟上汽大众途观L的质感很像。开着它不会让你觉得是在开类似特斯拉这种新式的车型，而更像是在开一辆很传统的燃油车。
-第三个意料之中是它的内饰依然简陋，都新能源时代了，大众对内饰的设计似乎还停留在上个世纪，液晶仪表的尺寸才5.3英寸，显示的内容也很小，着实该吐槽，悬浮式中控屏的尺寸也不算大，好在看个导航什么的，倒是也够用了。内置的功能依然是比较简单的，若是要用新式的互联网功能，也只能借助智能手机的投屏了。
-第四个意料之中是它的空间设计还不错，到底是老牌汽车厂商，对空间的打磨相当到位，值得表扬的是，因为它是真正的纯电平台，大众车型常被人诟病的后排中央地台终于消失了。
-最后是意料之外的部分，在启动逻辑方面，ID.4 X放弃了传统燃油车的上车再单独启动的方式，而是采用了特斯拉的上车踩刹车自动启动的方式。
-另外，这辆ID.4 X依然保留了大众设计的奇葩之处，它都用上尺寸达到20寸的轮毂了，后刹居然用的还是鼓刹。
-总体来说，ID.4 X的定价与产品力还是比较契合的，如果喜欢的话，还是值得购买。</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-              2021款ID.4 X 劲能四驱抢鲜版
-            </t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>ID.4 X是大众的全球化新能源车型，从驾驶感受上来说，我觉得体现了这家巨型传统车企的优势。最明显的就是在驾驶方面，这台ID.4 X的底盘调教很有水平，整体质感很好，韧性十足。我驾驶过大众燃油车包括途观、探岳、途昂等等。可以说，只有燃油版途锐底盘感受比ID.4 X好，其他燃油车都没有，这是我的对比观点。具体来说，在舒适路况下底盘的厚重感很强，舒适度很好。如果在过细碎颠簸时，也能大部分化解掉。除了底盘，ID.4 X的方向盘转向也做得非常不错。指向性比较精准，还有一点，ID.4 X的转弯半径很小，在城区里面开起来非常方便。这些机械素质方面的调教，相比很多新势力造车，体现了传统车企的底蕴和优势。
-然后说说它的续航，我在高速和城市道路都有详细体验，ID.4 X的续航里程表现比较真实，虚标不严重，如果你的驾驶水平够高，可以开出比较接近NEDC的水平。关于充电方面，车机导航自带查找充电站和快充功能。但实际体验，主要搜索结果是特来电居多，其次是国家电网。但特来电多次都没有实际找到充电桩，所以后面不太敢再相信，只能有手机导航。
-对ID.4 X整个驾驶感受上我是比较满意的，但ID.4 X在智能化方面离新势力造车确实存在差距。车机系统、车联网功能都不算特别全。此外，智能驾驶辅助方面，甚至还没有很多10万元的国产车型齐全。这些方面，如果能够提升，那么ID.4 X更有价值。总体来说，如果你需要纯电车型，对智能化科技感要求不太强烈，对驾驶感受和续航里程比较看重，ID.4 X是比较推荐的。</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
               2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>2021年11月底，等了两个月，终于盼来的我的id4x。早早的在地库装好了充电桩，这一刻是欣喜的，不过还是很淡定，毕竟是自己的第三台车子了。
 先说一下外观吧，我订的是晶质白，红黑内饰。外观三种颜色拼接而成，AB柱红色，黑色车顶。贯穿式led前后灯组非常拉风，特别是发光的车标，逼格满满的。
@@ -2376,9 +1864,430 @@
 最后说一下续航以及用车成本这一块的问题，我真真实实把我目前的实际情况，以及个人感受分享给大家，作为跟我一样处境的人可以参考一下。我坐标是在新疆乌鲁木齐市。新疆大家都知道，和东北的冬天不相上下的，我们这边目前的温度在零下10度左右。深夜可以到-15度左右。这还不是最冷的时候，1-2月份，低温有可能在-20度以上，这是很普遍的现象。我当初买电车是因为我家有地库，地库管理的很好，温度基本维持在15.16度，而且我装了充电桩。在这种极寒的天气下，且有地库电桩的，我建议也是可以考虑在新疆，东北这种地方用电车的。这一个星期跑下来，我的综合续航大概在380公里左右，平均20kw/100㎞的用电。因为要开空调，空调温度在19°左右。除此之外，二者只满足之一条件的人，我都不推荐他买电车，太不划算了。我身边有很多人，每天停在寒冷的外面，每天冷启动，满电下续航显示的只有可怜的200+。这是非常真实的案例，每天为了找充电桩而烦恼，新疆这边的充电设备还是覆盖范围太低了。而且外面充电快充平均1.3一度电，因为商用充电桩一度电的服务费就将近一块钱了。所以大家一定要慎重考虑！慎重！</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>【智能化】除了车机拉垮  其他都还不错 
+【充电时间】
+快充半小时80%左右 够用
+【续航】
+冬天开空调350左右  夏天真的美滋滋 500起</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Prime 劲能四驱版
+            </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>总体不错，除了车机相对有点拉胯，内饰用料塑料多了点之外，别的都还不错，车辆的驾驶感受没的说，很德味，同级别可以排前面</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pure+ 纯净长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>【驾乘体验】动力强劲，推背感强，提速快！
+【充电时间】
+自己在家里充电桩充电大概7-8个小时电充满。
+【续航】
+冬季充电10个小时充满，电表显示续航405-403公里，实际行驶大概在350公里左右，期间空调偶尔开开，大屏幕基本上没有使用。春季充电7-8小时，充满显示续航里程502-503，实际续航行驶大概在400公里左右，这个和路况以及驾驶习惯等等有关系。
+【智能化】
+前后灯光智能非常漂亮好看，大屏幕全面智能。
+【最不满意】
+轮胎感觉有点颠，和我之前途观比，其它感觉还好，当然和其他燃油车比还是不错的。
+【空间表现】
+空间前排感觉空间宽敞，后排空间不是很大，但是能接受。后备箱空间不错，整体空间不错。
+【购车经历】
+从预定到提车前前后后大概一个月吧，时间还能接受，销售服务热情，一条龙服务，购车发票，临时牌照全部搞定，然后问4S上牌需要多少钱，销售说需要500，建议我自己去上牌，手机上面下载一个税务App在上面申请好车辆购置税免费申请，电车的好处就是免税，申请成功后，直接去车管所，大概20分钟搞定，15个工作日后再去车管所拿牌照。</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>犹犹豫豫选了半年电车，但在上海车展上看到了ID.4X皮卡丘就沦陷了，ID.4X就是我心中的Dream car。因为常年要在上海和杭州跑，ID.4X续航555km完全能满足我的需求。购车初期对电车的续航焦虑，在经过两个月的驾驶体验后，完全消除了这一焦虑。两个月的时间，已经驾ID.4X行驶超过了6000km，前后去过上海、宁波、舟山，最远去过嵊泗，电车强劲的动力和大幅下降的费用，给我带来了一次又一次的惊喜。在此之前，我认为车就是带我到目的地的工具，但通过ID.4X的车圈辐射，让我认识了很多志同道合的车主朋友，通过ID这个载体，把原本陌生的你我他链接在了一起，感谢ID感谢相遇。在9月20日杭州ID.X车友会正式成立，欢迎有更多的车主加入我们，让我们红尘做伴活的潇潇洒洒！</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pure+ 纯净长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>车子还是挺好的，期待未来纯电车能到1000公里以上，现在市场真的是变化莫测啊，这纯电动车才推出市场没几年，结果现在销量是越来越牛啊，我想大部分买电动车的家庭一是为了绿牌，不限号，不限行，二是节约成本，毕竟比燃油车省啊，很适合家庭的第二台车，还别说这台ID.4X确实颠覆了我对大众的认知，之前的大众给人造型都差不多，不过这台ID.4X造型确实漂亮时尚多了。虽说ID4X是一款紧凑型SUV，但它尺寸表现还是惊喜颇多，比如说2765mm轴距，就能很好满足对空间的高要求。它后排是纯平状态，所以即便满载三个人，也不会觉得拥挤，再配合本身就极为宽大厚实的座椅，舒适性肯定有保证，像前排座椅还有丰富的功能性配置。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Prime 劲能四驱版
+            </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>车机卡过几次，导航停止导航，不知激动啊具体原因是什么，大概两分钟后恢复正常。驾控体验非常非常不错。德系车的紧实的地盘质感。6.2秒的百公里非常够用了，也不会有任何加速时的不适感。刹车前半段会感觉比较空，应该是因为动能回收的原因。单踏板模式开车也很舒服，基本上不需要时间去适应。续航里程时可以相信的，开空调400多公里，不开空调轻松500公里以上。哈曼的音响配合不错的隔音，听歌的体验也很够用。最后再说一下，行驶质感时真的好，能和其他更贵的德国油车suv 有的一拼，人机工程方面总体非常合理，很快能调整出适合的坐姿、后视镜的位置。内饰看起来很年轻，属于比较普通的，但时比简陋要好不少，这个我价位也没有去要求任何豪华感。出色的代步车，开起来也能停舒心的，作为一辆车优秀。车机能力很一般。</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>提车坐标：上海市
+买车前也看了很多车型，特斯拉、沃尔沃、比亚迪、小鹏，但是最后选择了上汽大众ID4X ，没去看之前仅从网页或者其他平台发布的视频来看，还是不如自己开车感受来的真实！我第一次试车我就深深地被吸引了，矩阵式大灯、雨量传感器、车内饰、前排座椅按摩（副驾驶不要太舒服哦?）、尤其是天幕，全景天窗那个爽?
+【空间表现】无论带男同事还是女同事，他们上车都说你车好大?♀️?觉得女孩子为什么要买这么大的车??
+【充电时间】快充1小时
+【续航】续航不虚（上海就算冬天也不会很冷，所以电池?加热也没有很费电）
+【智能化】大灯我就没管过进地库自己开，天暗了自己开，下雨了不用管，雨量大小它自己感应自己刷，跟车安全距离也不用操心有L2
+【驾驶感受】买了ID4X 油车就扔家里没动过了，简直太智能了???</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>【续航】
+续航这个事情，我开了还没有500公里。没办法精准的讨论这个事情。
+但是我对于id4的续航比较有信心，因为他的动态变化很及时很真实，所以心里不虚。
+【充电时间】
+70分钟从7%冲到了95%，66块钱。感觉蛮香。
+【最不满意】
+car play有时候链接很慢。
+Arhud 在自带导航功能全面，这个不爽。
+空调感觉非常耗电，我一般开一会就停掉，感觉也OK
+【驾驶感受】
+没开过什么车，说出来可能比较搞笑，我觉得开着很爽，没其他词。
+【空间表现】
+感觉还可以，我180，老婆170，后面坐家人也说挺好，挺宽敞。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pure 纯净版
+            </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>因为第一台车是上汽朗行，置换的时候看了一眼id4x，后来试驾了一下，很上手，挺好开的，我比较注重驾驶感受和安全性能，提车后，家用充电桩已装好，用车非常方便。
+就网友提问的转向准确与否，是不是没感觉准不准，就是还行？
+因为我用车比较频繁，carplay导航还挺方便的，平时听歌网易云音乐，直接播放，对我来说可能有地图+音乐，已经完全满足我日常用车需求！
+唯一的遗憾大概就是，之前油车是前驱，这车是后驱，开车过程中，总觉得车头飘，不知道其他车友有这种感受没？
+其实小鹏p5预定了一个多月，提车时间2个月，因为小鹏460G突然下架，对于用车过程中，万一出现问题，担心维修起来比较麻烦，最后转头订了传统企业的车型，怎么说也是全球车型！
+十分开心，就是汽车车牌号和摩托车车牌是差不多滴。</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X 1st Edition ID.初见版
+            </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>在驾驶体验上，感觉保留了一定的燃油车驾驶习惯，主要可以体现的是d档的松油门后继续溜车，在设计上可以说是别出心裁，不论从档把还是灯组，亦或是前后车窗调控。总体来说对该车还是很满意的，可能有的朋友对鼓刹的制动力不太抱希望，我可以告诉大家我的亲身感受，可以根据踩得快慢来调节制动力度，这点很人性化，另外堵车路段频繁点刹也没有丝毫影响。以上是我这个刚提车一天的新id4x车主得出的评价😄</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>我不说优点，只说几点感受，希望厂家积极召回改进，前后车窗需要转换升降非常升降不便，倒车时音乐音量不减，夜间摄像头图像太暗，严重影响倒车安全，我想大众造车理念也应该以安全为重，安全方面的零件不应该减配，省个几十元给用户的体验很差</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>外观：平衡，银河蓝非常靓。迎宾灯语亲切。小朋友说像龙眼，总喜欢和他互动。
+安全：HUD抬显和IQ智能LED大灯同级别独一无二。夜晚开车真是非常的舒服。一点点没有疲劳感。此外中保研碰撞全五星也让我开车满满自信。
+操控：底盘支撑非常好，60km时速转弯心里不慌。虽然不如ID.3 0-50km加速这么动力凶猛，但是路上超车，变道绝对够了。
+续航：因为加装了热泵，冬天续航也有保证。本来打算冬季去北方游玩。目前估计0℃环境下续航350km左右。
+内饰：属于简约高级，略有年轻元素。镶拼NAPA打孔皮紧致，支撑性好，当然略欠缺包裹性。天窗大玻璃，前排按摩座椅是大爱。
+缺点：车机4G信号丢失2次。一次去4S重置，另一次72小时内自动恢复。</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>动力够用，底盘质感同价位没发现更好的车，车机确实不咋地，好在显示效果还行，可以用无线carplay，灯设计的很不错，总体比较满意，毕竟二十万多点84度三元锂电池，要啥自行车。
+【续航】
+目前行驶1000公里，提车从4s店出门时是94的电，后面在外面特来电充了两次，两次都是冲到百分之90，我的表显功耗是16度每百公里，这样算84度电能跑500左右吧，续航还是满意的，毕竟现在是冬天。
+【驾驶感受】
+我上辆车是轿车，买之前还担心SUV操控会差很多，实际感受很不错，底盘给的信心非常好，过弯不减速也非常稳，我平时用D挡，几乎没有动能回收，上手无难度。
+【空间表现】
+我身高176，前排我调好座椅，后排我腿部空间还剩十厘米左右，头顶完全没有压力，还有一个巨大的玻璃天幕，通透。</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>车辆智能化不太够，同款的22款就比21款多了360全景影像！车机的网络容易掉线！
+外观大气，特别漂亮，我选的离子灰，喜欢这个颜色！内饰简洁，两块屏幕够用了，座椅真皮加翻毛皮拼接，舒服，软硬适中！前排座椅带加热，按摩，腰托，主驾座椅带记忆功能！空间够大，后排坐下后离前排至少三拳的距离，足够腿部伸展！
+配置的话我选了冬季选装包，暑期特惠包，AR-HUD  
+冬季选装包里面包括了CO2超低能耗热泵空调，前档玻璃镀膜加热，加热喷嘴
+暑期包就是智能驾驶功能，ACC自适应巡航，反正真香就行了
+AR-HUD增强现实功能，抬头显示的内容丰富，使用车机导航的话导航信息都会显示在上面！
+其他基本配置如电动感应尾门，后视镜自动折叠，倒车后视镜自动下翻，自动防炫目后视镜，无线充电，carplay等
+总之我觉得没有十全十美的车，每个人对车的看法也不同，这样的车我很满意，有点小问题属于正常，哪怕是TSL也有担心自燃的是吧！</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pro 极智长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>感觉车头ID4C好看，车尾ID4X好看。其实电车里面我最喜欢的是电马Mach-e
+【续航】
+冬天能耗24kwh/100km，续航里程能到430km；夏天能耗15kwh/100km，甚至更低，续航应该能到550。
+【空间表现】
+空间很大，180cm的人坐进去毫不局促，距离头顶还有不少距离。
+【智能化】
+车机是最大的败笔，目前改无法OTA，而且听说它使用的是联通的信号，经常需要重新登陆。
+【驾驶感受】
+驾驶非常舒服，底盘滤震也非常好，整体静音(NVH)据说2021年排名第二。
+【亮点配置】
+矩阵式大灯非常漂亮，像巨龙的眼睛👀
+【提车价格】
+我这里优惠连置换补贴共优惠2.8，不包括保险20.6w拿下。</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pure 纯净版
+            </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>真的不能买，402续航，实际就开180.还不能开空调，电耗16.7.室外温度12度，自己把电放空，0到100充满就用了40度电，官方说电池57.还是新车，才1000公里</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.57</t>
         </is>
       </c>
     </row>
@@ -2395,19 +2304,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>最近有位网约车粉丝跟我们倾诉油价太高，开油车根本不赚钱，打算置换一辆ID.4 X做运营车，想让我们测测这台车一公里究竟耗电多少钱？于是我们找来了一台大众ID.4 X 2021款 Pure+ 纯净长续航版，用实测数据来告诉这位粉丝结果。接下来大家就跟珠珠一起，沉浸式体验一下它的驾乘感受、真实耗电量以及续航表现吧。
-先在充电桩把车辆充到跳枪，约98%的电量，将里程清零，接下来珠珠就驾驶它以充电桩为原点绕着长沙跑一圈，全程大概50公里。
-对于大众ID.4X的外观，玩车妹觉得用颠覆二字来形容比较合适，当然这个“颠覆”是相对于大众的传统燃油车而言。贯穿式灯带、依次点亮的LOGO及行车灯、圆润又富有层次的线条。在看惯了大众一板一眼的设计之后再看ID.4X，整体设计确实更具新意，也更符合现下的潮流。
-进入车内，5.3英寸的全液晶仪表盘不算大，不过悬浮式中控屏有12英寸，视觉上的科技感基本还是在线的。车机功能方面，珠珠试了语音识别功能，慢一点说的话，一些基本的对话和语音控制反应还算灵敏，不过珠珠觉得车辆在连续对话、复杂语义识别上，后续还有提升的空间。
-坐上座椅，仿皮+翻毛材质混搭，加上内部填充物足够充实柔软，给珠珠的乘坐感受还是很舒服的，而且主驾支持8向座椅调节、主副驾驶标配座椅加热，功能上也足够贴心。至于后排空间，因为中间地台是全平的，对中间乘客比较友好；座椅承托性还不错，基本顶到了珠珠的小腿位置。
-就动态驾驶感受而言，整体开起来比较舒服，一般城市道路和高速路上的加速超车，都没什么问题，转弯半径也挺小。不足之处在于，挂D挡时刹车有点偏软，也不够线性；尤其是尾段快刹停的时候，刹车力度不变，但刹车踏板突然变虚，制动力会明显减弱，必须要跟脚下去才能刹停。不过挂B挡就会好很多，几乎可以实现单踏板。另外珠珠发现，在堵车情况下重踩刹车，屏幕中会显示autohold图标，这就等于挂上手刹了，不会溜车，也不会怠速往前挪动，要解除的话踩一下电门就行。
-对于粉丝最关心的续航和电耗，珠珠这就呈上数据。最开始我们是跑了20公里，续航显示掉了81公里，算下来的折损比就是25%，这个数据还是很夸张的！不过要说明的是，ID.4X屏幕上显示的剩余里程是按照驾驶员前一阶段的驾驶习惯来计算的，甚至有时候一开空调它就会瞬间掉几十公里，所以这个数据只能作参考，并非真正的续航里程。接下来我们又以40km/h的时速接着跑了10公里，一共就跑了30公里，续航显示是418km，不仅没掉还涨了1km。
-官方给出的ID.4X的续航里程是555km，就算打个对折其实也够司机跑一整天了，但对于专车司机来说一公里跑多少钱才是重点，所以我们充满电算了一下。今天全程累计下来一共跑了49km，充了5.91度电花了6块6毛7，算下来平均每公里就是1毛3分6，这个用车成本和至少5 、6毛钱每公里的油车相比还是比较划算的，跑专车的话每天省个100多块钱不成问题。对于这个电耗和续航表现，不知是否满足大家的期待呢？</t>
+          <t>外观：让你始于颜值，大气端庄优雅
+内饰：简约而不简单，似曾相识而又些许感动
+配置：不同价位偏重点不一，基本满足日常所需
+空间：宽敞
+续航：主流里程，表显可靠
+智能化：车机不是强项
+驾驶感受：车服务于人，舒适自由
+2021年9月购车至今，不到半年时间已经跑了八千多公里，还没去过4S店。洗过两次车，扎过一次胎拧出来就好了，擦碰过一次（对方底漆都漏出来了，我这边才一个小印子?）。
+远门还没去过，也就临港来回过一两百公里的小长途，平均20%以下才会去考虑充电，一次冲个50块钱够跑一星期，老小区没位子，平时在公司停车位补电，应急就去充电站解决。
+转弯半径较小，可以跨车道或花坛掉头，侧方停车也方便，能够在前后20CM的空间里闪转腾挪。
+自带气场，商场地下车库取车时，大灯一打开总有人称赞??好看，感觉自己像是行走的广告牌，不管到哪，赛博黄都会给背景增加几分时尚动感?
+读万卷书，行万里路。很庆幸，一毕业就与ID4X同行，车牌包括我的生日930和车的生日21，期待一起成长?</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.86</t>
         </is>
       </c>
     </row>
@@ -2424,18 +2337,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>作为一名车评人，为了给消费者提供真实的用车报告，要保持客观且中正的态度去评测车辆，下面聊聊我试驾完大众ID.4 X之后的一些感受，我试驾的车型是2021款 Pro极智长续航版，希望能给关注这款车的朋友们一些参考。
-大众ID.4 X定位5门5座纯电动紧凑型SUV，试驾车型的长宽高分别为4612/1852/1640mm，轴距2765mm，官方指导价为23.59万，目前唐山地区暂无优惠，具体购车费用包括车船税300元，交强险950元，商业险6500元左右，上牌费500元，全款落地价格在24.41万左右。
-试驾车型采用后置后驱布局，电动机最大功率204马力，最大扭矩310牛·米，匹配电动车单速变速箱，这台电动机的参数和主流的2.0T燃油机很接近，但它在中低时速下的扭矩表现更出色，起步和提速都非常轻快，在时速100km/h之内，它的加速能力都很强，而且动力输出很线性，深踩加速踏板也能感受到明显的推背感，我们实测这台车的百公里加速时间为8.25秒，和主流2.0T燃油机也很接近，但是等到车速超过100km/h，电动机的加速劲头就明显减弱了，高速超车时没有2.0T燃油机那么干脆，不过日常驾驶也够用，还谈不上肉。
-试驾车型配备了83.4kWh的三元锂电池组，标称续航里程为555公里，我们在试驾过程中也对它的实际巡航情况进行了记录，满电状态下，表现续航里程为552公里，在城市道路中低速行驶时，百公里耗电量在16kWh左右，按照这个耗电水平，满电续航里程在520公里左右，如果在高速上以110km/h的时速巡航，百公里耗电量在20kWh左右，在纯高速工况下，满电续航大概在420公里左右，在能耗方面，电动车和燃油车恰好相反，不过420公里的纯高速巡航表现也足够跑长途了，主要规划好充电桩即可，在剩余100km续航的时候就要及时补电。
-试驾车型的底盘采用麦弗逊式独立悬架和后多连杆式独立悬架的组合，底盘调校比较注重操控性，不过悬架前段比较软，能有效过滤掉路面上的细碎颠簸，驾乘舒适性还是很有保证的，悬架中后段很有韧性，即使行驶在烂路上，底盘给我的感觉也十分紧致，车身没有多余晃动，而且在紧急并线或者快速转弯时，车身的侧倾也不是很明显，过弯极限挺高，转向手感比较轻盈，方向盘的指向性十分精准，而且路感也挺丰富，操控起来有一种得心应手的感觉，日常驾驶很轻松，而且还不显得枯燥。
-大众ID.4 X算是标准的家用SUV，消费者还是很关注它的空间表现的，但这方面没有具体评测标准，以我175cm的身高为例，将驾驶座调到最低，头部空间超过一拳，后排的腿部空间两拳左右，头部空间同样超过一拳，以我的标准看，这台车的空间是挺通透的，座椅填充物软硬适中，支撑性很包裹性都比较到位，舒适性表现也不错。
-后备箱内部空间很规整，常规容积为484升，能够比较轻松的放下20/24/28英寸三个行李箱，余下空间还能放一些零散物品，后排座椅支持4/6比例放倒，载物空间最大能扩展到1546升，对于大多数家庭用户来说，这样的载物能力肯定是够用了。</t>
+          <t>开了5000公里，个人觉得整车唯一不足的就是偶尔车机系统会黑屏。
+【空间表现】
+空间真的很满意，后排坐3个成年人都不会觉得很挤，后备箱空间超级大。
+【充电时间】
+我一般都是晚上在家充电，从晚9点开始充到第二天早上9点能充百分之70左右。电费差不多在20元的样子。
+【续航】
+冬天续航要稍微弱一些，满电全程开热空调的情况下城区道路大约能跑350公里左右。春秋两季满电城区道路情况下能跑550公里的样子，夏天暂时还没试过……
+【智能化】
+论智能化肯定比不上特斯拉，但是也绝逼比大部分油车都智能，各种辅助系统都很灵敏，特别是主动刹车，经常一脚刹停刹的我背后冒冷汗😰
+【驾驶感受】
+我感觉这款电车驾驶感很接近油车，电门的提速反馈很快，车窗密封性也行，就是跑高速噪音稍微有点大。</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -2446,24 +2363,18 @@
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Prime 劲能四驱版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>随着新能源汽车越来越被大家所接受，除了一些造车新势力，传统车企也陆续推出了纯电车型，iD4就是大众新能源领域的一款重要车型。
-这款车的目前市场行情是没有优惠的，新车指导价为27.29万，由于新能源车型是免购置税的，所以只需加上保险8000元左右，上牌费500元，全部落地的价格是28.1万元左右。
-这款车采用前交流异步/后永磁同步双电机的布局，电机总功率为230kw，总扭矩为460N.m，并匹配了容量83.4km/h的三元锂电池，官标的纯电续航为520km。这款车在实际的加速体验中，它的加速表现和传统的汽油车有些相似，踩下加速踏板后没有特别突兀的提;速感，动力输出是比较线性的，开起来是比较舒适的。不过切换到运动模式后，整体的驾驶感觉就非常的激进了。且经过测试，0-100km/h加速时间为6.25秒，动力方面表现非常不错。
-续航里程方面，在电量满格的情况下，在市区路段行驶时，实测的续航里程为510km，和官方的520km相差不多。而在高速行驶时，车速保持在90km/h左右，测得实际续航里程是420km，比较适合中短途出行需要。
-这款车的空间表现还是比较充裕的，我身高175cm，坐到前排并将座椅调至最低后，头部还有1拳4指的空间，保持前排位置不变，再坐到后排，头部还有4指的空间，腿部还有1拳4指的空间，整体的乘坐空间表现非常不错。后备厢的空间也比较大，满足日常家用还是没问题的。
-这款车的动能回收在D挡时，基本是感受不到的，开起来和汽油车没什么区别，只有在切换.到B挡时，它的动力回收力度是最强的，在松开加速踏板时，能明显感受到减速。正常在D挡模式下，刹车踏板的脚感也是不错的，比较.线性，制动力也不错。经过测试，这款车的100-0km/h急刹时，刹车距离是35.7米，制动效果非常不错。
-总的来说，如果是充电条件方便的话，平时用车的需求也是中短途为主，或者需要一个绿牌指标，这款车还是可以考虑的。</t>
+          <t>驾驶质感很好，除了车机系统统一差评，暂时没有发现其他问题，刚刚领到无线流量也很满足，期待能Ota升级，让智障车机系统成为智能系统</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2480,19 +2391,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>作为一个职业的车评人，今天要给大家解析的是ID.4 X  2021款 Pro 极智长续航版 ，定位为一款5门5座紧凑型SUV，长宽高为（mm）4612/1852/1640，轴距为2765mm。厂商指导价为23.59万，当地地区这款车型报价目前暂无优惠，购置税0元，车船使用费300元，交强险950元，商业保险7403元，全款落地价格在244541元。
-当下手头不太宽裕的朋友，可以考虑进行分期购车，按照贷款利率4.75%计算，分期三年首付30%金额为100861元，贷款165130元，月供要4931元，贷款购车总花费要278377元，比全款购车多花出33836元。
-配置：这款车在配置方面的表现还是比较丰富的，比如电子驻车、胎压报警、并线辅助、车道偏离预警、车道保持辅助、道路交通标示识别、疲劳驾驶提示、前/后驻车雷达、倒车影像、倒车车侧预警、定速巡航、三种驾驶模式、自动驻车、上坡辅助以及一键启动等都有配置。
-保养：大众ID.4X保养方面要亲民许多，购车即可享受8年或16万公里三电安心质保、终身免费保养（首任车主）、1年免费公共充电等服务，后续养车成本压力因此也会大大减轻。
-操控：实际驾驶过程中，在加速超车时需要深踩油门，发动机转速超过3000rpm后，动力输出明显顺畅多了，加速状态也会变得更为积极。不过，后续动力不够充沛，转速超过4500rpm后，动力表现很少再有提升的空间。如果不是急性子，如果只是用于简单的日常代步那么这个动力还是可以满足基本需求的。市区道路和高速行驶时很平顺，堵车路段时的“低速蠕动”情况，只要油门、刹车轻一些，顿挫也不会很明显。
-加速：起步加速初段，这款车在瞬间就爆发出最大加速度，后续是以比较线性、比较平顺的加速过程。经过反复测试，最终，这款车在零百加速的平均成绩为6.26秒。
-制动：这款车在制动测试中，制动力输出还算比较稳定，从制动过程来看，车辆刹车初段和末段的刹车力度浮动比较明显，其中部分原因是测试场地的地面有很多细小的砂石，在全力刹车的时候轮胎的抓地力会受到一定的影响，因此刹车力度没有办法做到完全线性。最终，这款车的100km/h-0的成绩为37.52米。
-噪音：这款车在车内NVH方面做的还算不错，车辆保持60—80码时速时，风噪、发动机噪声都能够比较好地被阻隔在外，甚少打扰到车内乘客的交流，或许是因为本次匹配轮胎的原因，胎噪的声音有点突兀。</t>
+          <t>外观特别精致，性价比超高，vw标灯带高级，但是转向轮子打两圈多我觉得是很大的槽点，现在轮胎原厂竟然是固特异韩泰混用，给我个韩泰的胎倒车时声音挺大的，有点不舒服</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.79</t>
         </is>
       </c>
     </row>
@@ -2503,26 +2407,19 @@
       <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure 纯净版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>由于限行的原因，家里燃油车确实有一些闹心，在老婆的怂恿之下，决定去买一台纯电动车型。由于家里还有两个小孩要养，我自己能接受的价位也就是20万出头，在跑了几个4s店之后，还是决定买大众，主要是第1台大众朗逸用着很舒服，而作为第2台车，我个人是想去买一台紧凑型SUV。最终目光放在了最新上市的大众ID.4 X 2021款 Pure 纯净版。
-买的是家族低配车型，主要就是为了省钱，买之前跟4s店销售扯皮了很久，想问问有没有优惠。不过因为是刚上市，确实指导价格跟裸车价格一模一样，都是在19.99万。好在作为纯电动车，不需要交纳购置税，也是省了一大笔费用，最终落地价格在208,215元，跟我的预算比较相似。
-提车已经有一段时间了，目前还是很喜欢它的颜值，抛弃了传统套娃设计。即便低配车型也是提供了矩阵式LED大灯，确实比以前的朗逸炫酷多了，实现了大灯高度调节、延时关闭、自动头灯、自适应远近光等功能。最喜欢的地方就是靠近汽车解锁的时候，大灯会有迎宾唤醒光效，这一刻有一种满足感。
-用惯了以前的老旧燃油车，现在换成大众ID.4X确实有些不适应，门把手也是换成了隐藏式设计，看上去更简洁了一些，听4s店销售人员说，有着很好的降风阻能力，并且在行车的时候能够降低电耗。
-实际上在买车之前我总是会担心续航能力是不是够，工信部纯电续航里程在402km。在使用一段时间后，因为我个人跑长途不是很多，主要作为上下班使用，一天跑个50km，基本可以保持一个星期一次的充电时间。实际续航里程跟工信部的数据会有一些差异，大概会少50km。充电方面比较方便，8.5个小时就可以充满，晚上充早上起来就完全复活了。偶尔出现跑高速的情况，也是支持快充，0.67个小时就能充满80%电量，充电过程就当作是短暂的休息，也能够缓解疲劳。
-车内的大屏幕看上去很带劲，达到了12英寸，确实要比我之前那款朗逸科技感强大许多，选择搭配大众家族最新的MOS 4.0智能车机系统。支持语音功能以及手机互联扩展性出色，基本一进入车内，第一时间就上手适应了。
-从座椅上看，虽然不是采用真皮材料，但长时间坐下去舒适度不错，我跑长途的时候一点不觉得累，采用了多种材质去进行拼接。我家是一家4口，除了我和我老婆之外，还有两个小女孩，我自己身高1米8，坐在前排头部拥有一拳两指左右的空间，坐在后排腿部空间能够达到两拳左右，头部空间变化不大，而平时后排以坐两个小孩为主，更是不需要担心。
-平时周末出去自驾出行是常有的事，在买车前我也是重点考察了后备厢空间，虽然在两侧有一定凸起，但底部很平整，常规状态下容量可达到484L，后排座椅放倒之后可达到1546L，无论是放大物件还是小物件，都很方便。唯一遗憾就是低配车型，不支持电动尾门功能。
-最后跟大家聊聊驾驶体验，搭配了一台后置电动机，从参数上来看总功率在125kW，总扭矩在310N·m。动力上不需要担心，开起来比我之前的朗逸要强大许多。正常在城市中行驶，我是以经济模式为主，动力响应不是那么积极，但同时动能回收也比较轻柔，我个人会觉得很舒服。毕竟上下班的时候本就拥堵，即便开个标准模式以及运动模式，速度上也不会有太大变化。跑高速，我则是选择以标准模式为主，偶尔会切换到运动模式，在运动模式之下，确实动力方面完全不同，从头到尾都能够感受到推背感，并且动能回收力度增大，开习惯了燃油车一下子经常使用运动模式，不会那么习惯。</t>
+          <t>优点很多吧，三元锂电池续航不错，这个价位买到84度电的三元锂电池还是很值得的，车身整体感受稳重，高速配合自适应巡航加上底盘感受非常舒适，后排座椅比midelY宽，modelY后排像小板凳，最主要是油门比较线性，老婆开也没问题，加速太快的确有点担心，女司机有点拿不住，而且油门线性可控，对乘坐人员比较舒适，带宝宝坐，宝宝根本不老实，不会稳稳的坐那的，线性加速让宝宝没有啥特别难受的感觉。总体来说，电量充足，性价比高，油门线性，加速可控，适合居家，底盘厚重，高速舒适，空间均衡，座椅高配。
+再说说缺点，车机的carplay 偶尔会掉线，当时连不上，过一段时间又好了，搞不懂原理。倒车影像太low，顶配才有全景。没有内部行车记录仪，得加装，比较丑。</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.43</t>
         </is>
       </c>
     </row>
@@ -2533,23 +2430,19 @@
       <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure+ 纯净长续航版
+              2021款ID.4 X 1st Edition ID.初见版
             </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>作为一名车评人，为了给消费者提供真实的用车报告，要保持客观且中正的态度去评测车辆，下面聊聊我试驾完大众ID.4 X之后的一些感受，我试驾的车型为2021款 Pure+ 纯净长续航版，希望能给关注这款车的朋友们一些参考。
-动力感受：这台车采用后置单电机布局，最大功率150kW，最大扭矩310牛·米，传动系统采用电动车单速变速箱，电动机拥有比燃油机更迅速的动力响应，车辆起步十分轻盈，但动力输出很线性，没有任何突兀感，即使初次驾驶也能轻松上手，车辆中途提速能力也很强，深踩加速踏板也能感受到明显的推背感，从静止状态加速到100km/h十分顺畅，我实测这台车百公里加速用时8.27秒，和一些2.0T燃油车的加速时间差不多，但车速超过100km/h之后，车辆的加速能力逐渐衰退，不过日常驾驶也足够了。
-续航表现：这台车的电池组容量为83.4kWh，标称续航里程555km，在试驾过程中，我也在时刻留意车辆的百公里耗电量和剩余续航里程，在城市道路行驶时，车辆的百公里平均耗电量基本上在16kWh左右，折算满电续航520km左右，但在高速行驶时，如果保持100km/h的续航时速，百公里耗电量会增长到19.6kWh左右，折算满电续航425km左右，长时间高速行驶确实要比市区更耗电，但这台车完全可以跑长途，只要提前规划好路线和充电桩就行了，在剩余续航里程还剩100km左右时补电就行，这样的话也不存在里程焦虑。
-底盘和驾驶感受：这台车的底盘采用前麦弗逊式独立悬架和后五连杆独立悬架的组合，底盘调校偏运动，但悬架初段较软，能将路面上大部分细碎颠簸给吸收掉，悬架中后段就比较硬朗了，但韧性也足，即使快速通过减速带或者连续坑洼路面时，车身也不会有多余晃动，能明显感觉到底盘的厚重感，在连续并线或者高速过弯时，悬架也能给车身提供足够的支撑性。转向力度比较轻盈，回馈阻尼很均匀，方向盘的指向性很清晰，也能传递一定的路感，长时间驾驶不会很枯燥，另外车身的动态响应很灵敏，过弯时的侧倾也比较小，开着这台车也能找到一些驾驶乐趣。
-空间也乘坐感受：这台车定位紧凑型SUV，它的长宽高分别为4612/1852/1640mm，轴距2765mm，以我175cm的身高作为参考，坐到前排并调整好合适的坐姿，头部空间一拳有余，保持前排座椅位置不变来到后排，腿部空间将近两拳，头部空间一拳两指，前后排的头部空间都比较宽敞，后排腿部空间稍微有些局促，但也足够日常家用。座椅填充物软硬适中，包裹性和支撑性也都不错，舒适性也比较理想。
-购车费用：这台2021款 Pure+ 纯净长续航版的指导价为21.99万，目前大部分地区都没什么优惠，裸车21.99万，购置税免征，车船税300元，交强险950元，商业险6500元左右，上牌费500元，全款落地22.73万左右。</t>
+          <t>ID4.X的前脸设计非常吸引眼球，也是我个人最喜欢的一个点。整车外观设计流畅，线条舒适，时尚大气。我从去年一开始准备购买电车，就进各大论坛了解，一看到ID4.X，就一见钟情，仔细看了配置和设计理念后，就决定了，再也不想考虑其他品牌电车。2021.2.1我预定了自己的ID4.X，3.31拿车，是成都首位ID4.X提车的车主。
+关于车辆的选购和使用，我是追求性价比的，在使用ID4.X的一年时间里，我明显感受到上汽大众对于电车的研发和工匠精神。(就连特斯拉维修工厂的工人都赞叹，德系车的制作工艺之精良，特斯拉只能望洋兴叹)。这款车非常实用，续航公里数基本符合实际，空间很大，全景天窗非常符合我的需求，整体驾乘感受良好。充电速度也非常快，日常在快速充电站30~40分钟即可充电至80%。车机系统也比较不错，除了导航系统不好用之外，其实满足各项日常生活所需，再加上最近刚刚上线的云听爱奇艺，唱吧等app，实现了车机娱乐的完美体验。</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.78</t>
         </is>
       </c>
     </row>
@@ -2560,29 +2453,20 @@
       <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X 劲能四驱抢鲜版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>哈喽哈喽，今天想和大家聊一聊大众旗下的一款“Q弹可爱”又不失“未来感”的ID.4 X。
-外观
-首先ID.4 X车头部分看起来较为精致，伴随着圆润的线条呈现出一幅可爱模样。封闭式中网设计，横贯式LED灯带，又表明了其电动车身份；开眼角式设计的大灯看上去略显呆萌。此外这辆车配备了迎宾唤醒光效，当靠近车辆时，贯穿式镀光前脸的灯光依次点亮，带来更具科技感、更加有仪式感的体验。前包围中间同样加入了一段亮黑色贯通式边框，既提升了前脸的层次感，也使得车头看着更显宽大。车身侧面同样饱满圆润，车门上起伏的高腰线，为其增添了一丝飘逸感，同时也让侧面更显修长。底部较粗的黑色侧裙，彰显了SUV车型的越野气质。车尾部分设计简约大方，尾灯表面采用了粗壮的熏黑灯罩，提升了车尾的层次感，内部细长的贯通式LED灯带与大灯完美呼应，点亮后刹车灯呈“X”形状，非常具有辨识度。
-内饰
-在新车的内饰设计上，我也看到了大众几近颠覆性的一面，通过悬浮式屏幕、3层30色氛围灯这样的设计元素，烘托出了一台电动车应有的未来感、科技感。5.3英寸的全液晶仪表或许相比传统的仪表要小许多，但是好在还有强大的AR HUD系统辅助你安全行驶。这套AR HUD增强现实技术不仅可以显示基础的车速等信息，同时还能融合导航画面和道路视觉并显示限速提醒、ADAS功能等信息。实际驾驶过程中这套系统能显示车道信息、离下一个路口的距离等，甚至，在即将转弯的时候，车辆前方还会出现动态箭头提示，确保不会走错路口，这样的设计相当的人性化。ID.4 X的车机系统使用起来让人印象深刻，比如，在我们使用导航系统，车辆快要到达目的地时，系统会自动帮忙查找附近的停车位；在智能空调控制中，可以针对不同体感温度、不同吹风位置进行精准控制，用起来十分方便且直观。
-这辆车并没有传统意义上的换挡杆，它的挡位转换设置在了方向盘的右边，并且通过旋转旋钮的方式进行切换，在使用体验上更加便捷。由于省去了中央通道的换挡杆，在中央通道处，也有了更好的空间利用率，放钥匙、零钱等小物件还是非常实用的。除此之外，其内饰控制方式也进行了创新性的设计。例如灯光、多功能方向盘和车顶照明灯等，为了呈现出简洁化设计，上汽大众也把传统的机械按键、机械旋钮等换成了触控设计。并且，在这些触控面板内部，还增加了触感回馈系统，在每一次控制的时候，手指都能感受到交互回馈，如此一来，盲操作体验更加友好。
-动力
-动力方面，这台车搭载双电机四驱系统，其最大功率230kW，能够迸发出最大扭矩460N·m，工信部纯电续航里程为520km。ID.4 X有经济、舒适、运动和个性化四个驾驶模式，在经济、舒适和运动三种模式下，动力对加速踏板的响应都比较积极，差异不是很大。值得一提的是，ID.4 X并没有单独的动能回收调节，换挡旋钮上的是B挡就是用来增强动力回收力度的，在D挡下松开加速踏板，车辆没有明显的拖曳感；在全力制动时，车辆的动能回收系统并不参与减速工作，此时制动力的释放是很线性的。
-操控
-这台车的悬架结构为前麦弗逊、后五连杆式独立悬挂。悬架调校稍偏硬朗，好处就是支撑比较到位，在经过颠簸时，虽然座椅能够缓解很大一部分冲击，但是手中的方向盘却有较为清晰的路感回馈。同时，作为一台纯电SUV，由于这辆车的重量集中于下方，在车辆过弯时很稳健，不会出现较大的侧倾。如果不是坐姿比较高的话，你甚至会有一种开一台运动型纯电轿车的错觉。
-最后
-总体而言，ID.4 X在驾驶层面上非常接近大排量自吸发动机SUV，坐姿较高、视野不错都是我个人非常喜欢的点。相比特斯拉的那种生猛，我觉得这台车多了几分柔和，让人比较容易接受。这波，你怎么说？</t>
+          <t>动态驾驶体验扎实，底盘厚重操控性很好，加速不是特别猛但乘坐舒适性不错，外观流线型设计风阻很小，转向半径非常小掉头很灵巧。续航很扎实，动态展示基本准确，热泵空调夏天制冷有点问题，建议慎重选择。车联网系统谈不上先进但基本够用。
+加装的配置包括：AR增强现实导航、双段全景天窗、L2级自动驾驶辅助和热泵空调，最常用的其实是不是前面两个，热泵空气有助于提升冬天续航，但实际上对夏天制冷很不利，建议加装这一配置的慎重（北方用户），如果家里有私桩基本可以不加装，否则夏天制冷会急死你。
+当然，热泵空调这块南方根本就不用考虑，维修起来还很麻烦，一版的4S店技术设备不健全的都维修不了，我的车买来三个月不到就坏了热泵空调，后来更换等配件等了两三周，今年夏天制冷又出问题，真是花钱买糟心。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -2593,27 +2477,18 @@
       <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure 纯净版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大众 ID.4 X   2021款 Pure 纯净版
-近几年，各大车企纷纷在纯电动汽车领域发力，然而其中有些茁壮成长，挂牌上市，有些却永远的停留在了PPT上。对于用户来说，越来越多的纯电动产品出现，着实让人挑花了眼，但老牌车企的出现，似乎让很多朋友找到了最想入手的那一款车。上汽大众就在今年推出了ID.4 X，它的表现如何？我们一起来看看。
-来看外观，ID.4 X时尚、年轻的定位不言而喻，“光语律动”设计语言，让这辆新能源车在保留大众传统大气的基调上，通过细节的雕琢突显电动车的身份。前脸采用横向格栅灯与两侧的IQ.Light矩阵大灯连接形成贯穿式效果，提升科技感且有效拉宽车头视觉感受。
-来到车内，内饰整体设计相比传统车型让人耳目一新。极简风能够很好的将仪表台进行分层，整体向驾驶者倾斜也能更好提供服务，便于驾驶者获取导航、多媒体等关键信息。设计独特的换挡杆布置在仪表盘右侧，顺时针旋转即可挂入D挡，逆时针旋转则切换至倒挡，P挡按钮设置在顶部，便于操作且避免误触。12英寸中控屏内置MOS系统，支持语音控制、收拾控制等多种交互。三幅式方向盘整体视觉效果极为科幻，皮质、哑光银色装饰、钢琴黑按键拼接，无论握感还是视觉感受都超越了传统燃油车的质感。
-ID.4 X 2021款 Pure 纯净版 ，定位为一款5门5座紧凑型SUV，长宽高为（mm）4612/1852/1640，轴距为2765mm。。我的标准身高为175cm，在进入到后排时，我的腿部空间距前排有一拳三指的距离，头部空间只有四指的距离，虽说坐进去感受不到任何的压迫感，但整个车内空间还是有些紧凑。后备箱常规容积达到了484升，能够轻松放下20英寸、24英寸、28英寸三个行李箱，而且剩下的空间还能放很多小件物品，能满足大部分用户的需求，而且需要运载大件物品或者行李较多时，后排座椅还支持4/6比例放倒，放倒之后的地板也十分平整，载物空间最大能扩充到1546升，所以后备箱的整体表现很出色。
-价格方面，大众ID.4 X的指导价为19.99万，目前该车的终端优惠几乎为零，我们这边只有1000元的优惠，裸车价为19.89万元。另外，这台车的商业险全险费用为6432元，交强险为950元，除此之外没有任何花费，因为它享受免购置税与车船税的政策，最终这台车的落地价为20.62万元。
-这台大众ID.4 X搭载了一台后置单电机，电机的最大功率为170马力，峰值扭矩达到了310牛·米，官方公布的综合续航里程为402公里。从驾驶感受方面来说，大众ID.4 X给我最大的感受就是轻快，虽然它的车重达到了1960kg，但动力响应却非常迅速，尤其是起步阶段的动力爆发非常强，只要轻轻踩下电门就会有很积极的动力反馈，没有丝毫的迟滞现象。另外，电动车配备的常规单速变速箱也没有任何顿挫感可言，大众ID.4 X的整个动力输出过程是非常丝滑的。
-这款车的底盘采用前麦弗逊式独立悬架和后多连杆式独立悬架的组合，底盘调校比较硬朗，但是悬架前段较软，能够将路面上的细碎颠簸给过滤点，保证驾乘舒适性，悬架中后段的韧性很足，在遇到较大颠簸或者连续起伏路面时，悬架也能有效缓解冲击感，并且车身不会出现任何多余晃动，底盘给我的感觉十分紧致，十分厚重。转向力度比较轻盈，但指向性挺精准，并且方向盘还有不错的路感，驾驶起来不仅很轻快，很灵活，而且还有一定的操控乐趣，很符合年轻人的胃口。
-噪音：这款车车厢静谧性在同级别当中处于中上等水平，无论是在低速还是高速行驶，对于路噪和风噪的抑制都十分到位，加上配备主动降噪技术，车厢的静谧性表现很不错。
-对于消费者来说，值得花20多万购买一辆纯电动汽车吗？如果你是首次购买，建议选择燃油车更好，毕竟纯电动汽车还是有续航焦虑感的，而如果打算购买一辆纯电动车，作为改善型用车，那么，大众ID.4 X绝对值得推荐。</t>
+          <t>外观比较满意，行驶质感很棒，浓浓的德味高级感，车机也没网上说的那么差劲，反正我开车车机基本除了空调音乐其他也不用！后排座椅靠背有点直不明白为什么角度不能做的倾斜一点！后备箱那么大也没用！市区开起步动力很不错！超车给力！我是油车转过来的，平时基本用D档，刹车前段偏软，是动能回收，但是现在已经适应，感觉非常好刹车，喷鼓刹的大聪明不是蠢就是坏！冬天电耗大概23左右，春天气温回升电耗大概16左右，我开车喜欢地板电。</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>4.86</t>
         </is>
       </c>
     </row>
@@ -2624,29 +2499,24 @@
       <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure+ 纯净长续航版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ID系列的外观个人感觉是够新潮的，ID.4这个车整个比较矮，加上下面电池占了一部分空间，所以窗户偏高略小，又因为偏溜背造型，后风挡比较小，总的来说车内后排垂向空间偏轿车，车内后视镜视野也一般。整个车其实有点像一个加高的CX4的感觉，实车的动感还是有的。另外这套外观也能比较好地契合纯电平台短前悬的特点，前方不突兀，机舱盖对视野的影响不大于主流的燃油SUV。如果把这套外观放在某些新势力的车上，应该是一套很加分的外观设计。
-        这篇文以上所有内容，总得来说还是偏向吹的。但是从内饰开始，这个车就暴露出一些不疼不痒，但是膈应人的问题了。
-        这个车整个内饰风格还是比较稳重的，摆放位置和功能分配都偏传统的一小一大两块屏幕提供了一些智能感。大屏幕尺寸够大又不过多地挤占其他功能区。小屏幕显示的内容主要就是速度、电信息和巡航控制，比较简洁。大屏幕下面是空调控制键，再往下是几个功能键和双闪。一汽的德味版中央通道区域是两个杯架，无线充电在扶手箱里。上汽的国内改版把无线充电放在了一汽杯架的位置，具体可以网上找图，不多赘述了。ID.4的档把已经从中央通道区域搬家至速度表右侧，实际使用方便程度尚可，习惯之后使用比较顺利。
-内饰方面，其实看起来都还挺正常的，但是这个车的一大令人匪夷所思的点估计很多人都看到网上说过。这个车虽然有空调实体按键，但是在车机账号没有登录完毕，或者选择离线账号之前，空调是开不了的。这种设计，既没有少做零件节省成本，使用便利性也极低。
-        另外这个车驾驶位的车窗控制键也比较奇葩，它只有两个按键，加一个触控的rear键，平时车窗控制键控制前面，按亮rear之后车窗控制键变为控制后窗。这个设计，我之前看车的时候觉得还好，但是实际上rear键的灵敏度很差，基本无法盲操，就连大众自己的试驾老师也要折腾半天才能打开想要的窗子。
-        这个车的外面也有一个类似的问题，它的门把手是在一个非常紧的机械开关内侧做了一个电控的开关。平时用电控，电打不开的时候大力拽门把手，门把手的运动轨迹和常见的车是一样的。这个车上的电控开关行程短、硬、反馈单薄，用起来不怎么舒服。而且我比较好奇的一点是，机械的结构也不是没有，为什么要脱裤子放屁装个电控的呢？门把手可以拉出来，可是大众就是要做个电控开关在里面，就是玩
- 网上对这个车的车机意见比较大，但是我这几天用离线账号用下来感觉速度和操作流畅度都不是问题，相比于2月份的时候那个版本大有改观。在习惯了它的设计逻辑之后，上手不是很难。需要注意的是这个车车机里的导航比较垃圾，虽然页面的整洁程度和信息实用性还算OK，但是信息很陈旧，据说联网版本一样垃圾。虽然可以联动很酷的氛围灯和AR HUD，但是个人建议如果大众这个导航这样，日常还是用手机比较靠谱，AR HUD也没必要选装了。 
-鼓刹是这个车的一大黑点，太多的人看到鼓刹就开始阴阳怪气这个车了。当然，大众在鼓刹这点上被黑实属活B该。毕竟带众曾经在这点上抹黑友商的事，在现在这个舆论环境下很快就会被挖出来。各路KOL也会自觉或不自觉地炒作这件事。
-        回到ID.4这个车，鼓刹作为一个简配，实际上是不影响用户使用的，对于厂家和消费者来说，至少有一方是“赢”的。即要么大众不良心减少了成本自己多赚钱，要么大众非常良心把减少的成本全部让利消费者，要么大众一般良心，自己留了一部分，让利了一部分。很遗憾，现在看来，是第一种。但是我们买车不是按斤买，买的是产品力，是性能，如果根据厂家赚了多少钱决定买什么车，最后恐怕只有买汉龙旷世了。
-        鼓刹的缺陷并不是制动力小，相反鼓刹制动力普遍是比同尺寸的盘式刹车大的，抗热衰减性能差才是鼓刹的缺陷。ID.4是后驱车，也就是说电制动在后轴，加上这台车的电制动功率够大。所以在非紧急情况下后轴的热衰减压力不大。但是ID.4作为电爹，整个重心靠后，所以在紧急制动工况后轴需要提供更大的制动力。鼓刹的特性正好契合了这个需求。实际上也可以看出，这个车刹车距离在同级别算优秀水平。在抗热衰减方面，看网上KOL的测试，甚至强于某些小尺寸盘刹的车。所以鼓刹真的不是这个车的缺陷。
-        当然以上都是对于这一系列主销的车型说的，对于ID.4的四驱性能版、以后的ID.3 R，以及定位更加高级的奥迪MEB车，后轮继续使用鼓刹绝对是应该被黑的。因为在这些性能版车型上，用户对刹车抗热衰减的要求高于普通车型，而对于奥迪的精装MEB车来说，更贵的价格带来的理应是更加充足的性能冗余。
-以上这几方面，加上国内大众对用户群体的判断失误，以及这个不知所云的直销模式，使得ID.4销量不佳。但是回到车本身，我觉得在20万的级别它还是可圈可点的一个车。</t>
+          <t>买这车纯属巧合，考虑换车后因为小城市没啥新势力4S店，主要了解了下byd唐，汉。实际看车后觉得bdy品牌服务还是和大厂有段差距（最起码我们这边是这样，你是不知道销售口臭的哇简直了），路过上汽一汽都去看了下试驾了IDc，然后下午去一汽谈了谈价钱就定车了。第二天准备交尾款被上汽截胡了，谈谈感受一汽真硬不实在价钱那是一点一点让步磨磨唧唧，所以就那边优惠买哪里。指定型号颜色
+【空间表现】
+我是觉得够用没啥问题，老爸觉得后排靠背有点斜。
+【充电时间】
+目前60电量，还没冲过，充电桩前天晚上刚安好，超了40米。
+【智能化】
+不对比感觉很好，一对比还有待升级，最起码远程解锁要有偶尔拿个东西也不用拿钥匙吧，自动锁车和关车窗貌似也没吧？</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
@@ -2657,25 +2527,18 @@
       <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure+ 纯净长续航版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>作为一个职业的车评人，今天要给大家解析的是ID.4 X  2021款 Pure+ 纯净长续航版 ，定位为一款5门5座紧凑型SUV，长宽高为（mm）4612/1852/1640，轴距为2765mm。厂商指导价为21.99万，当地地区这款车型报价目前暂无优惠，购置税0元，车船使用费300元，交强险950元，商业保险7058元，全款落地价格在228196元。
-当下手头不太宽裕的朋友，可以考虑进行分期购车，按照贷款利率4.75%计算，分期三年首付30%金额为94305元，贷款153930元，月供要4596元，贷款购车总花费要259761元，比全款购车多花出31565元。
-配置：这款车在配置方面的表现还是比较丰富的，比如电子驻车、胎压报警、道路交通标示识别、疲劳驾驶提示、前/后驻车雷达、倒车影像、定速巡航、三种驾驶模式、自动驻车、上坡辅助以及一键启动等都有配置。
-空间：这款车在空间方面还是不错的，前排空间自然不用说，主副驾驶的空间都非常的宽敞。坐进前排，头部余有四指的距离，在保持前排位置不变的情况下坐进后排，头部余有半拳的距离，腿部也余有一拳半的距离，后面可以轻松坐下三个成年人。
-操控：这台车的变速箱在起步时允许的最大滑动转速为2500转，松开刹车踏板，最大加速度出现在起步的瞬间，最大加速度G值为0.783g。尽管这款车的空气悬架调的比较硬朗，但在急加速时车头依旧上扬的比较明显。最终，经过测试，在0-100km/h加速中取得了6.67秒的成绩。
-加速：起步加速初段，这款车在瞬间就爆发出最大加速度，后续是以比较线性、比较平顺的加速过程。经过反复测试，最终，这款车在零百加速的平均成绩为6.47秒。
-制动：动测试表现不错，刹车G值在初段达到了-1.2g，之后稳定在-1.0g左右，全程都比较稳定，ABS介入的也比较细腻。最终经过多次尝试，这台车的100km/h-0的制动距离为38.62米。
-噪音：这款车在隔音降噪方面做的还是不错的，并且我们还利用专业的噪声测试仪对这款车在不同时速的噪音值进行了实测，经过测试，车内怠速噪音为38.3dB。当车辆行驶起来以后，这款车在处理噪音方面表现一般，实测60km/h时噪音为60.2dB。</t>
+          <t>驾驶的舒适感是最满意的，其次是续航里程不虚，外观也很满意，车灯非常好看，内饰比较简单，唯一稍微欠缺的是车机，有些小毛病，整体还是不错！</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.36</t>
         </is>
       </c>
     </row>
@@ -2686,24 +2549,18 @@
       <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X 1st Edition ID.初见版
+              2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>作为一个职业的车评人，今天要给大家解析的是ID.4 X  2021款 1st Edition ID.初见版 ，定位为一款5门5座紧凑型SUV，长宽高为（mm）4612/1852/1640，轴距为2765mm。厂商指导价为23.59万，当地地区这款车型报价目前暂无优惠，购置税0元，车船使用费300元，交强险950元，商业保险7403元，全款落地价格在244541元。
-当下手头不太宽裕的朋友，可以考虑进行分期购车，按照贷款利率4.75%计算，分期三年首付30%金额为100861元，贷款165130元，月供要4931元，贷款购车总花费要278377元，比全款购车多花出33836元。
-配置：这款车在配置方面的表现还是比较丰富的，比如电子驻车、胎压报警、并线辅助、车道偏离预警、车道保持辅助、道路交通标示识别、疲劳驾驶提示、前/后驻车雷达、倒车影像、倒车车侧预警、定速巡航、三种驾驶模式、自动驻车、上坡辅助以及一键启动等都有配置。
-操控：这款车节奏把握得很好，整个过程给我的感觉很舒服，基本感觉不到顿挫，无论是降档还是升档的响应时间都非常快，对驾驶者的意图能迅速做出反应，这也和它配备的变速箱分不开。值得一提的是，这款车的油门与刹车踏板调校是我非常喜欢的类型，属于那种踩多少就给你多少反馈，并且转向虚位很小握在手中也不会轻飘飘的。
-加速：这款车在起步阶段最大可达0.65g的加速度。这对于一台车来说已经是可圈可点的表现。并且随着速度的不断上升，这款车的后劲也还算保持得不错，后程加速度基本可以保持在0.3g左右。最终，这款车的实测百公里加速成绩为6.43s，仅属于同级中等水平。
-制动：这款车在制动方面的数据要抢眼很多，37.26米的数据在同级竞品中属于名列前茅的水平。车辆在紧急制动时车辆姿态变化比较明显，车内人员会有比较大的前倾感受。在制动的初断G值变化波动很大，在中后段基本趋于稳定。
-噪音：我们通过专业仪器上显示的实际数值来判定车辆NVH静谧性的表现。为了模拟日常用车场景，我们分别在车辆时速40km/h、60km/h及80km/h的状态下使用高精度声级计进行了实际测试，通过我们对车内噪声采集的读数来看，这款车在车速40km/h、60km/h以及80km/h时，车内前排读数分别为56.7dB、60.3dB以及62.5dB，虽然发动机噪音被有效抑制，但来自路面及轮胎的噪音还是被轻微传递进了车内，总的来看静谧性还是相当出色的。</t>
+          <t>底盘稳，加速舒服，滑行舒服，开起来的感觉非常安静。过个减速带，井盖非常舒服。刹车比较线性，用力踩也能定住。D的滑行距离非常长，速度几乎不衰减，不知道这个与鼓刹有没有关系。B档也很容易上脚，不晕车，不突兀，但是考虑到后车安全，基本都是D档开。我是个开车都晕车的人，就怕加速窜车和刹车点头，这车就很舒服，油门随叫随到，但是不冲。</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.71</t>
         </is>
       </c>
     </row>
@@ -2714,24 +2571,24 @@
       <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure+ 纯净长续航版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大众作为国内竞争力最强的德系品牌，它打造出了一系列爆款车型，而目前随着新能源车型的横空出世，大众也开始在这一领域不断发力，而它在近期推出的大众ID.4 X更是吸引了众多消费者。我在前天也向当地经销商预约到了大众ID.4 X的试驾车，试驾车的版本为2021款 Pure+ 纯净长续航版，我针对该车的驾乘体验进行了一个全面的测评，下面和大家一起聊聊我对它的试驾心得。 
-【动力感受】
-我试驾的这台大众ID.4 X配备的是后置单电机的动力系统，电机的总功率为204马力，峰值扭矩达到了310牛·米，官方给出的续航里程数据为555公里。虽然只是配备了一台后置单电机，但这台电动机的动力输出非常强劲，尤其是起步初段的扭矩爆发特别强，轻轻踩下电门车辆就会有很迅速的动力反馈，整个起步阶段没有任何动力迟滞的现象。除此之外，这台单速变速箱只有一个挡位，所以也没有任何顿挫感可言，就算在车辆静止状态下急加速也没有闯动感，整个动力输出的过程十分线性。另外，车辆车行驶到80km/h后，我在全力踩下油门急加速时，车辆首先给我一个非常迅速且强劲的推背感，但在持续3秒之后，动力储备就会感到明显不足，有一个逐渐衰退的迹象。 
-【驾乘体验】
-大众ID.4 X的定位是一台紧凑型SUV，车身长宽高分别为4612*1852*1640mm，轴距达到了2765mm。我的身高为177cm，当将前排座椅调节到中部，我乘坐在后排座椅距离前排的腿部空间为1拳4指，头部空间将近1拳。由于是电动车型，所以后排中央地台没有太明显隆起，车内的乘坐空间还是非常充裕的。大众ID.4 X的底盘设定也偏向于舒适，在经过大坑大洼时感受不到多余的回弹，在非铺装路面行驶也能够有效吸收车辆产生的震动与颠簸，整车的乘坐舒适度还是很出色的。不过，大众ID.4 X的悬挂调校偏软，对于车辆摆动与侧倾的抑制效果不明显，并且车辆的转向阻尼感也很模糊，整车的操控性有些差劲。 
-【购车费用】
-我试驾的这台大众ID.4 X的指导价为21.99万，由于是新车上市，我们太原地区给出的最高终端优惠只有2000-3000元，该车的裸车价为21.69万。好在是新能源车型，大众ID.4 X也享受免车船税与购置税的政策，其他花费也只有7285元的商业险全险，950元的交强险以及200元的上牌费，最终这台车的落地价为22.53万元。</t>
+          <t>完全不值这个牌子的口碑，亦或者这个牌子的口碑就是这样。
+首先作为1800多公里的车主感受如下:
+自2021年12月31号后，北方降温幅度比较大，基本在0℃左右徘徊，还经历了大雪。所以用车情况比较不理想。但是，真实感受的不理想大大超出了我的预期。
+从100%到20%的续航里程基本在200km以内，甚至续航短的时候在150-170km，这个前提是空调23℃，电座椅加热3档方向盘加热3档，有喷子就该说了，你别开那么大啊。我买个车啥都不敢开，我买它烧香供着吗？80几度的电池，就这么点续航？
+其次，id4x的显示续航逻辑真的是无奈。为什么这么说，充电至100%，锁车10分钟，再启动就显示剩余80%几。id4x，你说锁电10°，我能理解，万一遇到突发情况，留点预备电。但是根据这1800km，基本剩余20%的时候，至少储电还有30°，这么显示是啥逻辑呢？显示0%还能跑100km可贴心？？你这不是故意增加驾驶者的焦虑吗？
+再者，服务态度极差，2022年2月6日，充电后发生了莫名其妙的掉电，大众发来短信询问信息。之后ssss售后打来电话，对话内容基本为“建议充到80%，别充到100%，20%就要充电，解决不了，解决不了”我就想说20-80%区间，续航能到260km以上，我闲了非要充100%？你解决不了你打什么电话？
+总之，对没有热泵的电车，对大众失望至极。</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2742,21 +2599,18 @@
       <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure 纯净版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大众是国内的德系代表车企，在国内汽车市场已经耕耘多年，它的品牌力与知名度特别强，拥有大批粉丝群体，而如今大众也在新能源汽车上持续发力。前段时间我通过活动拿到了大众ID.4 X的试驾车，我针对这台车的驾乘体验进行了深度分析，下面和大家聊聊我的试驾感受，为大家购车做出参考。
-首先从动力部分开始入手，这台车配备了后置单电机的纯电动力系统，电机的最大功率为170马力，峰值扭矩达到了310牛·米，车辆的最高续航里程为402公里。由于是纯电动车型，这台车的动力响应非常迅速，电门踏板的反馈力度也很轻，轻轻踩下电门车辆就会迸发出很强的马力，车辆前中段给我的动力感受很轻快。当我将车辆时速提升至80公里每小时后，这时的动力储备就显得有些匮乏，急加速超车没有太明显的推背感，且动力的持续时间特别短，不过满足日常的家用是没有任何问题的。还有一个优点是这台车采用了单速变速箱，所以也没有任何顿挫感可言，电机的输出过程很线性，整体的驾驶舒适度我很满意。
-这台车的车身长宽高分别为4612*1852*1640mm，轴距则为2765mm，我的净身高为165cm，坐到车内后排的腿部空间为一拳四指，由于座椅比较高，头部空间只有四指，虽然说感受不到任何压迫感，但是车内空间也算不上宽敞。该车采用了前麦弗逊独立悬挂+后多连杆独立悬挂的底盘构架，整个底盘给我的感觉还是大众一贯的“高级风”，悬挂的阻尼感特别清晰，能够为驾驶员传送清晰的路感，同时还能有效吸收车辆产生的细小颠簸和震动，经过减速带时也感受不到太强的冲击力，乘坐舒适度很出色。这套悬挂对于车辆侧倾的抑制效果也很显著，但是转向虚位太大，刹车也比较软，操控性还有很大的提升空间。
-我试驾的这台大众ID.4 X的指导价为19.99万，目前该车的终端优惠几乎为零，我们这边只有1000元的优惠，裸车价为19.89万元。另外，这台车的商业险全险费用为6432元，交强险为950元，除此之外没有任何花费，因为它享受免购置税与车船税的政策，最终这台车的落地价为20.62万元。</t>
+          <t>外观漂亮，视觉上适合也适合年轻人，空间足够家用，本来想买一辆小点的车解决停车难得问题，ID3目前还只是预售，所以选择了ID4，操控非常舒适，调头及小路转弯都非常给力，目前已经行驶了近900公里，得出的结论D档适合车少路况，B档适合车多跟车路段，L2半自动驾驶和ACC区别不是很大，后视镜的下翻功能尚未调出，理解不了这说明书，内饰塑胶感较强，前排氛围灯很亮眼，但是后排没有氛围灯</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.93</t>
         </is>
       </c>
     </row>
@@ -2767,27 +2621,31 @@
       <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Prime 劲能四驱版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大众ID.4 X 2021款 Prime 劲能四驱版
-今天给大家带来的这台车是我亲身去试驾过的一款车，大众ID.4 X 2021款 Prime 劲能四驱版，都说它很香，那么今天我们就来看看它到底想在哪儿？
-车型分析：
-在这次试驾过程中，大众ID.4 X 2021款 Prime 劲能四驱版的底盘表现出的沉稳质感给我留下了不错的印象，经过颠簸时车身不会有多余的振动，在过减速带时也不会带来明显生硬的弹跳。这或多或少也和电动车本身的自重与配重有关，但大众ID.4 X 2021款 Prime 劲能四驱版毕竟挂着大众Logo，质感有保证。价格方面：这台车的厂商指导价为272,888元，上牌费用500元，车船使用费300元，交强险950元，商业保险8132元，落地价282,770元。大众ID.4 X 2021款 Pure 纯净版作为一辆SUV，这个价格也是比较中规中矩的了。
-静态部分
-老规矩，先来看看车身大小，大众ID.4 X 2021款 Prime 劲能四驱版车身长度4612mm，车身宽度1852mm，车身高度1640mm，轴距2765mm。这车身已经能满足大部分车主的需求了。外观层面：头部空间就不小，头顶是一整块玻璃，好看但实用性不强。座椅上下调节范围挺大，所以以我普通人的身材，既能够像坐SUV那样有高视野，也能像轿车那样低一些显得运动的样子。我平时开SUV的，所以偏好高一点坐姿。内饰层面：内饰是目前大众ID.家族所特有的设计风格，这类简洁的设计也是目前诸多新能源车型所追求的。虽然这套内饰起源于ID.3，但最先面向国内消费者的，还是ID.4（包括CROZZ）。此前途观X将全新的、带触控面板的方向盘带到了消费者的面前，如今ID.4 X亦遵循大众家族的内饰理念，在触控化的道路上走的更远，除了车窗升降外，也是见不到物理按键的身影了。还有就是方向盘略微有点重，这是我个人感觉，每个人感受可能有所区别，这里就说说我的感受。自动驻车功能是永远开启的，你只要将车辆挺稳就开启，所以在狭窄范围，比如停车位出去的时候，就需要踩油门，如果空间特别小的话，方向盘的重量会让我觉得欠一点灵活，当然开起来之后就没啥问题了。方向盘转起来很顺，基本上打多少车就动多少，这次就是市区内交通，感受不算太丰富。
-动态部分：
-动力自然是挺好，电动车嘛，这个是强项。电门阻尼偏重，跟大多数大众车也差不多，动能回收被默认关了，跟开普通车没区别，简单的打开方法就是拧一下挡把，向车头方向拧，就会进去B挡，开过混动的人应该都不陌生。如何在车机内调节，时间太仓促没搞明白，但我本身是不喜欢那种一松油门就拽一下的感觉，别说什么开长了就习惯了回不去了，我更担心哪天我坐在这样的车里，因为我很容易晕车。这是我第一次接触ID.4 X，从初印象来说，ID.4 X营造出了和传统燃油车相接近的驾驶感受。一方面是在D挡下松开加速踏板后车辆不会因动能回收而产生明显的拖拽感；另一方面是虽然一脚将加速踏板踩下去，能感觉到电机很强的爆发力，但这种发力是持续且均匀的，输出足够线性细腻，不会是那种突如其来的推背感。加速实测：全力加速时，这台大众ID.4 X 2021款 Prime 劲能四驱版所带来的推背感也是可观的，在460N·m扭矩的帮助下，ID.4 X只需6.25s就能完成0-100km/h的加速过程，起步时四个车轮也没有任何的打滑现象，“直愣愣的”就把车抛了出去。6.25s的0-100km/h加速时间，在纯电动紧凑型SUV里也是相当有竞争力了。刹车实测：在全力制动时，车辆的动能回收系统并不参与减速工作，此时制动力的释放是很线性的，从曲线图就能看出。车身姿态也很稳健，前悬架的支撑性不错，后悬架也能拉的住车身。35.7m的刹车距离，以这台试装车的表现来看也是同样出色，且10组刹车测试下来，刹车系统的工作状态非常稳定，没有出现衰减现象，如果量产版车型也能有这样的表现，那将是极好的。
-总结：
-不虚的续航，出色的加速与刹车成绩，不错的行驶质感，还有全新的外观与内饰，以上，就是上汽大众ID.4 X带给我们中国消费者的。哦对了，还有接近燃油车的驾驶风格，相信这对于一些只能购买纯电车型的增购消费者来说，无疑是有吸引力的。以前总拿某大众车主说这车比较高级的那张图开大众的玩笑，现在看这台大众ID.4 X 2021款 Prime 劲能四驱版，确实有点高级，各项测试成绩也挺靠谱，就等量产后的试驾车到位，我们再出来“遛遛”。</t>
+          <t>【驾驶感受】
+底盘扎实。转向半径小，灵活易上手，操控还行。
+【空间表现】
+同级别不错。
+【续航】
+不开空调市区代步正常能开到400到500公里。
+【充电时间】
+家用慢充百分之20到80要十来个小时。
+【动力表现】
+相当于2.0T动力，前段块，后段慢。
+【提车价格】
+23.59+1200坐标上海，送一年商业险。
+【缺点】
+车机太传统。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -2804,17 +2662,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>从当前的汽车市场局势中可以看出，新能源车型已经成为了大势所趋，而大众作为德系的代表车企，它在这一领域中也不断发力，它近期推出的大众ID.4 X一经亮相就吸引了众多消费者，市场热度居高不下。就在上周，我也通过经销商的活动预约到了大众ID.4 X的试驾车，车型版本为2021款pro极智长续航版，拿到车之后我主要针对这台车的驾乘体验进行了重点评测，下面和大家聊聊我对它的看法。 
-【车价】首先从价格方面来看，我试驾的这台大众ID.4 X pro极智长续航版的指导价为23.59万元，该车目前在我们太原地区没有任何终端优惠，如果贷款购车可能会有一定的优惠，但也有店内上险、强制装潢等附加条件，其实也并不合适。不过，好在大众ID.4 X也享有国家提供的免购置税和车船税的政策，其他的费用就只有7735元的商业险，950元的交强险，以及200元的上牌费，最终全款落地价为24.47万元。
-【动力】我试驾的这款大众ID.4 X搭载了后置单电机的纯电动系统，这台电动机的总功率为204
-马力，峰值扭矩达到了310牛·米，这个版本车型的最高续航里程达到了555公里，这个表现还是非常不错的。单看这个动力参数确实没什么亮点，但从驾驶感受来说，大众ID.4 X没有我预想中的笨重，就算是车重达到了2120kg，但是给我的感觉非常轻快，尤其是起步前段的动力响应非常迅速，轻踩油门就会有一个非常积极的动力反馈，不管在任何时间段内急加速，也不会有顿挫感与闯动感，整个加速过程非常线性，这也是电动车的一大优势。在行驶到中后期时，虽然急加速时感受不到明显的推背感，但是用做日常超车来说也绝对够用。 
-【驾乘】要说大众最大的一个品牌优势，那绝对就是高级的底盘质感，而这点在大众ID.4 X身上也体现的淋漓精致。大众ID.4 X配备了前麦弗逊独立悬挂与后多连杆独立悬挂的底盘构架，整个悬挂的调校软硬适中，给人的感觉非常紧凑，在非铺装路面行驶时能够吸收大量的震动与颠簸，而在经过大坑洼或减速带时也感受不到多余的回弹，车身的弹跳现象也不严重，乘坐舒适度非常高。不过，大众ID.4 X的这套悬架缺乏支撑性，在高速过弯时对车辆侧倾的抑制微乎其微，整车的转向阻尼感也比较模糊，并且带有一定的虚位，车辆的动态灵敏度比较差，整体的操控性也只能说中规中矩。 
-【总评】经过一下午的试乘试驾，我对大众ID.4 X pro极智长续航版这款车型的了解也比较全面，从我个人角度来看，它的车内空间与底盘质感依旧在同级车型中独占鳌头，车辆的续航里程也很出色，作为家用车来说确实非常合适。不过，这台车的操控体验与动力输出都存在着一定的缺陷，如果注重车辆的操控与动力，还是希望大家多做一些考虑。</t>
+          <t>性价比高的不得了，续航也不错，外观中上，内饰中上，充电便宜，不开快车不知到动力怎么样，空间前排很大，180富裕，后排不知道没做，灯组涉及的不错，会自己亮。看车买车提车10天完成，但是感觉上汽4S店在电动车的销售培训还不是很到位，但很热情，不知道后续维护保养维修怎么样。线下购买价格还能便宜一些，但是线上的权益都没了，全车好多年十多万公里质保，终身救援等都没得选。北京
+10几度开十七八的电耗，速度100以内，再快还没开。开迈斯充电120千瓦的，实际30至80，保持在58-59瓦，没上60，不知道为什么和懂车帝测的差很多，也是一辆车占一个桩。车机感觉一般，和其他国产车差的些，acc试了一两次还行，没试过其他的所以没有对比。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.43</t>
         </is>
       </c>
     </row>
@@ -2825,21 +2679,23 @@
       <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X 1st Edition ID.初见版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>大众的ID.4系列车型作为大众旗下首款纯电动SUV，它的惊艳点真的是非常多，今天我们体验的是上汽大众ID.4 X 2021款1st Edition ID.初见版。先不看别的，单就这款车的外观就已经足以惊艳全场，看那犀利的前大灯，还有235/50 R20的大尺寸轮圈，真的是给人一种科技未来的感觉。它的前后大灯都具有迎宾灯的效果，前大灯采用了IQ.LIGHT，当驾驶者拿着车钥匙接近时，大灯会一次点亮并向上旋转，同时它的后尾灯会有一个从中间车标开始到两边的流线型的效果，这种感觉相当不错。
-实际驾驶起来，这台最大马力204匹，最大扭矩310牛米的电动机，能带给驾驶者的与其他品牌电动车不一样的感受就是，它的电门踩下去之后，加速感会来的十分的绵密，摒弃了以往电动车加速时的突兀感，即使一踩到底，您也会觉得它的加速完全在您的掌控之中，如果您的脚往下踩的速度慢一点的话，您也会感受到它的加速真的是踩多少有多少，非常的线性，非常有层次感。日常驾驶中，车内噪音控制的十分优秀，方向盘非常轻盈而且指向性也相当好。悬架的调节也是更加偏向于舒适，过坑过坎时也是相当的柔和，不过在高速行驶时，这个软绵绵悬挂就显得有些力不从心了。它的续航可以达到555公里，快充的话40分钟即可充电至80%，慢充需要12.5小时来完成。
-再有就是内部空间方面，ID.4车系采用了数字化座舱的设计理念，平直线条的设计使得整个中控台看起来层次感明显。它的换挡机构被安排在了液晶仪表盘的右侧，这个设计是其他品牌车型都没有过的，也是大众做的一个大胆的创新，原本档把的区域被无线充电装置和两个杯子架所代替。液晶仪表盘的设计看起来十分精致，甚至会给人一种赛车的感觉！12英寸的触控液晶屏操作起来响应速度非常快，支持Carplay、CarLife以及语音控制系统，车内音响、空调等大部分操作都可以通过语音控制来完成，它的唤醒词是“你好大众”。
-总体来说，这台上汽大众ID.4 X 2021款1st Edition ID.初见版给用户营造的就是极端的舒适感和科技感，能够完全满足驾驶者的日常通勤需求。</t>
+          <t>外观设计：外观内饰时尚、精致，前后贯穿式大灯，绝对是车群中最亮的仔！
+空间表现：前排满足一台中型SUV的空间使用，后排紧凑，够4口之家使用！后备箱空间够用！
+驾驶风格：车辆非常德系风，后驱短前悬长轴距的设计，配上加速7.5秒左右的动力，好开底盘扎实，方向指向精准，
+配置：防漏气保用胎加自修复功能，让我跑高速非常有自信和放心！配置实用丰富！矩阵式大灯，智能且为夜间安全行驶保驾护航！前排座椅按摩，让长途驾驶非常舒适！冬天远程和定时启动空调，非常nice！
+充电时间：用国家电网的直流快充从3%到100%大概用时1小时25分钟左右，交流慢充1小时7度电，家用充电桩32A7kW左右的电流，充电10小时左右从3%到100%，还算满意！
+最不满意：就是冬天开空调的续航350公里左右，还是让我有所不爽！</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2706,18 @@
       <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X 1st Edition ID.初见版
+              2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>随着绿色环保理念的提倡，汽油价格的不断提高，很多人在买车的时候都开始选择新能源电动汽车，相比于燃油车，新能源电动汽车的确有很多优势，比如低耗节能等，当然也存在续航里程不够等问题，不过在技术的不断发展中这些问题也在不断被改善。上汽大众ID.4X的出现，就在保证新能源电动汽车优势的前提下，解决了用户的续航里程焦虑。
-就在上周，我通过和当地上汽大众4S店预约，成功拿到了ID.4X的试驾车，车型版本为2021款 1st Edition ID.初见版 。下面我就和大家聊一聊我对这台车的实际体验。
-ID.4X这台车定位为一款5门5座紧凑型SUV，长宽高分别为（mm）4612/1852/1640，轴距为2765mm。厂商指导价为23.59万，经过询问，在我们当地目前暂无优惠。另外，加上车船使用费、交强险、上牌费以及商业保险，全款落地价格在244541元。如果预算有限的话，还可以选择分期，我们以分36期计算，需要首付款79865元，贷款165130元，月供需要4931元，贷款总花费为257381元。
-动力方面，这台车搭载的是永磁/同步电机，最大功率为150KW，最大扭矩为310N·m，纯电续航555km。电池方面采用的是三元锂电池，电池能量为83.4kwh，并且电池质保为八年或16万公里。另外，这台车的慢充时间为12.5小时，不过好在支持快充，而且快充时间仅为0.67小时即可至80%的电量。
-试驾时，我感觉相较于大部分的纯电SUV，ID.4 X 的动力顺畅，但不激进，底盘依旧是熟悉的配方，沉稳中带舒适，对路面的颠簸过滤的干脆利落，德系驾控感得到了很好的保留 。ID.4 X有B挡和D挡两个前进档位，试驾过程中我大部分时间都挂的D 挡，松开加速踏板后的动能回收力度微乎其微。挂到B挡，松开油门明显能感觉到动能回收带来的拖拽感，无论是驾驶感受，还是对安全的考量，个人建议在电量足够的情况下还是尽量使用D挡。
-在空间方面，ID.4X还是挺宽敞的。以我身高178cm为例，坐在前排并调整至最佳位置，头部空间还有2拳的距离。在前排保持位置不变来到后排，此时腿部空间有2拳多，头部空间1拳3指。另外，ID.4X的后备还是比较规整的，没有过多的造型浪费空间，并且座椅还支持比例放倒，放倒后的后备箱空间得以更好额拓展，对于日常使用还是比较方便的。
-ID.4X这台车乘坐感还是比较舒服的，座椅采用的是皮/翻毛材质混搭材质，坐垫的填充物也偏向柔软，坐上去之后非常舒服。另外，这台车的主/副驾驶座还支持前后/靠背/高低调节/腰部支撑等功能，同时，前排座椅还支持主副驾驶座电动调节、加热/按摩功能，所以乘坐方面非常的不错。
-起步与加速时，ID.4 X呈现出静谧车厢，“听不到电机的声音，路噪和风噪的抑制也很到位”。并且，配合其超低的风阻系数，“低速状态下隔音表现十分的不错”。高速行驶时，尽管传递至车厢的声音会放大，ID.4 X的车内也足够安静。当我们将车速提升至120km/h时，车内依然较为安静，也不影响车内我们相互之间的交流。</t>
+          <t>外观来看还是很不错的，内饰的话塑料感较强，希望内饰可以更好，动力还是很不错的路上超车还是比较轻松的，空间感够用，对比其他来说感觉定价稍微高了一点点，车前的提示灯感觉还是不错的，车机系统暂时感觉还好。综合来看对这车还是好评</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -2879,23 +2728,18 @@
       <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pro 极智长续航版
+              2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>外观上，ID.4 X这台车并没有像现在新势力造车的那种杀气腾腾的感觉，反而倒显得比较有亲和力，作为传统车企外观上还是更乐意走比较中庸适合普罗大众的路线，在“求稳”的基础上再去更多的追求“求变”。ID.4 X外观上最大的亮点就是车前灯这块了，整个贯穿式灯组的设计，而且大众的“VW”标都会跟着一块亮起来，在传统的设计中融入了新的元素。从观感上来讲，这台车对于灯光的调教是非常高级的，这种高级感来自色温和亮度的调节，这灯相当的聪明。
-另外我觉得2个设计上一个可以给赞的地方就是，大众并没有为了降低风阻去可以做隐藏式的门把手，反而还采用机械式的门把手。这样做的好处非常明显，不怕冬天车门把手被冻上；而且当车没电的时候，也还可以开关车门，不用怕抓瞎。另一个就是轮毂设计为了降低风阻而做出的双拼色的设计，比较耐看；不用像特斯拉那样搞块塑料装饰件去起到降低风阻的用途。
-ID.4 X的三围是4612*1852*1640mm，轴距为2765mm，这个尺寸在紧凑级SUV中也算是第一梯队的车型了。实际乘坐下来，177cm身高的人在后排腿部空间能有近20cm，头部空间为1拳，乘坐空间表现很好。而且后备厢空间深度达到了97cm，最宽的地方达到了127cm，还是挺能装的。
-内饰方面，整体的感觉就是大众终于摆脱那种千年不变的设计和布局了，显得非常的数字化。而且这台车的氛围灯支持30色的氛围灯调节，而且在换了氛围灯的颜色之后，整个中控系统的UI界面颜色都会跟着变换，这种细节的拿捏显得相当用心。这台车的刹车踏板是暂停的LOGO，油门踏板是加速的LOGO，这个算是一个彩蛋了吧，还挺有喜感的。最后点个赞的是ID.4X的座椅，采用网格化的超纤绒面和皮质搭配，无论是触感还是对身体的支撑都相当出色；关键它的前排座椅还具备按摩功能，相当解乏。
-ID.4X Pro极智长续航版搭载的是单电机，最大功率150千瓦，峰值扭矩310牛米。参数表现上和自家那台2.0T低功率版发动机要稍微大一点。开起来的感觉，在起步加速能力来说ID.4X足够快，但并不是瞬间拉升车速的那种很暴力的冲刺感，而是有一定线性的加速；同样减速时也是，松开踏板之后车辆的拖拽感也不是很强烈；感受相当像燃油车，并不会像有很多新能源车型上加速和减速过程中容易产生不适感。另外，方向盘偏沉的转向力度设定、清晰的路感，也跟以往印象中的大众车型保持一致。
-至于电动车最在意的续航，这款ID.4X Pro极智长续航版NEDC工况续航能力为555公里.但试驾体验了108公里，其中高速路占了70%，出发时表显续航里程400公里，到达目的地之后显示还剩309公里的续航。等于实际开的这108公里，最终却只消耗了91公里的电量，要知道这还是坐满4人开着空调跑的高速的成绩，这个表现有点让人意外。</t>
+          <t>车整体来说吧没什么太大问题，很多细节上也都还说过得去，真的要说使用上还是有一些不足的地方的，最直接的也是最不能理解的就是反光镜了，现在的车加一个折叠配置也没多难，可惜反光镜就是没有自己折叠，洗车和停车时真的非常不方便，还有就是车机系统太不稳定了，经常和手机连接时出现问题，网络连接也问题经常出现。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.14</t>
         </is>
       </c>
     </row>
@@ -2906,25 +2750,27 @@
       <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure 纯净版
+              2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>作为一个职业的车评人，今天要给大家解析的是ID.4 X   2021款 Pure 纯净版  ，定位为一款5门5座紧凑型SUV，长宽高为（mm）4612/1852/1640，轴距为2765mm。厂商指导价为19.99万，当地地区这款车型报价目前暂无优惠，购置税0元，车船使用费300元，交强险950元，商业保险6627元，全款落地价格在207765元。
-当下手头不太宽裕的朋友，可以考虑进行分期购车，按照贷款利率4.75%计算，分期三年首付30%金额为86108元，贷款139930元，月供要4178元，贷款购车总花费要236516元，比全款购车多花出28751元。
-配置：这款车在配置方面的表现还是比较丰富的，比如电子驻车、胎压报警、道路交通标示识别、疲劳驾驶提示、前/后驻车雷达、倒车影像、定速巡航、三种驾驶模式、自动驻车、上坡辅助以及一键启动等都有配置。
-空间：这款车在空间方面还是不错的，超4.6米的车长以及将近2.8米的轴距使得空间较为宽敞。坐进前排，头部仍余有一拳的距离，在保持前排位置不变的情况下坐进后排，头部余有近一拳的距离，腿部也余有一拳半的距离，后排坐下三个成年人还是一点问题没有的。
-操控：在试驾时，车身姿态很柔和，很符合这款车的特点。如转向力度与精度、踏板力度与效率、避震阻尼和行程，所有这些与驾驶有关的部件的风格都非常统一。另外，这款车给油提速，平顺是最大的好感，这台电动机当时可是绘制了一条理想的动力曲线再逆向研发调校，以平顺为前提，干净利落这是加速的实际表现，正常模式下丝毫不拖泥带水，循循渐进沉稳舒适，速度的上升跟你脚基本同步。
-加速：起步加速初段，这款车在瞬间就爆发出最大加速度，后续是以比较线性、比较平顺的加速过程。经过反复测试，最终，这款车在零百加速的平均成绩为6.47秒。
-制动：当车速超过100km/h时全力制动，这款车刹车力度比较平稳，ABS介入迅速，对刹车踏板的控制也比较细腻，没有严重的弹脚感。整个制动轨迹平直，并且车身姿态控制的也很不错。最大减速g值达到-1.2g，整个刹车过程比较平稳，最终成绩为37.25米。对于这款车来说，强大制动力可以给驾驶者提供十足的自信心。
-噪音：这款车车厢静谧性在同级别当中处于中上等水平，无论是在低速还是高速行驶，对于路噪和风噪的抑制都十分到位，加上配备主动降噪技术，车厢的静谧性表现很不错。</t>
+          <t>【空间表现】
+还不错，后排够用了
+【充电时间】
+40分钟20到80
+【续航】
+20到80夏天350到360 冬天260吧
+【智能化】
+车机系统太简单，功能太少
+【最不满意】
+颠簸路段异响严重</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.06</t>
         </is>
       </c>
     </row>
@@ -2935,25 +2781,18 @@
       <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Prime 劲能四驱版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>作为一个职业的车评人，今天要给大家解析的是ID.4 X  2021款 Prime 劲能四驱版  ，定位为一款5门5座紧凑型SUV，长宽高为（mm）4612/1852/1640，轴距为2765mm。厂商指导价为27.29万，当地地区这款车型报价目前暂无优惠，购置税0元，车船使用费300元，交强险950元，商业保险8201元，全款落地价格在282339元。
-当下手头不太宽裕的朋友，可以考虑进行分期购车，按照贷款利率4.75%计算，分期三年首付30%金额为116022元，贷款191030元，月供要5704元，贷款购车总花费要321366元，比全款购车多花出38967元。
-配置：这款车在配置方面的表现还是比较丰富的，比如电子驻车、主/副驾驶座安全气囊、前排侧气囊、前/后排头部气囊、胎压报警、并线辅助、道路交通标示识别、疲劳驾驶提示、前/后驻车雷达、360度全景影像、全速自适应巡航、倒车车侧预警、三种驾驶模式、自动驻车、上坡辅助以及一键启动等都有配置。
-空间：这款车在空间方面还是不错的，超4.6米的车长以及将近2.8米的轴距使得空间较为宽敞。坐进前排，头部仍余有一拳的距离，在保持前排位置不变的情况下坐进后排，头部余有近一拳的距离，腿部也余有一拳半的距离，后排坐下三个成年人还是一点问题没有的。
-操控：实际驾驶过程中，在加速超车时需要深踩油门，发动机转速超过3000rpm后，动力输出明显顺畅多了，加速状态也会变得更为积极。不过，后续动力不够充沛，转速超过4500rpm后，动力表现很少再有提升的空间。如果不是急性子，如果只是用于简单的日常代步那么这个动力还是可以满足基本需求的。市区道路和高速行驶时很平顺，堵车路段时的“低速蠕动”情况，只要油门、刹车轻一些，顿挫也不会很明显。
-加速：这台车的变速箱在起步时允许的最大滑动转速为2500转，松开刹车踏板，最大加速度出现在起步的瞬间，最大加速度G值为0.783g。尽管这款车的空气悬架调的比较硬朗，但在急加速时车头依旧上扬的比较明显。最终，经过测试，在0-100km/h加速中取得了6.42秒的成绩。
-制动：制动测试表现不错，刹车G值在初段达到了-1.2g，之后稳定在-1.0g左右，全程都比较稳定，ABS介入的也比较细腻。最终经过多次尝试，这台车的100km/h-0的制动距离为38.11米。
-噪音：高速驾驶还有一个特别惊喜的表现是静音。驾驶时我们一路闲聊，从80-120甚至130km/h，这款车的噪音几乎维持在同一水准，高速的风噪增长并不明显，这点非常厉害。全程车内交谈完全不需要提高音量。</t>
+          <t>驾驶已经6个月了，行驶了14000公里感受了电车的味道，成本是最大的优势。中规中矩，驾驶操控相当不错，不愧为德系车的设计理念，尤其是转弯时特别喜欢。充电速度很不错快充45分钟左右能达到85%，车机有2-3小黑出现，重启之后正常能接受。总体感觉还是不错的吧！下次继续分享，加油！</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.44</t>
         </is>
       </c>
     </row>
@@ -2970,18 +2809,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>近期，笔者受上汽大众官方邀请来到了海南三亚市，参加大众ID.4 X的试驾活动。分配给到我的试驾车是2021款 1st Edition ID.初见版，官方续航为555公里，指导价是23.5888万元。下面带大家了解这款车怎么样，值得购买吗？
-动力：大众ID.4 X 2021款 1st Edition ID.初见版采用了后置后驱模式，搭载的电机功率是150kW，峰值扭矩是310N·m。官方NEDC续航为555公里，电池容量是83.4kWh。在我们试驾体验中，大众ID.4 X车搭载的电机动力完全能够应付城市、高速等日常出行需求，动力响应迅速，只要踩下电门踏板，动力能够随踩随到。但是，如果你想激烈驾驶，当车速飙到100时速之后，感觉后劲不足，并没有低速驾驶的提速感。所以说，在高速驾驶的时候，这款车没有燃油车刺激。
-动态感受：开车上路后，第一印象是车辆的底盘很沉稳，在过减速带时，你会感觉车辆微微一沉，没有什么多余的起伏，非常典型的德系车味道。得益于后置后驱的优势，ID.4 X的转弯半径比途观L和途岳还小，在三亚一些狭窄的街道上调头，居然一把就可以完成。从操控的角度来说，ID.4 X比我们试驾过的大多数新能源车都要好开，开起来更扎实可靠。
-驾驶模式：两种档位模式，D挡比较接近传统燃油车的驾驶感受，B挡是能量回收模式，当松开油门踏板就会自动减速，但减速效果不像某些品牌那样剧烈，比较符合传统驾驶逻辑。在测试中我们发现，在城市拥堵路况下，宜用B挡，上了高速就宜用D挡，既比较节能，也更能确保驾驶安全。这是我这次试驾的心得体会，希望大家可以试试。
-电池管理：最后谈谈ID.4 X电池管理系统，很有意思。我拿到这台试驾车的时候，显示续航里程422公里，剩余电量94%，为什么会远远少于555公里的官方续航呢？后来我发现，ID.4 X是通过4大条件来测算可行驶里程的。一是电池，包括电池的电量，电池的健康程度以及电池的温度；二是前50-70公里驾驶风格；三是高压电（暖风空调）的用电情况；四是低压电用电情况（音响手机充电等）。所以如果刚经过暴力驾驶，表显续航里程是会远远低于正常值的，但你“温柔”地开上一段时间，又会发现它老半天都不减少里程。
-大众ID.4 X 2021款 1st Edition ID.初见版落地要多少钱？
-我在广州当地多家上汽大众4S店咨询了一下，2021款 1st Edition ID.初见版新车暂时没有优惠。所以，在这种情况下，新车全款落地要多少钱？我找广州当地的销售顾问问了一下价格，他给我的报价如下：新车售价23.5888万元，车船使用税300元、交强险950元、商业险6500元、上牌费600元，全款落地要24.33万元。希望对大家购车有一定的参考。</t>
+          <t>ID4X外观造型非常好看，空间可以，续航里程500+，冬季略微少点，充电速度快，操控精准，底盘稳，车机系统有待提高，希望后续系统升级能解决。</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.71</t>
         </is>
       </c>
     </row>
@@ -2992,25 +2825,18 @@
       <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X 劲能四驱抢鲜版
+              2021款ID.4 X Pro 极智长续航版
             </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>作为一个职业的车评人，今天要给大家解析的是ID.4 X   2021款 劲能四驱抢鲜版 ，定位为一款5门5座紧凑型SUV，长宽高为（mm）4612/1852/1640，轴距为2765mm。厂商指导价为26.89万，当地地区这款车型报价目前暂无优惠，购置税0元，车船使用费300元，交强险950元，商业保险8115元，全款落地价格在278253元。
-当下手头不太宽裕的朋友，可以考虑进行分期购车，按照贷款利率4.75%计算，分期三年首付30%金额为114383元，贷款188230元，月供要5620元，贷款购车总花费要316703元，比全款购车多花出38450元。
-配置：这款车在配置方面的表现还是比较丰富的，比如电子驻车、胎压报警、道路交通标示识别、疲劳驾驶提示、前/后驻车雷达、360度全景影像、全速自适应巡航、三种驾驶模式、自动驻车、上坡辅助以及一键启动等都有配置。
-空间：这款车在空间方面还是较为宽敞的。坐进前排，头部仍余有四指的距离，在保持前排位置不变的情况下坐进后排，头部余有半拳的距离，腿部余有一拳半的距离，后排坐下三个成年人还是很轻松的。
-操控：在试驾这款车时，在刚起步时给人的感觉非常“迅猛”，动力响应敏捷直接，让人非常有好感。继续深踩加速踏板，你会感受到它的整个加速过程十分畅快，动力随叫随到，同时它还能带给你不错的加速感受。另外，它的急加速表现轻快，在超车时让驾驶员有不错的信心，超车动作完成干净利落，十分讨喜。
-加速：这款车在加速姿态方面，由于轮胎不错的抓地力，起步阶段几乎没有打滑，从加速测试可以看出，其最大加速度出现在1.63秒，为0.48g。经过多次测试，这款车 0-100公里/小时最好的加速成绩为6.41秒。
-制动：这款车的制动成绩也很不错，37.49米的距离在这个级别里算是比较突出了。虽然车身有一定程度“低头”，这和悬挂与避震器调校有关，但整体姿态还算稳，也并不影响制动效果。从测试中，能看出车辆在初段发力较大，加速度能低至-1g以下。中后段则保持均匀、平稳。
-噪音：在噪音测试上，这款车的表现处于同级别的平均水平，但是怠速时的静谧性在同级别中属于落后的水准。我们还利用专业的噪声测试仪对其在不同时速下的噪音值进行了实测，怠速时为43.2分贝，车速在60km/h时为55.6分贝，车速在90km/h时为59.4分贝，车速在120km/h时为63.8分贝。</t>
+          <t>车不错，但是软体比较差，中控存在死机现象，和新势力相比，智能化不足</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.14</t>
         </is>
       </c>
     </row>
@@ -3021,28 +2847,18 @@
       <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X 1st Edition ID.初见版
+              2021款ID.4 X Pure+ 纯净长续航版
             </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ID.4是大众集团旗下MEB纯电平台的车型，也是传统车企里完整度相当高的一款纯电车型代表。这台车的优缺点也很明显，先聊大家可能比较在意的槽点。
-第一、虽然ID.4是一台纯电平台出来的车型，但是内饰布局设计还是太大众了，尤其是不同驾驶模式的UI界面显示，不能说和大众燃油车毫无联系，只能说是一模一样，我相信抛开刚需买电动车的人群，很大一部分是奔着电动车不同于燃油车的体验的和服务来的，如果看着给人感觉和燃油车一样就没意思了。
-第二、全车价格打的很低，所以成本控制的确实有点狠，和大众燃油车类似的一些设计是一方面。主驾驶车窗控制只有两个按键，你可以说是脑洞大开，但也可以说是成本使然。另外，中控区域温度、音量调节区域的按键晚上是没有光源的，完全靠摸黑进行操作，这个确实让人想不明白。最后大家都知道的后轮鼓刹，想必多少也有成本控制的因素。
-第三，车机的娱乐性、可玩性几乎为零，可以下载app的应用商城能下载的app也少的可怜，和新势力的电动车去比车机的娱乐性，ID.4又是被吊打的份。
-总的来说，和新势力的电动车去比，ID.4给人的是一个小步快跑的感觉，能看到它也有努力在做创新改变，但和新势力的纯电产品去比的话，动作没有那么大，玩法上没有那么天马行空。
-下面再来聊聊这台车的亮点，毕竟ID.4体验完后，在上海这样的城市，真的会让人感觉比一台途观L要更香。
-第一、价格有吸引力，毕竟把一台像模像样的电动车拉到20万的级别，大众是真的下了功夫。
-第二、语音控制的人机交互感不错，前面会有灯闪烁互动，不是屏幕里的虚拟人物跳来跳去，而且车机的响应速度很快。
-第三、座椅真的太招人喜欢了，很加分，直接吊打Model3的座椅。
-第四、驾驶风格和燃油车接近，具备D挡和B挡两个设定，D挡下就完全没有能量回收，其实B挡模式下松了电门也几乎感受不到什么车辆拖拽感，更不存在什么单踏板模式。
-以上就是我们对于这台车的点评，希望对你购买这辆车有参考意义。</t>
+          <t>冬季续航打折比较多，尤其开热空调的时候，空间表现比较不错，后排满员乘坐不觉得挤，感觉后备箱盖板走颠簸路面的时候有异响</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.64</t>
         </is>
       </c>
     </row>
@@ -3053,37 +2869,21 @@
       <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2021款ID.4 X Pure+ 纯净长续航版
+              2021款ID.4 X 1st Edition ID.初见版
             </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>【第一次试驾ID.4X实车感受】
-前几天在本地车展上看到了上汽大众新出的ID.4X，很喜欢，问了销售场外居然还可以试驾，销售人员热情讲解，然后填了试驾协议，第一次近距离感受这个车。
-满意的地方：
-①转向调头半径小，十字路口调头毫无压力,三个车道的路面一把过，根本就不像印象中的SUV表现。
-②驾驶感受稳健，加速灵敏随踩随有，超车无压力。方向盘也是大众一如既往的风格，力度适中可以单手驾车。
-③续航真实，实测综合路况3人，不开空调3KWH/20KM，按照83.4kwh电池容量，可行驶556KM。
-不满意的地方：
-①20几万的车，内饰塑料感太强了。
-②试驾车后排座椅角度太直，且无法向后调节。
-【空间】
-后排做三个成年人刚刚好，三个人都不胖，大概都是130斤，膝部空余两拳，同时后排地板中间没有凸起。
-【底盘】
-底盘还是德系的的风格，过减速路面既能有效减震又可以将路感真实传递，同时车辆重心低过弯稳定。
-【刹车】
-D档刹车时感觉有点软，开启动能回收后，再次刹车时减速很快。
-【多媒体】
-没有传统的物理按键和触摸回馈，最尴尬的是我们试驾的过程中，导航时黑屏重启了，不知道是不是个例。大众的车机娱乐系统还是要完善啊！
-【个人感受和建议】
-ID.4X纯电动汽车继承了大众燃油车的行驶质感，无论是底盘还是操控性都是熟悉的德系风格。但是相比于燃油车，在加速和行驶平顺性上又有着天然的优势。在多媒体和智能驾驶方面，和造车新势力的车比起来，只能说是中规中矩。
-总之，如果你看重行驶和操纵质感，大众ID.4无疑是电动车之中的不错选择。但是如果你更在意科技感，智能化，从我个人的角度来看大众ID.4可能还差点意思。</t>
+          <t>驾驶体验：还不错
+续航表现：挺好
+车机系统：偶尔会出现连接不上，黑屏
+总体来说还是不错，车机系统还有待优化。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.89</t>
         </is>
       </c>
     </row>
@@ -3100,16 +2900,36 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>众多传统汽车品牌都投入了电动车的怀抱，大众也不例外，不知道在国外畅销的大众ID.4 X到国内会不会水土不服。从外观上看，大众ID.4 X“不再大众”，采用了全新的家族化设计语言，闭合式前脸，一条LED灯带连接左右两侧狭长的大灯，配上下方大尺寸的贯穿式进气格栅，年轻化和运动感十足。侧面柔和的腰线贯穿车身，取消了传统的车门拉手，采用隐藏式拉手设计，增加运动气息的同时视觉上也比较简洁舒展。贯穿式尾灯呼应前脸，C形镀铬条包裹后雾灯。
-大众ID.4 X作为一款紧凑型SUV，车身尺寸为4612mm×1852mm×1640mm，轴距2765mm，在紧凑型SUV里面“身材”算不错了的，实际乘坐进去，身高175左右的人坐进去，前排头部空间充裕，大概一拳四指的距离，入坐后排，头部空间约四指左右，腿部一拳四指左右，也还能活动开。当行李很多时，后排座椅可以按比例放倒，增加后备箱容量。总体来说车身空间无功无过。内饰方面，化繁为简，采用和途观X一样的新三幅式方向盘，多功能按键改变为触控式，有意思的是车内其他按键比如车灯控制，天窗控制，空调控制都转变为触控式，操作起来更方便。
-性能方面这辆大众ID.4 X Prime劲能四驱版搭载的83.4kWh容量的三元锂电池，官方续航里程为520km。配备前后双电机，四轮驱动，总扭矩460N·m，最大马力313Ps。实际开上路，方向盘转向精准，油门线性，换挡平顺，不会感受到很强的动能回收带来的拖沓感。大众ID.4 X有四种驾驶模式，经济、舒适、运动和个性化。在前三种模式下驾驶，动力都比较充足，当切换到运动模式，深踩油门时，强烈的推背感是让我有点惊喜的，车身姿态也比较平稳。虽然是一辆纯电动车，但动力和速度方面还是值得嘉赏。底盘采用麦弗逊式独立前悬挂和多连杆式独立后悬挂，经过不平整路段时，乘坐没有很强烈的颠簸感。
-值得一提的是，不知道为何大众ID.4 X后轮采用了鼓刹这一比较落后的配置，据说国外版本也是鼓刹，并不是国内减配，在日常使用时，鼓刹很难让人感受到什么区别，但是综合性能方面确实是不如碟刹的。
-不过，20万左右的大众ID.4 X，在电动车的领域，确实也不算贵，还是值得准备入手电动SUV的家庭考虑。</t>
+          <t>卖掉途观L后8月订车，10月提车，全系最顶配，换车的主要原因是有指标以及养车成本的考虑，没有选择蔚小理比亚迪特斯拉广汽埃安的主要原因是因为我是十年大众车主，开过从普桑、捷达王、高尔、夏朗、帕萨特到途观L，一直很钟情这个品牌。</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              2021款ID.4 X Pure+ 纯净长续航版
+            </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>与特斯拉和造车新势力相比，没有突出亮点。
+但在品牌、价格和可靠性的考虑后，我还是选择了大众——这个平庸但也具备品质感的品牌。
+低配长续航版本完全够用，只是没有了并线辅助、自适应巡航，确实感觉不像这个时代的产物。另外，感觉这个座椅更好看一些。</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.29</t>
         </is>
       </c>
     </row>
